--- a/data/ppag2026-dadosmg/indicadores_planejamento.xlsx
+++ b/data/ppag2026-dadosmg/indicadores_planejamento.xlsx
@@ -879,17 +879,13 @@
       <c r="I5" s="2" t="n">
         <v>45807</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>100</v>
@@ -897,11 +893,9 @@
       <c r="O5" t="b">
         <v>0</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -923,10 +917,14 @@
           <t>(NÚMERO DE ÁREAS DE PROCESSOS-CHAVES DO NÍVEL 3 IA-CM INSTITUCIONALIZADOS NA AUGE/QUANTIDADE DE ÁREAS DE PROCESSOS-CHAVES DO NÍVEL 3 IA-CM)*100</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>A METODOLOGIA DO IACM PRESSUPÕE AVALIAÇÕES PERIÓDICAS A CADA 2 ANOS, CONFORME PREVISTO ATUALMENTE.</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" s="2" t="n">
-        <v>45896.69444444445</v>
+        <v>45925.68125</v>
       </c>
       <c r="Y5" t="b">
         <v>0</v>
@@ -1294,7 +1292,7 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" s="2" t="n">
-        <v>45876.64236111111</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y9" t="b">
         <v>0</v>
@@ -1411,7 +1409,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TAXA DE PERMANÊNCIA HOSPITALAR (TPH)</t>
+          <t>PERCENTUAL DE DOCENTES COM TITULAÇÃO DE MESTRE E/OU DOUTOR.</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -1419,45 +1417,45 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dia</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>44196</v>
+        <v>45504</v>
       </c>
       <c r="J11" t="n">
-        <v>6.95</v>
+        <v>92</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6.95</v>
+        <v>93</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>6.95</v>
+        <v>93</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6.95</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="b">
         <v>0</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>HOSPITAL UNIVERSITÁRIO CLEMENTE DE FARIA - HUCF</t>
+          <t>PRÓ-REITORIA DE PÓS-GRADUAÇÃO</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1472,7 +1470,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>TAXA DE PERMANÊNCIA HOSPITALAR = (NÚMERO DE PACIENTES POR DIA)/TOTAL DE SAÍDAS</t>
+          <t>(DM+DD)/TD*100, ONDE DM: DOCENTES MESTRES, DD: DOCENTES DOUTORES E TD: TOTAL DE DOCENTES</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1485,7 +1483,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>MENOR</t>
+          <t>MAIOR</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1501,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE DOCENTES COM TITULAÇÃO DE MESTRE E/OU DOUTOR.</t>
+          <t>TAXA DE ALUNO FORMADO NOS CURSOS DE EDUCAÇÃO PROFISSIONAL E TECNOLÓGICO DE NÍVEL MÉDIO.</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -1515,41 +1513,41 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>45504</v>
+        <v>44196</v>
       </c>
       <c r="J12" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="b">
         <v>0</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>PRÓ-REITORIA DE PÓS-GRADUAÇÃO</t>
+          <t>CENTRO DE EDUCAÇÃO PROFISSIONAL E TECNOLÓGICO</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1564,7 +1562,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>(DM+DD)/TD*100, ONDE DM: DOCENTES MESTRES, DD: DOCENTES DOUTORES E TD: TOTAL DE DOCENTES</t>
+          <t>SOMATÓRIA DO N° DE ALUNOS FORMADOS NOS CURSOS TÉCNICOS X 100 = TOTAL DE ALUNOS MATRICULADOS EM CURSOS TÉCNICOS</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1595,7 +1593,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TAXA DE ALUNO FORMADO NOS CURSOS DE EDUCAÇÃO PROFISSIONAL E TECNOLÓGICO DE NÍVEL MÉDIO.</t>
+          <t>TAXA DE OCUPAÇÃO HOSPITALAR (TOH)</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -1607,7 +1605,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1616,32 +1614,32 @@
         <v>44196</v>
       </c>
       <c r="J13" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="b">
         <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>CENTRO DE EDUCAÇÃO PROFISSIONAL E TECNOLÓGICO</t>
+          <t>HOSPITAL UNIVERSITÁRIO CLEMENTE DE FARIA - HUCF</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1651,12 +1649,12 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>SOMATÓRIA DO N° DE ALUNOS FORMADOS NOS CURSOS TÉCNICOS X 100 = TOTAL DE ALUNOS MATRICULADOS EM CURSOS TÉCNICOS</t>
+          <t>TAXA DE OCUPAÇÃO HOSPITALAR (TOH)= ((NÚMEROS DE PACIENTES POR DIA INTERNADOS NO PERÍODO) / (NÚMERO DE LEITOS/DIA DISPONÍVEL NO PERÍODO)) * 100</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1687,7 +1685,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TAXA DE OCUPAÇÃO HOSPITALAR (TOH)</t>
+          <t>TAXA DE OCUPAÇÃO DE VAGAS DE RESIDENTES (R1) NOS PROGRAMAS DE RESIDÊNCIA MÉDICA</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -1699,34 +1697,34 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>44196</v>
+        <v>43830</v>
       </c>
       <c r="J14" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Q14" t="b">
         <v>0</v>
@@ -1748,7 +1746,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>TAXA DE OCUPAÇÃO HOSPITALAR (TOH)= ((NÚMEROS DE PACIENTES POR DIA INTERNADOS NO PERÍODO) / (NÚMERO DE LEITOS/DIA DISPONÍVEL NO PERÍODO)) * 100</t>
+          <t>TAXA DE OCUPAÇÃO DE VAGAS RESIDENTES (R1) = (NÚMEROS DE VAGAS OCUPADAS POR RESIDENTES R1 POR PERÍODO)/ (NÚMERO DE VAGAS DISPONIBILIZADAS POR PERÍODO)) *100</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1779,7 +1777,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TAXA DE OCUPAÇÃO DE VAGAS DE RESIDENTES (R1) NOS PROGRAMAS DE RESIDÊNCIA MÉDICA</t>
+          <t>TAXA DE PERMANÊNCIA HOSPITALAR (TPH)</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -1787,38 +1785,38 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>Dia</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>6.95</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>6.95</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>100</v>
+        <v>6.95</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>100</v>
+        <v>6.95</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
@@ -1835,12 +1833,12 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>TAXA DE OCUPAÇÃO DE VAGAS RESIDENTES (R1) = (NÚMEROS DE VAGAS OCUPADAS POR RESIDENTES R1 POR PERÍODO)/ (NÚMERO DE VAGAS DISPONIBILIZADAS POR PERÍODO)) *100</t>
+          <t>TAXA DE PERMANÊNCIA HOSPITALAR = (NÚMERO DE PACIENTES POR DIA)/TOTAL DE SAÍDAS</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1853,7 +1851,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>MAIOR</t>
+          <t>MENOR</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2952,7 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y27" t="b">
         <v>0</v>
@@ -3046,7 +3044,7 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y28" t="b">
         <v>0</v>
@@ -3811,7 +3809,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CAPACITAÇÃO EM GEOTECNOLOGIAS</t>
+          <t>INCREMENTO DE ABRANGÊNCIA DOS PROGRAMAS, PROJETOS E AÇÕES INSTITUCIONAIS DE EDUCAÇÃO AMBIENTAL</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -3822,42 +3820,38 @@
           <t>Percentual</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>45657</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="b">
         <v>0</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DIRETORIA DE ESTRATÉGIAS EM GEOTECNOLOGIAS E INFORMAÇÃO GEOGRÁFICA</t>
+          <t>DIRETORIA DE EDUCAÇÃO AMBIENTAL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3867,7 +3861,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -3876,7 +3870,11 @@
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>OS PRODUTOS DO INDICADOR” FORAM REFORMULADOS NO ANO DE 2025. PORTANTO, A NOVA METODOLOGIA ESTÁ EM APURAÇÃO E SERÁ APLICADA A PARTIR DE DEZEMBRO DE 2025. CUMPRE ESCLARECER, QUE EM RELAÇÃO AO PRODUTO DO AMBIENTAÇÃO, O SISTEMA INTEGRADO DE GESTÃO DO AMBIENTAÇÃO – SIGA 3.0 PASSOU POR REESTRUTURAÇÃO, QUE ESTÁ SENDO IMPLEMENTADO A PARTIR DE JANEIRO DE 2025.</t>
+        </is>
+      </c>
       <c r="X37" s="2" t="n">
         <v>45923.42152777778</v>
       </c>
@@ -3903,47 +3901,53 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PROJETOS DE PAGAMENTO POR SERVIÇOS AMBIENTAIS FOMENTADOS, FORTALECIDOS E/OU IMPLEMENTADOS</t>
+          <t>CAPACITAÇÃO EM GEOTECNOLOGIAS</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>Percentual</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>18.5</v>
+      </c>
       <c r="H38" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>45657</v>
+      </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
       </c>
-      <c r="P38" t="inlineStr"/>
+      <c r="P38" t="n">
+        <v>17</v>
+      </c>
       <c r="Q38" t="b">
         <v>0</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DPAI – DIRETORIA DE PROJETOS AMBIENTAIS E INSTRUMENTOS ECONÔMICOS</t>
+          <t>DIRETORIA DE ESTRATÉGIAS EM GEOTECNOLOGIAS E INFORMAÇÃO GEOGRÁFICA</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3958,7 +3962,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>PROPORÇÃO DE MUNICÍPIOS QUE IMPLEMENTARAM, FORTALECERAM OU FORAM BENEFICIADOS POR POLÍTICAS PÚBLICAS DE PAGAMENTO POR SERVIÇOS AMBIENTAIS (PSA) EM RELAÇÃO AO TOTAL DE MUNICÍPIOS MINEIROS</t>
+          <t>ÍNDICE = 100 X (NÚMERO DE PRODUTOS DO ANO ATUAL – NÚMERO DE PRODUTOS DO ANO ANTERIOR)/ NÚMERO DE PRODUTOS DO ANO ANTERIOR</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -3989,11 +3993,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>INCREMENTO DE ABRANGÊNCIA DOS PROGRAMAS, PROJETOS E AÇÕES INSTITUCIONAIS DE EDUCAÇÃO AMBIENTAL</t>
+          <t>PROJETOS DE PAGAMENTO POR SERVIÇOS AMBIENTAIS FOMENTADOS, FORTALECIDOS E/OU IMPLEMENTADOS</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -4006,7 +4010,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -4023,15 +4027,13 @@
       <c r="O39" t="b">
         <v>0</v>
       </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="b">
         <v>0</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>DIRETORIA DE EDUCAÇÃO AMBIENTAL</t>
+          <t>DPAI – DIRETORIA DE PROJETOS AMBIENTAIS E INSTRUMENTOS ECONÔMICOS</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4041,20 +4043,16 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>ÍNDICE = 100 X (NÚMERO DE PRODUTOS DO ANO ATUAL – NÚMERO DE PRODUTOS DO ANO ANTERIOR)/ NÚMERO DE PRODUTOS DO ANO ANTERIOR</t>
+          <t>PROPORÇÃO DE MUNICÍPIOS QUE IMPLEMENTARAM, FORTALECERAM OU FORAM BENEFICIADOS POR POLÍTICAS PÚBLICAS DE PAGAMENTO POR SERVIÇOS AMBIENTAIS (PSA) EM RELAÇÃO AO TOTAL DE MUNICÍPIOS MINEIROS</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>OS PRODUTOS DO INDICADOR” FORAM REFORMULADOS NO ANO DE 2025. PORTANTO, A NOVA METODOLOGIA ESTÁ EM APURAÇÃO E SERÁ APLICADA A PARTIR DE DEZEMBRO DE 2025. CUMPRE ESCLARECER, QUE EM RELAÇÃO AO PRODUTO DO AMBIENTAÇÃO, O SISTEMA INTEGRADO DE GESTÃO DO AMBIENTAÇÃO – SIGA 3.0 PASSOU POR REESTRUTURAÇÃO, QUE ESTÁ SENDO IMPLEMENTADO A PARTIR DE JANEIRO DE 2025.</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" s="2" t="n">
         <v>45923.42152777778</v>
       </c>
@@ -4815,11 +4813,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ÍNDICE DE COBERTURA EM CONSULTA MÉDICA</t>
+          <t xml:space="preserve">ÍNDICE DE COBERTURA EM CONSULTA MÉDICA				</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -4827,7 +4825,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4836,32 +4834,30 @@
         <v>45657</v>
       </c>
       <c r="J48" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
       </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="b">
         <v>0</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>SISTEMA DE CADASTRO DOS BENEFICIÁRIOS (SICAD) E SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) DO IPSEMG</t>
+          <t xml:space="preserve">SISTEMA DE CADASTRO ÚNICO (CADU) E SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) DO IPSEMG				</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4876,7 +4872,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>[TOTAL ANUAL DE CONSULTAS MÉDICAS (ELETIVAS, DE URGÊNCIA E DE PRONTO SOCORRO) REALIZADAS / MÉDIA ANUAL DO NÚMERO MENSAL DE BENEFICIÁRIOS ATIVOS NO SISTEMA DE CADASTRO DOS BENEFICIÁRIOS (SICAD)]</t>
+          <t xml:space="preserve">[TOTAL DE CONSULTAS MÉDICAS (ELETIVAS, DE ATENÇÃO PRIMÁRIA, DE URGÊNCIA E DE PRONTO SOCORRO) REALIZADAS / TOTAL DE BENEFICIÁRIOS ATIVOS NO SISTEMA DE CADASTRO ÚNICO (CADU) DO IPSEMG]				</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -4885,7 +4881,7 @@
         <v>45924.50972222222</v>
       </c>
       <c r="Y48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
@@ -4907,11 +4903,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÍNDICE DE COBERTURA EM CONSULTA MÉDICA				</t>
+          <t>ÍNDICE DE COBERTURA EM CONSULTA MÉDICA</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -4919,7 +4915,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.47</v>
+        <v>1.86</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4928,30 +4924,32 @@
         <v>45657</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
       </c>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
       <c r="Q49" t="b">
         <v>0</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t xml:space="preserve">SISTEMA DE CADASTRO ÚNICO (CADU) E SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) DO IPSEMG				</t>
+          <t>SISTEMA DE CADASTRO DOS BENEFICIÁRIOS (SICAD) E SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) DO IPSEMG</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4966,7 +4964,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TOTAL DE CONSULTAS MÉDICAS (ELETIVAS, DE ATENÇÃO PRIMÁRIA, DE URGÊNCIA E DE PRONTO SOCORRO) REALIZADAS / TOTAL DE BENEFICIÁRIOS ATIVOS NO SISTEMA DE CADASTRO ÚNICO (CADU) DO IPSEMG]				</t>
+          <t>[TOTAL ANUAL DE CONSULTAS MÉDICAS (ELETIVAS, DE URGÊNCIA E DE PRONTO SOCORRO) REALIZADAS / MÉDIA ANUAL DO NÚMERO MENSAL DE BENEFICIÁRIOS ATIVOS NO SISTEMA DE CADASTRO DOS BENEFICIÁRIOS (SICAD)]</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -4975,7 +4973,7 @@
         <v>45924.50972222222</v>
       </c>
       <c r="Y49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
@@ -8834,7 +8832,7 @@
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" s="2" t="n">
-        <v>45904.44305555556</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y91" t="b">
         <v>0</v>
@@ -9687,7 +9685,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM CAFEICULTURA</t>
+          <t>CLIENTES ASSISTIDOS</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -9695,38 +9693,38 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Nº de Atendimentos Realizados</t>
+          <t>ASSISTÊNCIAS PRESTADAS</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>44926</v>
+        <v>44917</v>
       </c>
       <c r="J101" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="M101" t="b">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="O101" t="b">
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="Q101" t="b">
         <v>0</v>
@@ -9748,7 +9746,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA. VALOR ABSOLUTO.</t>
+          <t>NÃO SE APLICA. VALOR ABSOLUTO</t>
         </is>
       </c>
       <c r="V101" t="inlineStr"/>
@@ -9779,7 +9777,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM BOVINOCULTURA</t>
+          <t>ATENDIMENTOS REALIZADOS EM CAFEICULTURA</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -9791,7 +9789,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>220000</v>
+        <v>110000</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -9800,25 +9798,25 @@
         <v>44926</v>
       </c>
       <c r="J102" t="n">
-        <v>220000</v>
+        <v>110000</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>220000</v>
+        <v>110000</v>
       </c>
       <c r="M102" t="b">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>220000</v>
+        <v>110000</v>
       </c>
       <c r="O102" t="b">
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>220000</v>
+        <v>110000</v>
       </c>
       <c r="Q102" t="b">
         <v>0</v>
@@ -9871,7 +9869,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM COMERCIALIZAÇÃO E GESTÃO</t>
+          <t>ATENDIMENTOS REALIZADOS EM BOVINOCULTURA</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -9883,7 +9881,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -9892,25 +9890,25 @@
         <v>44926</v>
       </c>
       <c r="J103" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="M103" t="b">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="O103" t="b">
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="Q103" t="b">
         <v>0</v>
@@ -9963,7 +9961,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM CRIAÇÕES</t>
+          <t>ATENDIMENTOS REALIZADOS EM COMERCIALIZAÇÃO E GESTÃO</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -9975,7 +9973,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -9984,25 +9982,25 @@
         <v>44926</v>
       </c>
       <c r="J104" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="M104" t="b">
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="O104" t="b">
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="Q104" t="b">
         <v>0</v>
@@ -10055,7 +10053,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM CULTURAS</t>
+          <t>ATENDIMENTOS REALIZADOS EM CRIAÇÕES</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -10067,7 +10065,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -10076,25 +10074,25 @@
         <v>44926</v>
       </c>
       <c r="J105" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="M105" t="b">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="O105" t="b">
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q105" t="b">
         <v>0</v>
@@ -10147,7 +10145,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM HORTALIÇAS E FRUTAS</t>
+          <t>ATENDIMENTOS REALIZADOS EM CULTURAS</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -10159,7 +10157,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>300000</v>
+        <v>170000</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -10168,25 +10166,25 @@
         <v>44926</v>
       </c>
       <c r="J106" t="n">
-        <v>300000</v>
+        <v>170000</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>300000</v>
+        <v>170000</v>
       </c>
       <c r="M106" t="b">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>300000</v>
+        <v>170000</v>
       </c>
       <c r="O106" t="b">
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>300000</v>
+        <v>170000</v>
       </c>
       <c r="Q106" t="b">
         <v>0</v>
@@ -10239,7 +10237,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM INCLUSÃO PRODUTIVA</t>
+          <t>ATENDIMENTOS REALIZADOS EM HORTALIÇAS E FRUTAS</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -10251,7 +10249,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>480000</v>
+        <v>300000</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -10260,25 +10258,25 @@
         <v>44926</v>
       </c>
       <c r="J107" t="n">
-        <v>480000</v>
+        <v>300000</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>480000</v>
+        <v>300000</v>
       </c>
       <c r="M107" t="b">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>480000</v>
+        <v>300000</v>
       </c>
       <c r="O107" t="b">
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>480000</v>
+        <v>300000</v>
       </c>
       <c r="Q107" t="b">
         <v>0</v>
@@ -10331,7 +10329,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM SEGURANÇA HÍDRICA E SUSTENTABILIDADE AMBIENTAL</t>
+          <t>ATENDIMENTOS REALIZADOS EM INCLUSÃO PRODUTIVA</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -10343,7 +10341,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -10352,25 +10350,25 @@
         <v>44926</v>
       </c>
       <c r="J108" t="n">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="M108" t="b">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="O108" t="b">
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="Q108" t="b">
         <v>0</v>
@@ -10423,7 +10421,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM AGROECOLOGIA</t>
+          <t>ATENDIMENTOS REALIZADOS EM SEGURANÇA HÍDRICA E SUSTENTABILIDADE AMBIENTAL</t>
         </is>
       </c>
       <c r="E109" t="b">
@@ -10435,7 +10433,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>70000</v>
+        <v>240000</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -10444,25 +10442,25 @@
         <v>44926</v>
       </c>
       <c r="J109" t="n">
-        <v>70000</v>
+        <v>240000</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>70000</v>
+        <v>240000</v>
       </c>
       <c r="M109" t="b">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>70000</v>
+        <v>240000</v>
       </c>
       <c r="O109" t="b">
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>70000</v>
+        <v>240000</v>
       </c>
       <c r="Q109" t="b">
         <v>0</v>
@@ -10515,7 +10513,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CLIENTES ASSISTIDOS</t>
+          <t>ATENDIMENTOS REALIZADOS EM AGROECOLOGIA</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -10523,38 +10521,38 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ASSISTÊNCIAS PRESTADAS</t>
+          <t>Nº de Atendimentos Realizados</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>44917</v>
+        <v>44926</v>
       </c>
       <c r="J110" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="M110" t="b">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="O110" t="b">
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="Q110" t="b">
         <v>0</v>
@@ -10576,7 +10574,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA. VALOR ABSOLUTO</t>
+          <t>NÃO SE APLICA. VALOR ABSOLUTO.</t>
         </is>
       </c>
       <c r="V110" t="inlineStr"/>
@@ -10607,11 +10605,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>DISCENTES FORMADOS E CAPACITADOS</t>
+          <t>PESQUISA/ATIVIDADE REALIZADA</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -10624,32 +10622,30 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>1955</v>
+        <v>5</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>1895</v>
+        <v>5</v>
       </c>
       <c r="M111" t="b">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>1918</v>
+        <v>5</v>
       </c>
       <c r="O111" t="b">
         <v>0</v>
       </c>
-      <c r="P111" t="n">
-        <v>1918</v>
-      </c>
+      <c r="P111" t="inlineStr"/>
       <c r="Q111" t="b">
         <v>0</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>ESCOLA DE GOVERNO PROFESSOR PAULO NEVES DE CARVALHO</t>
+          <t>FJP/ESCOLA DE GOVERNO/GERENCIA DE ENSINO E PESQUISA</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -10664,20 +10660,16 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>NÚMERO DE ALUNOS/DISCENTES MATRICULADOS/ATENDIDOS NOS CURSOS DA ESCOLA DE GOVERNO - GRADUAÇÃO, ESPECIALIZAÇÃO, MESTRADO, FORMAÇÃO EXECUTIVA E CONTINUADA - QUE EFETIVAMENTE CONCLUEM OS CURSOS.</t>
+          <t>SOMA DO NÚMERO DE PESQUISAS, ESTUDOS E ATIVIDADES REALIZADAS NO AMBITO DOS GRUPOS DE PESQUISA.</t>
         </is>
       </c>
       <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>QUANTO À INEXISTÊNCIA DOS ÍNDICES DE REFERÊNCIA, OS MESMOS ESTÃO EM APURAÇÃO. TRATAM-SE DE INDICADORES NOVOS E NÃO CONSEGUIMOS APURAR O "PARA TRÁS" A TEMPO.</t>
-        </is>
-      </c>
+      <c r="W111" t="inlineStr"/>
       <c r="X111" s="2" t="n">
         <v>45923.45763888889</v>
       </c>
       <c r="Y111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
@@ -10699,11 +10691,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>PESQUISA/ATIVIDADE REALIZADA</t>
+          <t>DISCENTES FORMADOS E CAPACITADOS</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -10716,30 +10708,32 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>5</v>
+        <v>1955</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>5</v>
+        <v>1895</v>
       </c>
       <c r="M112" t="b">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>5</v>
+        <v>1918</v>
       </c>
       <c r="O112" t="b">
         <v>0</v>
       </c>
-      <c r="P112" t="inlineStr"/>
+      <c r="P112" t="n">
+        <v>1918</v>
+      </c>
       <c r="Q112" t="b">
         <v>0</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>FJP/ESCOLA DE GOVERNO/GERENCIA DE ENSINO E PESQUISA</t>
+          <t>ESCOLA DE GOVERNO PROFESSOR PAULO NEVES DE CARVALHO</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -10754,16 +10748,20 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>SOMA DO NÚMERO DE PESQUISAS, ESTUDOS E ATIVIDADES REALIZADAS NO AMBITO DOS GRUPOS DE PESQUISA.</t>
+          <t>NÚMERO DE ALUNOS/DISCENTES MATRICULADOS/ATENDIDOS NOS CURSOS DA ESCOLA DE GOVERNO - GRADUAÇÃO, ESPECIALIZAÇÃO, MESTRADO, FORMAÇÃO EXECUTIVA E CONTINUADA - QUE EFETIVAMENTE CONCLUEM OS CURSOS.</t>
         </is>
       </c>
       <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>QUANTO À INEXISTÊNCIA DOS ÍNDICES DE REFERÊNCIA, OS MESMOS ESTÃO EM APURAÇÃO. TRATAM-SE DE INDICADORES NOVOS E NÃO CONSEGUIMOS APURAR O "PARA TRÁS" A TEMPO.</t>
+        </is>
+      </c>
       <c r="X112" s="2" t="n">
         <v>45923.45763888889</v>
       </c>
       <c r="Y112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
@@ -10877,47 +10875,53 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>TAXA DE EVASÃO</t>
+          <t>DESEMPENHO DOS DISCENTES DA GRADUAÇÃO NO ENADE - EXAME NACIONAL DE DESEMPENHO DOS ESTUDANTES</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
+          <t>Nota</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>5</v>
+      </c>
       <c r="H114" t="b">
-        <v>1</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="J114" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M114" t="b">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="O114" t="b">
         <v>0</v>
       </c>
-      <c r="P114" t="inlineStr"/>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
       <c r="Q114" t="b">
         <v>0</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>FUNDAÇÃO JOÃO PINHEIRO - ESCOLA DE GOVERNO</t>
+          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -10927,12 +10931,13 @@
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>Estadual</t>
-        </is>
-      </c>
-      <c r="U114">
-        <f> [(PESSOA CAPACITADA PLANEJADO - PESSOA CAPACITADA EXECUTADO) / PESSOA CAPACITADA PLANEJADO] X 100</f>
-        <v/>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>O ENADE, OU EXAME NACIONAL DE DESEMPENHO DOS ESTUDANTES, É UMA AVALIAÇÃO DO MINISTÉRIO DA EDUCAÇÃO (MEC) QUE VISA MEDIR O DESEMPENHO DOS ALUNOS CONCLUINTES DE CURSOS DE GRADUAÇÃO EM RELAÇÃO AOS CONTEÚDOS PROGRAMÁTICOS PREVISTOS NAS DIRETRIZES CURRICULARES, BEM COMO O DESENVOLVIMENTO DE COMPETÊNCIAS E HABILIDADES. O EXAME SERVE COMO UM INDICADOR DA QUALIDADE DO ENSINO SUPERIOR NO BRASIL, AUXILIANDO O MEC NA FORMULAÇÃO DE POLÍTICAS PÚBLICAS NA ÁREA DA EDUCAÇÃO E AVALIANDO A QUALIDADE DAS INSTITUIÇÕES DE ENSINO. FÓRMULA DE CÁLCULO COMPLETA DISPONÍVEL EM: HTTPS://WWW.GOV.BR/INEP/PT-BR/AREAS-DE-ATUACAO/AVALIACAO-E-EXAMES-EDUCACIONAIS/ENADE</t>
+        </is>
       </c>
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
@@ -10940,11 +10945,11 @@
         <v>45923.45763888889</v>
       </c>
       <c r="Y114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>MENOR</t>
+          <t>MAIOR</t>
         </is>
       </c>
     </row>
@@ -11054,53 +11059,47 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>DESEMPENHO DOS DISCENTES DA GRADUAÇÃO NO ENADE - EXAME NACIONAL DE DESEMPENHO DOS ESTUDANTES</t>
+          <t>TAXA DE EVASÃO</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Nota</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>5</v>
-      </c>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" s="2" t="n">
-        <v>44926</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M116" t="b">
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="O116" t="b">
         <v>0</v>
       </c>
-      <c r="P116" t="n">
-        <v>5</v>
-      </c>
+      <c r="P116" t="inlineStr"/>
       <c r="Q116" t="b">
         <v>0</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
+          <t>FUNDAÇÃO JOÃO PINHEIRO - ESCOLA DE GOVERNO</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -11110,13 +11109,12 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>O ENADE, OU EXAME NACIONAL DE DESEMPENHO DOS ESTUDANTES, É UMA AVALIAÇÃO DO MINISTÉRIO DA EDUCAÇÃO (MEC) QUE VISA MEDIR O DESEMPENHO DOS ALUNOS CONCLUINTES DE CURSOS DE GRADUAÇÃO EM RELAÇÃO AOS CONTEÚDOS PROGRAMÁTICOS PREVISTOS NAS DIRETRIZES CURRICULARES, BEM COMO O DESENVOLVIMENTO DE COMPETÊNCIAS E HABILIDADES. O EXAME SERVE COMO UM INDICADOR DA QUALIDADE DO ENSINO SUPERIOR NO BRASIL, AUXILIANDO O MEC NA FORMULAÇÃO DE POLÍTICAS PÚBLICAS NA ÁREA DA EDUCAÇÃO E AVALIANDO A QUALIDADE DAS INSTITUIÇÕES DE ENSINO. FÓRMULA DE CÁLCULO COMPLETA DISPONÍVEL EM: HTTPS://WWW.GOV.BR/INEP/PT-BR/AREAS-DE-ATUACAO/AVALIACAO-E-EXAMES-EDUCACIONAIS/ENADE</t>
-        </is>
+          <t>Estadual</t>
+        </is>
+      </c>
+      <c r="U116">
+        <f> [(PESSOA CAPACITADA PLANEJADO - PESSOA CAPACITADA EXECUTADO) / PESSOA CAPACITADA PLANEJADO] X 100</f>
+        <v/>
       </c>
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
@@ -11124,11 +11122,11 @@
         <v>45923.45763888889</v>
       </c>
       <c r="Y116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>MAIOR</t>
+          <t>MENOR</t>
         </is>
       </c>
     </row>
@@ -11453,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="P120" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q120" t="b">
         <v>0</v>
@@ -11485,7 +11483,7 @@
         </is>
       </c>
       <c r="X120" s="2" t="n">
-        <v>45917.52291666667</v>
+        <v>45925.46458333333</v>
       </c>
       <c r="Y120" t="b">
         <v>0</v>
@@ -11757,7 +11755,7 @@
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
       <c r="X123" s="2" t="n">
-        <v>45888.46736111111</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y123" t="b">
         <v>0</v>
@@ -11849,7 +11847,7 @@
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
       <c r="X124" s="2" t="n">
-        <v>45888.61805555555</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y124" t="b">
         <v>0</v>
@@ -11874,7 +11872,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NÚMERO DE ATIVIDADES CULTURAIS DA ORQUESTRA FILARMÔNICA, ORQUESTRA SINFÔNICA, CORAL LÍRICO DA CIA DE DANÇA, DO CINE HUMBERTO MAURO, ARTES VISUAIS</t>
+          <t>PÚBLICO DO CIRCUITO LIBERDADE</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -11882,45 +11880,45 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Atividade</t>
+          <t>visitante</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6490</v>
+        <v>5154019</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>45657</v>
+        <v>45291</v>
       </c>
       <c r="J125" t="n">
-        <v>4674</v>
+        <v>1725441</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>4725</v>
+        <v>2711407</v>
       </c>
       <c r="M125" t="b">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>4776</v>
+        <v>3253688</v>
       </c>
       <c r="O125" t="b">
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>4827</v>
+        <v>3579056</v>
       </c>
       <c r="Q125" t="b">
         <v>0</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>FUNDAÇÃO CLÓVIS SALGADO E SECULT (COMISSÃO SUPERVISORA DO CONTRATO DE GESTÃO DA ORQUESTRA FILARMÔNICA)</t>
+          <t>FUNDAÇÃO CLÓVIS SALGADO - FCS</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
@@ -11930,21 +11928,21 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>SOMATÓRIO DAS ATIVIDADES DESENVOLVIDAS PELA ORQUESTRA FILARMÔNICA, ORQUESTRA SINFÔNICA, CORAL LÍRICO, CIA DE DANÇA, CINE HUMBERTO MAURO, ARTES VISUAIS</t>
+          <t>SOMA DO NÚMERO DE VISITANTES PRESENCIAIS E DO NÚMERO DE PARTICIPANTES DAS AÇÕES REALIZADAS NO TERRITÓRIO DEFINIDO PELO § 1º, ART. 2º DECRETO Nº 48.074/2020, DESDE QUE VINCULADAS AOS EQUIPAMENTOS CULTURAIS DO CIRCUITO LIBERDADE.</t>
         </is>
       </c>
       <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr"/>
       <c r="X125" s="2" t="n">
-        <v>45888.47430555556</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
@@ -11966,7 +11964,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>PÚBLICO DO CIRCUITO LIBERDADE</t>
+          <t>NÚMERO DE ATIVIDADES CULTURAIS DA ORQUESTRA FILARMÔNICA, ORQUESTRA SINFÔNICA, CORAL LÍRICO DA CIA DE DANÇA, DO CINE HUMBERTO MAURO, ARTES VISUAIS</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -11974,45 +11972,45 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>visitante</t>
+          <t>Atividade</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5154019</v>
+        <v>6490</v>
       </c>
       <c r="H126" t="b">
         <v>0</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="J126" t="n">
-        <v>1725441</v>
+        <v>4674</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>2711407</v>
+        <v>4725</v>
       </c>
       <c r="M126" t="b">
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>3253688</v>
+        <v>4776</v>
       </c>
       <c r="O126" t="b">
         <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>3579056</v>
+        <v>4827</v>
       </c>
       <c r="Q126" t="b">
         <v>0</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>FUNDAÇÃO CLÓVIS SALGADO - FCS</t>
+          <t>FUNDAÇÃO CLÓVIS SALGADO E SECULT (COMISSÃO SUPERVISORA DO CONTRATO DE GESTÃO DA ORQUESTRA FILARMÔNICA)</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -12022,21 +12020,21 @@
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>SOMA DO NÚMERO DE VISITANTES PRESENCIAIS E DO NÚMERO DE PARTICIPANTES DAS AÇÕES REALIZADAS NO TERRITÓRIO DEFINIDO PELO § 1º, ART. 2º DECRETO Nº 48.074/2020, DESDE QUE VINCULADAS AOS EQUIPAMENTOS CULTURAIS DO CIRCUITO LIBERDADE.</t>
+          <t>SOMATÓRIO DAS ATIVIDADES DESENVOLVIDAS PELA ORQUESTRA FILARMÔNICA, ORQUESTRA SINFÔNICA, CORAL LÍRICO, CIA DE DANÇA, CINE HUMBERTO MAURO, ARTES VISUAIS</t>
         </is>
       </c>
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr"/>
       <c r="X126" s="2" t="n">
-        <v>45888.57569444444</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z126" t="inlineStr">
         <is>
@@ -12125,7 +12123,7 @@
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
       <c r="X127" s="2" t="n">
-        <v>45888.47638888889</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y127" t="b">
         <v>0</v>
@@ -12585,7 +12583,7 @@
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
       <c r="X132" s="2" t="n">
-        <v>45882.40902777778</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y132" t="b">
         <v>0</v>
@@ -14331,7 +14329,7 @@
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
       <c r="X151" s="2" t="n">
-        <v>45916.44027777778</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y151" t="b">
         <v>0</v>
@@ -14423,7 +14421,7 @@
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr"/>
       <c r="X152" s="2" t="n">
-        <v>45916.44305555556</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y152" t="b">
         <v>0</v>
@@ -14515,7 +14513,7 @@
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
       <c r="X153" s="2" t="n">
-        <v>45916.44236111111</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y153" t="b">
         <v>0</v>
@@ -14607,7 +14605,7 @@
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
       <c r="X154" s="2" t="n">
-        <v>45916.44375</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y154" t="b">
         <v>0</v>
@@ -14699,7 +14697,7 @@
       <c r="V155" t="inlineStr"/>
       <c r="W155" t="inlineStr"/>
       <c r="X155" s="2" t="n">
-        <v>45916.44166666667</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y155" t="b">
         <v>0</v>
@@ -14791,7 +14789,7 @@
       <c r="V156" t="inlineStr"/>
       <c r="W156" t="inlineStr"/>
       <c r="X156" s="2" t="n">
-        <v>45916.44097222222</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y156" t="b">
         <v>0</v>
@@ -17815,7 +17813,7 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" s="2" t="n">
-        <v>45915.49861111111</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y189" t="b">
         <v>0</v>
@@ -17907,7 +17905,7 @@
       <c r="V190" t="inlineStr"/>
       <c r="W190" t="inlineStr"/>
       <c r="X190" s="2" t="n">
-        <v>45915.49861111111</v>
+        <v>45924.82708333333</v>
       </c>
       <c r="Y190" t="b">
         <v>0</v>
@@ -17932,7 +17930,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL DO 5° ANO DO ENSINO FUNDAMENTAL EM LÍNGUA PORTUGUESA (PROEB)</t>
+          <t>IDEB ANOS INICIAIS DO ENSINO FUNDAMENTAL</t>
         </is>
       </c>
       <c r="E191" t="b">
@@ -17944,7 +17942,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>217.8</v>
+        <v>6.3</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
@@ -17953,37 +17951,37 @@
         <v>45537</v>
       </c>
       <c r="J191" t="n">
-        <v>225.87</v>
+        <v>0</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
       </c>
       <c r="L191" t="n">
-        <v>228.6</v>
+        <v>7</v>
       </c>
       <c r="M191" t="b">
         <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>231.41</v>
+        <v>0</v>
       </c>
       <c r="O191" t="b">
         <v>0</v>
       </c>
       <c r="P191" t="n">
-        <v>235</v>
+        <v>7.2</v>
       </c>
       <c r="Q191" t="b">
         <v>0</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
+          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="T191" t="inlineStr">
@@ -17993,7 +17991,7 @@
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA.</t>
+          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
         </is>
       </c>
       <c r="V191" t="inlineStr"/>
@@ -18024,7 +18022,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL DO 9° ANO DO ENSINO FUNDAMENTAL EM LÍNGUA PORTUGUESA (PROEB)</t>
+          <t>IDEB ENSINO MÉDIO</t>
         </is>
       </c>
       <c r="E192" t="b">
@@ -18036,7 +18034,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>252.7</v>
+        <v>4</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
@@ -18045,37 +18043,37 @@
         <v>45537</v>
       </c>
       <c r="J192" t="n">
-        <v>260.17</v>
+        <v>0</v>
       </c>
       <c r="K192" t="b">
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>266.84</v>
+        <v>4.7</v>
       </c>
       <c r="M192" t="b">
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>273.68</v>
+        <v>0</v>
       </c>
       <c r="O192" t="b">
         <v>0</v>
       </c>
       <c r="P192" t="n">
-        <v>275</v>
+        <v>4.8</v>
       </c>
       <c r="Q192" t="b">
         <v>0</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
+          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
@@ -18085,7 +18083,7 @@
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA.</t>
+          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
         </is>
       </c>
       <c r="V192" t="inlineStr"/>
@@ -18116,7 +18114,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL  DO 3° ANO DO ENSINO MÉDIO EM MATEMÁTICA (PROEB)</t>
+          <t>IDEB ANOS FINAIS DO ENSINO FUNDAMENTAL</t>
         </is>
       </c>
       <c r="E193" t="b">
@@ -18128,7 +18126,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>269.4</v>
+        <v>4.6</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
@@ -18137,37 +18135,37 @@
         <v>45537</v>
       </c>
       <c r="J193" t="n">
-        <v>276.52</v>
+        <v>0</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>282.05</v>
+        <v>6.4</v>
       </c>
       <c r="M193" t="b">
         <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>287.69</v>
+        <v>0</v>
       </c>
       <c r="O193" t="b">
         <v>0</v>
       </c>
       <c r="P193" t="n">
-        <v>293</v>
+        <v>6.6</v>
       </c>
       <c r="Q193" t="b">
         <v>0</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
+          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
@@ -18177,7 +18175,7 @@
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM MATEMÁTICA.</t>
+          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
         </is>
       </c>
       <c r="V193" t="inlineStr"/>
@@ -18208,7 +18206,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL  DO 9° ANO DO ENSINO FUNDAMENTAL  EM MATEMÁTICA (PROEB)</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL DO 5° ANO DO ENSINO FUNDAMENTAL EM LÍNGUA PORTUGUESA (PROEB)</t>
         </is>
       </c>
       <c r="E194" t="b">
@@ -18220,7 +18218,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>249.3</v>
+        <v>217.8</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
@@ -18229,25 +18227,25 @@
         <v>45537</v>
       </c>
       <c r="J194" t="n">
-        <v>267.05</v>
+        <v>225.87</v>
       </c>
       <c r="K194" t="b">
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>275.11</v>
+        <v>228.6</v>
       </c>
       <c r="M194" t="b">
         <v>0</v>
       </c>
       <c r="N194" t="n">
-        <v>283.41</v>
+        <v>231.41</v>
       </c>
       <c r="O194" t="b">
         <v>0</v>
       </c>
       <c r="P194" t="n">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="Q194" t="b">
         <v>0</v>
@@ -18269,7 +18267,7 @@
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM MATEMÁTICA.</t>
+          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA.</t>
         </is>
       </c>
       <c r="V194" t="inlineStr"/>
@@ -18300,7 +18298,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ALUNOS DO 3° ANO DO ENSINO MÉDIO EM LÍNGUA PORTUGUESA (PROEB)</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL DO 9° ANO DO ENSINO FUNDAMENTAL EM LÍNGUA PORTUGUESA (PROEB)</t>
         </is>
       </c>
       <c r="E195" t="b">
@@ -18312,7 +18310,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>273.2</v>
+        <v>252.7</v>
       </c>
       <c r="H195" t="b">
         <v>0</v>
@@ -18321,25 +18319,25 @@
         <v>45537</v>
       </c>
       <c r="J195" t="n">
-        <v>281.41</v>
+        <v>260.17</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>287.04</v>
+        <v>266.84</v>
       </c>
       <c r="M195" t="b">
         <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>292.78</v>
+        <v>273.68</v>
       </c>
       <c r="O195" t="b">
         <v>0</v>
       </c>
       <c r="P195" t="n">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="Q195" t="b">
         <v>0</v>
@@ -18361,7 +18359,7 @@
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA</t>
+          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA.</t>
         </is>
       </c>
       <c r="V195" t="inlineStr"/>
@@ -18392,7 +18390,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL NO 5° ANO DO ENSINO FUNDAMENTAL EM MATEMÁTICA (PROEB)</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL  DO 3° ANO DO ENSINO MÉDIO EM MATEMÁTICA (PROEB)</t>
         </is>
       </c>
       <c r="E196" t="b">
@@ -18404,7 +18402,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>227.2</v>
+        <v>269.4</v>
       </c>
       <c r="H196" t="b">
         <v>0</v>
@@ -18413,25 +18411,25 @@
         <v>45537</v>
       </c>
       <c r="J196" t="n">
-        <v>242.26</v>
+        <v>276.52</v>
       </c>
       <c r="K196" t="b">
         <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>250.31</v>
+        <v>282.05</v>
       </c>
       <c r="M196" t="b">
         <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>252.7</v>
+        <v>287.69</v>
       </c>
       <c r="O196" t="b">
         <v>0</v>
       </c>
       <c r="P196" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="Q196" t="b">
         <v>0</v>
@@ -18484,7 +18482,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>IDEB ANOS INICIAIS DO ENSINO FUNDAMENTAL</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL  DO 9° ANO DO ENSINO FUNDAMENTAL  EM MATEMÁTICA (PROEB)</t>
         </is>
       </c>
       <c r="E197" t="b">
@@ -18496,7 +18494,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>6.3</v>
+        <v>249.3</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
@@ -18505,37 +18503,37 @@
         <v>45537</v>
       </c>
       <c r="J197" t="n">
-        <v>0</v>
+        <v>267.05</v>
       </c>
       <c r="K197" t="b">
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>7</v>
+        <v>275.11</v>
       </c>
       <c r="M197" t="b">
         <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>0</v>
+        <v>283.41</v>
       </c>
       <c r="O197" t="b">
         <v>0</v>
       </c>
       <c r="P197" t="n">
-        <v>7.2</v>
+        <v>288</v>
       </c>
       <c r="Q197" t="b">
         <v>0</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
+          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
@@ -18545,7 +18543,7 @@
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
+          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM MATEMÁTICA.</t>
         </is>
       </c>
       <c r="V197" t="inlineStr"/>
@@ -18576,7 +18574,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>IDEB ENSINO MÉDIO</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ALUNOS DO 3° ANO DO ENSINO MÉDIO EM LÍNGUA PORTUGUESA (PROEB)</t>
         </is>
       </c>
       <c r="E198" t="b">
@@ -18588,7 +18586,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4</v>
+        <v>273.2</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
@@ -18597,37 +18595,37 @@
         <v>45537</v>
       </c>
       <c r="J198" t="n">
-        <v>0</v>
+        <v>281.41</v>
       </c>
       <c r="K198" t="b">
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>4.7</v>
+        <v>287.04</v>
       </c>
       <c r="M198" t="b">
         <v>0</v>
       </c>
       <c r="N198" t="n">
-        <v>0</v>
+        <v>292.78</v>
       </c>
       <c r="O198" t="b">
         <v>0</v>
       </c>
       <c r="P198" t="n">
-        <v>4.8</v>
+        <v>298</v>
       </c>
       <c r="Q198" t="b">
         <v>0</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
+          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
@@ -18637,7 +18635,7 @@
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
+          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA</t>
         </is>
       </c>
       <c r="V198" t="inlineStr"/>
@@ -18668,7 +18666,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>IDEB ANOS FINAIS DO ENSINO FUNDAMENTAL</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL NO 5° ANO DO ENSINO FUNDAMENTAL EM MATEMÁTICA (PROEB)</t>
         </is>
       </c>
       <c r="E199" t="b">
@@ -18680,7 +18678,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.6</v>
+        <v>227.2</v>
       </c>
       <c r="H199" t="b">
         <v>0</v>
@@ -18689,37 +18687,37 @@
         <v>45537</v>
       </c>
       <c r="J199" t="n">
-        <v>0</v>
+        <v>242.26</v>
       </c>
       <c r="K199" t="b">
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>6.4</v>
+        <v>250.31</v>
       </c>
       <c r="M199" t="b">
         <v>0</v>
       </c>
       <c r="N199" t="n">
-        <v>0</v>
+        <v>252.7</v>
       </c>
       <c r="O199" t="b">
         <v>0</v>
       </c>
       <c r="P199" t="n">
-        <v>6.6</v>
+        <v>255</v>
       </c>
       <c r="Q199" t="b">
         <v>0</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
+          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
@@ -18729,7 +18727,7 @@
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
+          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM MATEMÁTICA.</t>
         </is>
       </c>
       <c r="V199" t="inlineStr"/>
@@ -19588,7 +19586,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE ESCOLAS COM MANUTENÇÃO DA CONECTIVIDADE, COM VELOCIDADE MÍNIMA DE CONEXÃO DE ACORDO COM O PADRÃO SEE.</t>
+          <t>PERCENTUAL DE ESCOLAS COM LABORATÓRIO DE INFORMÁTICA EM FUNCIONAMENTO, DE ACORDO COM O PADRÃO SEE/MG</t>
         </is>
       </c>
       <c r="E209" t="b">
@@ -19596,38 +19594,38 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>Porcentagem</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="H209" t="b">
         <v>0</v>
       </c>
       <c r="I209" s="2" t="n">
-        <v>45882</v>
+        <v>44620</v>
       </c>
       <c r="J209" t="n">
-        <v>99.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="K209" t="b">
         <v>0</v>
       </c>
       <c r="L209" t="n">
-        <v>99.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="M209" t="b">
         <v>0</v>
       </c>
       <c r="N209" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O209" t="b">
         <v>0</v>
       </c>
       <c r="P209" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="Q209" t="b">
         <v>0</v>
@@ -19649,7 +19647,7 @@
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>(TOTAL DE ESCOLAS COM O PADRÃO SEE / TOTAL DE ESCOLAS DA REDE) X 100</t>
+          <t>(TOTAL DE ESCOLAS QUE ALCANCEM O NÍVEL DO PADRÃO SEE-MG/TOTAL DE ESCOLAS DA REDE) X 100</t>
         </is>
       </c>
       <c r="V209" t="inlineStr"/>
@@ -19680,7 +19678,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE ESCOLAS COM LABORATÓRIO DE INFORMÁTICA EM FUNCIONAMENTO, DE ACORDO COM O PADRÃO SEE/MG</t>
+          <t>PERCENTUAL DE UNIDADES ESCOLARES COM INFRAESTRUTURA DA SUA REDE FÍSICA AVALIADA COMO BOA OU MUITO BOA</t>
         </is>
       </c>
       <c r="E210" t="b">
@@ -19692,41 +19690,41 @@
         </is>
       </c>
       <c r="G210" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="H210" t="b">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="J210" t="n">
+        <v>70</v>
+      </c>
+      <c r="K210" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>75</v>
+      </c>
+      <c r="M210" t="b">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
         <v>80</v>
       </c>
-      <c r="H210" t="b">
-        <v>0</v>
-      </c>
-      <c r="I210" s="2" t="n">
-        <v>44620</v>
-      </c>
-      <c r="J210" t="n">
-        <v>90</v>
-      </c>
-      <c r="K210" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" t="n">
-        <v>95</v>
-      </c>
-      <c r="M210" t="b">
-        <v>0</v>
-      </c>
-      <c r="N210" t="n">
-        <v>100</v>
-      </c>
       <c r="O210" t="b">
         <v>0</v>
       </c>
       <c r="P210" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="Q210" t="b">
         <v>0</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>DIRETORIA DE INFRAESTRUTURA TECNOLÓGICA</t>
+          <t>DIAGNÓSTICO DA INFRAESTRUTURA ESCOLAR</t>
         </is>
       </c>
       <c r="S210" t="inlineStr">
@@ -19741,7 +19739,7 @@
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>(TOTAL DE ESCOLAS QUE ALCANCEM O NÍVEL DO PADRÃO SEE-MG/TOTAL DE ESCOLAS DA REDE) X 100</t>
+          <t>(NÚMERO DE UNIDADES ESCOLARES (ENDEREÇOS) COM INFRAESTRUTURA AVALIADA COMO BOA OU MUITO BOA /NÚMERO TOTAL DE ESCOLAS ESTADUAIS) X 100</t>
         </is>
       </c>
       <c r="V210" t="inlineStr"/>
@@ -19772,7 +19770,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE UNIDADES ESCOLARES COM INFRAESTRUTURA DA SUA REDE FÍSICA AVALIADA COMO BOA OU MUITO BOA</t>
+          <t>PERCENTUAL DE ESCOLAS COM MANUTENÇÃO DA CONECTIVIDADE, COM VELOCIDADE MÍNIMA DE CONEXÃO DE ACORDO COM O PADRÃO SEE.</t>
         </is>
       </c>
       <c r="E211" t="b">
@@ -19780,45 +19778,45 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Porcentagem</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>54.15</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H211" t="b">
         <v>0</v>
       </c>
       <c r="I211" s="2" t="n">
-        <v>45688</v>
+        <v>45882</v>
       </c>
       <c r="J211" t="n">
-        <v>70</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K211" t="b">
         <v>0</v>
       </c>
       <c r="L211" t="n">
-        <v>75</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M211" t="b">
         <v>0</v>
       </c>
       <c r="N211" t="n">
-        <v>80</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O211" t="b">
         <v>0</v>
       </c>
       <c r="P211" t="n">
-        <v>81</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Q211" t="b">
         <v>0</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>DIAGNÓSTICO DA INFRAESTRUTURA ESCOLAR</t>
+          <t>DIRETORIA DE INFRAESTRUTURA TECNOLÓGICA</t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
@@ -19833,7 +19831,7 @@
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>(NÚMERO DE UNIDADES ESCOLARES (ENDEREÇOS) COM INFRAESTRUTURA AVALIADA COMO BOA OU MUITO BOA /NÚMERO TOTAL DE ESCOLAS ESTADUAIS) X 100</t>
+          <t>(TOTAL DE ESCOLAS COM O PADRÃO SEE / TOTAL DE ESCOLAS DA REDE) X 100</t>
         </is>
       </c>
       <c r="V211" t="inlineStr"/>
@@ -19956,7 +19954,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE EXECUÇÃO DE CONVÊNIOS FIRMADOS COM OS MUNICÍPIO CUJO OJBETO SEJA AQUISIÇÃO DE BENS PERMANENTES</t>
+          <t>PERCENTUAL DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO ATENDIDOS NO PROGRAMA DE TRANSPORTE DO ESCOLAR (PTE)</t>
         </is>
       </c>
       <c r="E213" t="b">
@@ -19967,19 +19965,23 @@
           <t>%</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr"/>
+      <c r="G213" t="n">
+        <v>100</v>
+      </c>
       <c r="H213" t="b">
-        <v>1</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" s="2" t="n">
+        <v>45291</v>
+      </c>
       <c r="J213" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K213" t="b">
         <v>0</v>
       </c>
       <c r="L213" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M213" t="b">
         <v>0</v>
@@ -19998,7 +20000,7 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>SIGCON</t>
+          <t>SEE</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
@@ -20013,24 +20015,16 @@
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>NÚMERO DE CONVÊNIOS ENCERRADOS COM OBJETO CONCLUÍDO DIVIDO PELO NÚMERO TOTAL DE CONVÊNIOS FIRMADOS.</t>
-        </is>
-      </c>
-      <c r="V213" t="inlineStr">
-        <is>
-          <t>ORGANIZAÇÃO, ESTRUTURA E DEFINIÇÃO DO FLUXO DO PROGRAMA FOI ESTABELECIDO EM JUNHO/2025. CRIAÇÃO DO PAINEL COM A CONSOLIDAÇÃO DOS DADOS PARA DAR MAIS TRANSPARÊNCIA E DIVULGAÇÃO DOS DADOS.</t>
-        </is>
-      </c>
-      <c r="W213" t="inlineStr">
-        <is>
-          <t>ORGANIZAÇÃO, ESTRUTURA E DEFINIÇÃO DO FLUXO DO PROGRAMA FOI ESTABELECIDO EM JUNHO/2025. CRIAÇÃO DO PAINEL COM A CONSOLIDAÇÃO DOS DADOS PARA DAR MAIS TRANSPARÊNCIA E DIVULGAÇÃO DOS DADOS.</t>
-        </is>
-      </c>
+          <t>(NÚMERO DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO ATENDIDOS / NÚMERO DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO) * 100</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
       <c r="X213" s="2" t="n">
         <v>45917.58680555555</v>
       </c>
       <c r="Y213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z213" t="inlineStr">
         <is>
@@ -20052,7 +20046,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE OBRAS CONCLUÍDAS COM RECURSOS DO PROGRAMA</t>
+          <t>PERCENTUAL DE EXECUÇÃO DE CONVÊNIOS FIRMADOS COM OS MUNICÍPIO CUJO OJBETO SEJA AQUISIÇÃO DE BENS PERMANENTES</t>
         </is>
       </c>
       <c r="E214" t="b">
@@ -20094,7 +20088,7 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE PAGAMENTOS REALIZADOS - CONTROLE PRÓPRIO</t>
+          <t>SIGCON</t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
@@ -20109,7 +20103,7 @@
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>VALOR TOTAL DO RECURSO EXECUTADO DIVIDIDO PELO VALOR TOTAL DO RECURSO DISPONIBILIZADO NO ANO</t>
+          <t>NÚMERO DE CONVÊNIOS ENCERRADOS COM OBJETO CONCLUÍDO DIVIDO PELO NÚMERO TOTAL DE CONVÊNIOS FIRMADOS.</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
@@ -20148,7 +20142,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO ATENDIDOS NO PROGRAMA DE TRANSPORTE DO ESCOLAR (PTE)</t>
+          <t>PERCENTUAL DE OBRAS CONCLUÍDAS COM RECURSOS DO PROGRAMA</t>
         </is>
       </c>
       <c r="E215" t="b">
@@ -20159,23 +20153,19 @@
           <t>%</t>
         </is>
       </c>
-      <c r="G215" t="n">
-        <v>100</v>
-      </c>
+      <c r="G215" t="inlineStr"/>
       <c r="H215" t="b">
-        <v>0</v>
-      </c>
-      <c r="I215" s="2" t="n">
-        <v>45291</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K215" t="b">
         <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M215" t="b">
         <v>0</v>
@@ -20194,7 +20184,7 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>SEE</t>
+          <t>PERCENTUAL DE PAGAMENTOS REALIZADOS - CONTROLE PRÓPRIO</t>
         </is>
       </c>
       <c r="S215" t="inlineStr">
@@ -20209,16 +20199,24 @@
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>(NÚMERO DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO ATENDIDOS / NÚMERO DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO) * 100</t>
-        </is>
-      </c>
-      <c r="V215" t="inlineStr"/>
-      <c r="W215" t="inlineStr"/>
+          <t>VALOR TOTAL DO RECURSO EXECUTADO DIVIDIDO PELO VALOR TOTAL DO RECURSO DISPONIBILIZADO NO ANO</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>ORGANIZAÇÃO, ESTRUTURA E DEFINIÇÃO DO FLUXO DO PROGRAMA FOI ESTABELECIDO EM JUNHO/2025. CRIAÇÃO DO PAINEL COM A CONSOLIDAÇÃO DOS DADOS PARA DAR MAIS TRANSPARÊNCIA E DIVULGAÇÃO DOS DADOS.</t>
+        </is>
+      </c>
+      <c r="W215" t="inlineStr">
+        <is>
+          <t>ORGANIZAÇÃO, ESTRUTURA E DEFINIÇÃO DO FLUXO DO PROGRAMA FOI ESTABELECIDO EM JUNHO/2025. CRIAÇÃO DO PAINEL COM A CONSOLIDAÇÃO DOS DADOS PARA DAR MAIS TRANSPARÊNCIA E DIVULGAÇÃO DOS DADOS.</t>
+        </is>
+      </c>
       <c r="X215" s="2" t="n">
         <v>45917.58680555555</v>
       </c>
       <c r="Y215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z215" t="inlineStr">
         <is>
@@ -20332,7 +20330,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE COMARCAS QUE CONTAM COM A PRESENÇA DA DEFENSORIA PÚBLICA</t>
+          <t>NÚMERO DE DEFENSORES PÚBLICOS POR 100.000 HABITANTES</t>
         </is>
       </c>
       <c r="E217" t="b">
@@ -20340,11 +20338,11 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Defensores por 100 mil habitantes</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>38.59</v>
+        <v>3.4</v>
       </c>
       <c r="H217" t="b">
         <v>0</v>
@@ -20353,25 +20351,25 @@
         <v>45869</v>
       </c>
       <c r="J217" t="n">
-        <v>38.59</v>
+        <v>3.39</v>
       </c>
       <c r="K217" t="b">
         <v>0</v>
       </c>
       <c r="L217" t="n">
-        <v>38.59</v>
+        <v>3.38</v>
       </c>
       <c r="M217" t="b">
         <v>0</v>
       </c>
       <c r="N217" t="n">
-        <v>38.59</v>
+        <v>3.37</v>
       </c>
       <c r="O217" t="b">
         <v>0</v>
       </c>
       <c r="P217" t="n">
-        <v>38.59</v>
+        <v>3.36</v>
       </c>
       <c r="Q217" t="b">
         <v>0</v>
@@ -20393,7 +20391,7 @@
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>(NÚMERO DE COMARCAS QUE CONTAM COM A PRESENÇA DA DEFENSORIA PÚBLICA/NÚMERO DE COMARCAS EXISTENTES NO ESTADO DE MINAS GERAIS)*100</t>
+          <t>(NÚMERO DE DEFENSORES PÚBLICOS/POPULAÇÃO DO ESTADO DE MINAS GERAIS)*100.000</t>
         </is>
       </c>
       <c r="V217" t="inlineStr"/>
@@ -20424,7 +20422,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE COMARCAS QUE SE ENCONTRAM TOTALMENTE PROVIDAS DE DEFENSORES PÚBLICOS</t>
+          <t>NÚMERO DE PRESTAÇÕES JURÍDICAS POR 100.000 HABITANTES</t>
         </is>
       </c>
       <c r="E218" t="b">
@@ -20432,11 +20430,11 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>prestação jurídica por 100 mil habitantes</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>11.07</v>
+        <v>20387.33</v>
       </c>
       <c r="H218" t="b">
         <v>0</v>
@@ -20445,32 +20443,32 @@
         <v>45869</v>
       </c>
       <c r="J218" t="n">
-        <v>11.07</v>
+        <v>34838.58</v>
       </c>
       <c r="K218" t="b">
         <v>0</v>
       </c>
       <c r="L218" t="n">
-        <v>11.07</v>
+        <v>34736.42</v>
       </c>
       <c r="M218" t="b">
         <v>0</v>
       </c>
       <c r="N218" t="n">
-        <v>11.07</v>
+        <v>34640.66</v>
       </c>
       <c r="O218" t="b">
         <v>0</v>
       </c>
       <c r="P218" t="n">
-        <v>11.07</v>
+        <v>34550.91</v>
       </c>
       <c r="Q218" t="b">
         <v>0</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>DEFENSORIA PÚBICA DO ESTADO DE MINAS GERAIS</t>
+          <t>DEFENSORIA PÚBLICA DO ESTADO DE  MINAS GERAIS</t>
         </is>
       </c>
       <c r="S218" t="inlineStr">
@@ -20485,7 +20483,7 @@
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>(SOMATÓRIO DE COMARCAS TOTALMENTE PROVIDAS DE DEFENSORES PÚBLICOS/TOTAL DE COMARCAS DO ESTADO DE MINAS GERAIS)*100</t>
+          <t>(NÚMERO DE PRESTAÇÕES JURÍDICAS/POPULAÇÃO DO ESTADO DE MINAS GERAIS)*100.000.</t>
         </is>
       </c>
       <c r="V218" t="inlineStr"/>
@@ -20516,7 +20514,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>NÚMERO DE DEFENSORES PÚBLICOS POR 100.000 HABITANTES</t>
+          <t>PERCENTUAL DE COMARCAS QUE CONTAM COM A PRESENÇA DA DEFENSORIA PÚBLICA</t>
         </is>
       </c>
       <c r="E219" t="b">
@@ -20524,11 +20522,11 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Defensores por 100 mil habitantes</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.4</v>
+        <v>38.59</v>
       </c>
       <c r="H219" t="b">
         <v>0</v>
@@ -20537,25 +20535,25 @@
         <v>45869</v>
       </c>
       <c r="J219" t="n">
-        <v>3.39</v>
+        <v>38.59</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>3.38</v>
+        <v>38.59</v>
       </c>
       <c r="M219" t="b">
         <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>3.37</v>
+        <v>38.59</v>
       </c>
       <c r="O219" t="b">
         <v>0</v>
       </c>
       <c r="P219" t="n">
-        <v>3.36</v>
+        <v>38.59</v>
       </c>
       <c r="Q219" t="b">
         <v>0</v>
@@ -20577,7 +20575,7 @@
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>(NÚMERO DE DEFENSORES PÚBLICOS/POPULAÇÃO DO ESTADO DE MINAS GERAIS)*100.000</t>
+          <t>(NÚMERO DE COMARCAS QUE CONTAM COM A PRESENÇA DA DEFENSORIA PÚBLICA/NÚMERO DE COMARCAS EXISTENTES NO ESTADO DE MINAS GERAIS)*100</t>
         </is>
       </c>
       <c r="V219" t="inlineStr"/>
@@ -20608,7 +20606,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>NÚMERO DE PRESTAÇÕES JURÍDICAS POR 100.000 HABITANTES</t>
+          <t>PERCENTUAL DE COMARCAS QUE SE ENCONTRAM TOTALMENTE PROVIDAS DE DEFENSORES PÚBLICOS</t>
         </is>
       </c>
       <c r="E220" t="b">
@@ -20616,11 +20614,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>prestação jurídica por 100 mil habitantes</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>20387.33</v>
+        <v>11.07</v>
       </c>
       <c r="H220" t="b">
         <v>0</v>
@@ -20629,32 +20627,32 @@
         <v>45869</v>
       </c>
       <c r="J220" t="n">
-        <v>34838.58</v>
+        <v>11.07</v>
       </c>
       <c r="K220" t="b">
         <v>0</v>
       </c>
       <c r="L220" t="n">
-        <v>34736.42</v>
+        <v>11.07</v>
       </c>
       <c r="M220" t="b">
         <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>34640.66</v>
+        <v>11.07</v>
       </c>
       <c r="O220" t="b">
         <v>0</v>
       </c>
       <c r="P220" t="n">
-        <v>34550.91</v>
+        <v>11.07</v>
       </c>
       <c r="Q220" t="b">
         <v>0</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>DEFENSORIA PÚBLICA DO ESTADO DE  MINAS GERAIS</t>
+          <t>DEFENSORIA PÚBICA DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="S220" t="inlineStr">
@@ -20669,7 +20667,7 @@
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>(NÚMERO DE PRESTAÇÕES JURÍDICAS/POPULAÇÃO DO ESTADO DE MINAS GERAIS)*100.000.</t>
+          <t>(SOMATÓRIO DE COMARCAS TOTALMENTE PROVIDAS DE DEFENSORES PÚBLICOS/TOTAL DE COMARCAS DO ESTADO DE MINAS GERAIS)*100</t>
         </is>
       </c>
       <c r="V220" t="inlineStr"/>
@@ -20700,7 +20698,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>VOLUME DE RECURSOS PÚBLICOS AFETOS A PROCESSOS LICITATÓRIOS SUBMETIDOS À FISCALIZAÇÃO POR MEIO DE TRILHAS ELETRÔNICAS</t>
+          <t>ÍNDICE DE DELIBERAÇÃO DE PROCESSOS DE ATOS DE PESSOAL COM ANO REFERÊNCIA A PARTIR DE 2021</t>
         </is>
       </c>
       <c r="E221" t="b">
@@ -20708,11 +20706,11 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>bilhões de Reais (R$)</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>14.4</v>
+        <v>96.59</v>
       </c>
       <c r="H221" t="b">
         <v>0</v>
@@ -20721,25 +20719,25 @@
         <v>45657</v>
       </c>
       <c r="J221" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="K221" t="b">
         <v>0</v>
       </c>
       <c r="L221" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M221" t="b">
         <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="O221" t="b">
         <v>0</v>
       </c>
       <c r="P221" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="Q221" t="b">
         <v>0</v>
@@ -20761,7 +20759,7 @@
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>VALOR, EM BILHÕES DE REAIS, DA SOMA DOS RECURSOS ENVOLVIDOS NOS PROCESSOS LICITATÓRIOS ANALISADOS NAS TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
+          <t>(NÚMERO DE PROCESSOS DE ATOS DE PESSOAL CONCESSÓRIOS DELIBERADOS, COM ANO DE REFERÊNCIA DOS ÚLTIMOS 6 EXERCÍCIOS (2021 A 2026) / NÚMERO DE PROCESSOS DE ATOS DE PESSOAL CONCESSORIOS AUTUADOS NO EXERCÍCIO ANTERIOR 2025) * 100</t>
         </is>
       </c>
       <c r="V221" t="inlineStr"/>
@@ -20792,7 +20790,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>ÍNDICE DE DELIBERAÇÃO DE PROCESSOS DE ATOS DE PESSOAL COM ANO REFERÊNCIA A PARTIR DE 2021</t>
+          <t>ÍNDICE DE DELIBERAÇÃO DE PROCESSOS  DE PCA E PEDIDO DE REEXAME, PARA TODOS OS ANOS REFERÊNCIA, E DE DEMAIS NATUREZAS, COM ANO REFERÊNCIA A PARTIR DE 2021.</t>
         </is>
       </c>
       <c r="E222" t="b">
@@ -20804,7 +20802,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>96.59</v>
+        <v>80.42</v>
       </c>
       <c r="H222" t="b">
         <v>0</v>
@@ -20813,25 +20811,25 @@
         <v>45657</v>
       </c>
       <c r="J222" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M222" t="b">
         <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="O222" t="b">
         <v>0</v>
       </c>
       <c r="P222" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Q222" t="b">
         <v>0</v>
@@ -20853,7 +20851,7 @@
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>(NÚMERO DE PROCESSOS DE ATOS DE PESSOAL CONCESSÓRIOS DELIBERADOS, COM ANO DE REFERÊNCIA DOS ÚLTIMOS 6 EXERCÍCIOS (2021 A 2026) / NÚMERO DE PROCESSOS DE ATOS DE PESSOAL CONCESSORIOS AUTUADOS NO EXERCÍCIO ANTERIOR 2025) * 100</t>
+          <t>[(NÚMERO DE PROCESSOS DELIBERADOS DE PCA E PEDIDO DE REEXAME TODOS OS ANOS  REFERÊNCIA) + (NÚMERO DE PROCESSOS DELIBERADOS DE DEMAIS NATUREZAS COM ANO DE REFERÊNCIA DOS ÚLTIMOS 6 EXERCÍCIOS (2021 A 2026) / NÚMERO DE PROCESSOS DE PCA, PEDIDO DE REEXAME E DEMAIS NATUREZAS AUTUADOS NO EXERCÍCIO DE 2025] *100</t>
         </is>
       </c>
       <c r="V222" t="inlineStr"/>
@@ -20884,7 +20882,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>ÍNDICE DE DELIBERAÇÃO DE PROCESSOS  DE PCA E PEDIDO DE REEXAME, PARA TODOS OS ANOS REFERÊNCIA, E DE DEMAIS NATUREZAS, COM ANO REFERÊNCIA A PARTIR DE 2021.</t>
+          <t>ÍNDICE DE CUMPRIMENTO DO PLANO ANUAL DE FISCALIZAÇÃO.</t>
         </is>
       </c>
       <c r="E223" t="b">
@@ -20896,7 +20894,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>80.42</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="H223" t="b">
         <v>0</v>
@@ -20905,32 +20903,32 @@
         <v>45657</v>
       </c>
       <c r="J223" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K223" t="b">
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M223" t="b">
         <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O223" t="b">
         <v>0</v>
       </c>
       <c r="P223" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q223" t="b">
         <v>0</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS</t>
+          <t>SUPERINTENDÊNCIA DE CONTROLE EXTERNO</t>
         </is>
       </c>
       <c r="S223" t="inlineStr">
@@ -20945,7 +20943,7 @@
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>[(NÚMERO DE PROCESSOS DELIBERADOS DE PCA E PEDIDO DE REEXAME TODOS OS ANOS  REFERÊNCIA) + (NÚMERO DE PROCESSOS DELIBERADOS DE DEMAIS NATUREZAS COM ANO DE REFERÊNCIA DOS ÚLTIMOS 6 EXERCÍCIOS (2021 A 2026) / NÚMERO DE PROCESSOS DE PCA, PEDIDO DE REEXAME E DEMAIS NATUREZAS AUTUADOS NO EXERCÍCIO DE 2025] *100</t>
+          <t>(PONTOS TOTAIS OBTIDOS / PONTOS TOTAIS POSSÍVEIS DE OBTER) X 100.</t>
         </is>
       </c>
       <c r="V223" t="inlineStr"/>
@@ -20976,7 +20974,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>ÍNDICE DE CUMPRIMENTO DO PLANO ANUAL DE FISCALIZAÇÃO.</t>
+          <t>ÍNDICE DE PROCESSOS DE AUDITORIAS DELIBERADOS NO PRAZO DE 360 DIAS DA AUTUAÇÃO, EM RELAÇÃO AO TOTAL DE AUDITORIAS AUTUADAS NO ANO ANTERIOR</t>
         </is>
       </c>
       <c r="E224" t="b">
@@ -20988,7 +20986,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>93.70999999999999</v>
+        <v>42.31</v>
       </c>
       <c r="H224" t="b">
         <v>0</v>
@@ -20997,32 +20995,32 @@
         <v>45657</v>
       </c>
       <c r="J224" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K224" t="b">
         <v>0</v>
       </c>
       <c r="L224" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M224" t="b">
         <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O224" t="b">
         <v>0</v>
       </c>
       <c r="P224" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q224" t="b">
         <v>0</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>SUPERINTENDÊNCIA DE CONTROLE EXTERNO</t>
+          <t>TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="S224" t="inlineStr">
@@ -21037,7 +21035,7 @@
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>(PONTOS TOTAIS OBTIDOS / PONTOS TOTAIS POSSÍVEIS DE OBTER) X 100.</t>
+          <t>(NÚMERO DE PROCESSOS DE AUDITORIAS DELIBERADOS NO PRAZO DE 360 DIAS DA AUTUAÇÃO / TOTAL DE PROCESSOS DE AUDITORIAS AUTUADOS EM 2025) *100</t>
         </is>
       </c>
       <c r="V224" t="inlineStr"/>
@@ -21068,7 +21066,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>ÍNDICE DE PROCESSOS DE AUDITORIAS DELIBERADOS NO PRAZO DE 360 DIAS DA AUTUAÇÃO, EM RELAÇÃO AO TOTAL DE AUDITORIAS AUTUADAS NO ANO ANTERIOR</t>
+          <t>PERCENTUAL DE MUNICÍPIOS ABRANGIDOS PELAS AÇÕES DE FISCALIZAÇÃO PRESENCIAIS OU MEDIANTE TRILHAS ELETRÔNICAS</t>
         </is>
       </c>
       <c r="E225" t="b">
@@ -21080,7 +21078,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>42.31</v>
+        <v>100</v>
       </c>
       <c r="H225" t="b">
         <v>0</v>
@@ -21089,25 +21087,25 @@
         <v>45657</v>
       </c>
       <c r="J225" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K225" t="b">
         <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M225" t="b">
         <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O225" t="b">
         <v>0</v>
       </c>
       <c r="P225" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="Q225" t="b">
         <v>0</v>
@@ -21129,7 +21127,7 @@
       </c>
       <c r="U225" t="inlineStr">
         <is>
-          <t>(NÚMERO DE PROCESSOS DE AUDITORIAS DELIBERADOS NO PRAZO DE 360 DIAS DA AUTUAÇÃO / TOTAL DE PROCESSOS DE AUDITORIAS AUTUADOS EM 2025) *100</t>
+          <t>(NÚMERO DE MUNICÍPIOS ABRANGIDOS PELAS AÇÕES DE FISCALIZAÇÃO PRESENCAIS OU MEDIANTE TRILHAS ELETRÔNICAS / NÚMERO DE MUNICÍPIOS DO ESTADO) *100</t>
         </is>
       </c>
       <c r="V225" t="inlineStr"/>
@@ -21160,7 +21158,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE MUNICÍPIOS ABRANGIDOS PELAS AÇÕES DE FISCALIZAÇÃO PRESENCIAIS OU MEDIANTE TRILHAS ELETRÔNICAS</t>
+          <t>PERCENTUAL DE AÇÕES DE FISCALIZAÇÃO PREVISTAS NO PLANO ANUAL DE FISCALIZAÇÃO - PAF ALINHADAS AOS OBJETIVOS DE DESENVOLVIMENTO SUSTENTÁVEL - ODS</t>
         </is>
       </c>
       <c r="E226" t="b">
@@ -21221,7 +21219,7 @@
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>(NÚMERO DE MUNICÍPIOS ABRANGIDOS PELAS AÇÕES DE FISCALIZAÇÃO PRESENCAIS OU MEDIANTE TRILHAS ELETRÔNICAS / NÚMERO DE MUNICÍPIOS DO ESTADO) *100</t>
+          <t>(NÚMERO DE AÇÕES DE FISCALIZAÇÃO PREVISTAS NO PAF ALINHADAS AOS OBJETIVOS DE DESENVOLVIMENTO SUSTENTÁVEL-ODS / NÚMERO TOTAL DE AÇÕES DE FISCALIZAÇÃO PREVISTAS PAF) *100</t>
         </is>
       </c>
       <c r="V226" t="inlineStr"/>
@@ -21252,7 +21250,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE AÇÕES DE FISCALIZAÇÃO PREVISTAS NO PLANO ANUAL DE FISCALIZAÇÃO - PAF ALINHADAS AOS OBJETIVOS DE DESENVOLVIMENTO SUSTENTÁVEL - ODS</t>
+          <t>ÍNDICE DE IRREGULARIDADES SANADAS OU EVITADAS EM PROCESSOS LICITATÓRIOS DISPENSANDO A FORMALIZAÇÃO DE PROCESSO</t>
         </is>
       </c>
       <c r="E227" t="b">
@@ -21263,35 +21261,31 @@
           <t>%</t>
         </is>
       </c>
-      <c r="G227" t="n">
-        <v>100</v>
-      </c>
+      <c r="G227" t="inlineStr"/>
       <c r="H227" t="b">
-        <v>0</v>
-      </c>
-      <c r="I227" s="2" t="n">
-        <v>45657</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K227" t="b">
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M227" t="b">
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O227" t="b">
         <v>0</v>
       </c>
       <c r="P227" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q227" t="b">
         <v>0</v>
@@ -21313,11 +21307,15 @@
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>(NÚMERO DE AÇÕES DE FISCALIZAÇÃO PREVISTAS NO PAF ALINHADAS AOS OBJETIVOS DE DESENVOLVIMENTO SUSTENTÁVEL-ODS / NÚMERO TOTAL DE AÇÕES DE FISCALIZAÇÃO PREVISTAS PAF) *100</t>
+          <t>PERCENTUAL DE IRREGULARIDADES EM PROCESSOS LICITATÓRIOS SANADAS OU EVITADAS DISPENSANDO A FORMALIZAÇÃO DE PROCESSO, POR MEIO DE AÇÕES DE INTELIGÊNCIA OU DE ANÁLISE DE DADOS</t>
         </is>
       </c>
       <c r="V227" t="inlineStr"/>
-      <c r="W227" t="inlineStr"/>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>O PRIMEIRO EXERCÍCIO DO INDICADOR SERÁ 2026.</t>
+        </is>
+      </c>
       <c r="X227" s="2" t="n">
         <v>45922.63333333333</v>
       </c>
@@ -21344,7 +21342,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>ÍNDICE DE IRREGULARIDADES SANADAS OU EVITADAS EM PROCESSOS LICITATÓRIOS DISPENSANDO A FORMALIZAÇÃO DE PROCESSO</t>
+          <t>QUANTIDADE DE INDÍCIOS DE IRREGULARIDADE EM TRILHAS DE ATOS DE PESSOAL DECORRENTES DE CRUZAMENTO DE DADOS E LEVADAS AO CONHECIMENTO DOS JURISDICIONADOS</t>
         </is>
       </c>
       <c r="E228" t="b">
@@ -21352,7 +21350,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>UNIDADE</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
@@ -21361,32 +21359,32 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>75</v>
+        <v>7000</v>
       </c>
       <c r="K228" t="b">
         <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>75</v>
+        <v>7000</v>
       </c>
       <c r="M228" t="b">
         <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>75</v>
+        <v>7000</v>
       </c>
       <c r="O228" t="b">
         <v>0</v>
       </c>
       <c r="P228" t="n">
-        <v>75</v>
+        <v>7000</v>
       </c>
       <c r="Q228" t="b">
         <v>0</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS</t>
+          <t>TRIBUNAL DE CONTAS DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
@@ -21401,13 +21399,13 @@
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE IRREGULARIDADES EM PROCESSOS LICITATÓRIOS SANADAS OU EVITADAS DISPENSANDO A FORMALIZAÇÃO DE PROCESSO, POR MEIO DE AÇÕES DE INTELIGÊNCIA OU DE ANÁLISE DE DADOS</t>
+          <t>NÚMERO ABSOLUTO DE INDÍCIOS DE IRREGULARIDADE EM TRILHAS DE ATOS DE PESSOAL DECORRENTES DO CRUZAMENTO DE DADOS QUE FORAM LEVADOS AO CONHECIMENTO DOS JURISDICIONADOS</t>
         </is>
       </c>
       <c r="V228" t="inlineStr"/>
       <c r="W228" t="inlineStr">
         <is>
-          <t>O PRIMEIRO EXERCÍCIO DO INDICADOR SERÁ 2026.</t>
+          <t>O INDICADOR FOI ALTERADO EM SUA REDAÇÃO PARA MAIOR QUALIFICAÇÃO DAS AÇÕES DE CONTROLE, PORTANTOO PRIMEIRO EXERCÍCIO DE REFERÊNCIA SERÁ 2026.</t>
         </is>
       </c>
       <c r="X228" s="2" t="n">
@@ -21802,7 +21800,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>QUANTIDADE DE INDÍCIOS DE IRREGULARIDADE EM TRILHAS DE ATOS DE PESSOAL DECORRENTES DE CRUZAMENTO DE DADOS E LEVADAS AO CONHECIMENTO DOS JURISDICIONADOS</t>
+          <t>VOLUME DE RECURSOS PÚBLICOS AFETOS A PROCESSOS LICITATÓRIOS SUBMETIDOS À FISCALIZAÇÃO POR MEIO DE TRILHAS ELETRÔNICAS</t>
         </is>
       </c>
       <c r="E233" t="b">
@@ -21810,41 +21808,45 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr"/>
+          <t>bilhões de Reais (R$)</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>14.4</v>
+      </c>
       <c r="H233" t="b">
-        <v>1</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" s="2" t="n">
+        <v>45657</v>
+      </c>
       <c r="J233" t="n">
-        <v>7000</v>
+        <v>15</v>
       </c>
       <c r="K233" t="b">
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>7000</v>
+        <v>15</v>
       </c>
       <c r="M233" t="b">
         <v>0</v>
       </c>
       <c r="N233" t="n">
-        <v>7000</v>
+        <v>15</v>
       </c>
       <c r="O233" t="b">
         <v>0</v>
       </c>
       <c r="P233" t="n">
-        <v>7000</v>
+        <v>15</v>
       </c>
       <c r="Q233" t="b">
         <v>0</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>TRIBUNAL DE CONTAS DE MINAS GERAIS</t>
+          <t>TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="S233" t="inlineStr">
@@ -21859,15 +21861,11 @@
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>NÚMERO ABSOLUTO DE INDÍCIOS DE IRREGULARIDADE EM TRILHAS DE ATOS DE PESSOAL DECORRENTES DO CRUZAMENTO DE DADOS QUE FORAM LEVADOS AO CONHECIMENTO DOS JURISDICIONADOS</t>
+          <t>VALOR, EM BILHÕES DE REAIS, DA SOMA DOS RECURSOS ENVOLVIDOS NOS PROCESSOS LICITATÓRIOS ANALISADOS NAS TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
         </is>
       </c>
       <c r="V233" t="inlineStr"/>
-      <c r="W233" t="inlineStr">
-        <is>
-          <t>O INDICADOR FOI ALTERADO EM SUA REDAÇÃO PARA MAIOR QUALIFICAÇÃO DAS AÇÕES DE CONTROLE, PORTANTOO PRIMEIRO EXERCÍCIO DE REFERÊNCIA SERÁ 2026.</t>
-        </is>
-      </c>
+      <c r="W233" t="inlineStr"/>
       <c r="X233" s="2" t="n">
         <v>45922.63333333333</v>
       </c>

--- a/data/ppag2026-dadosmg/indicadores_planejamento.xlsx
+++ b/data/ppag2026-dadosmg/indicadores_planejamento.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indicadores_planejamento" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="indicadores_planejamento" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -650,7 +650,7 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" s="2" t="n">
-        <v>45896.59861111111</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
@@ -742,7 +742,7 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" s="2" t="n">
-        <v>45896.59861111111</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y3" t="b">
         <v>0</v>
@@ -834,7 +834,7 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" s="2" t="n">
-        <v>45896.69444444445</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y4" t="b">
         <v>0</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" s="2" t="n">
-        <v>45925.68125</v>
+        <v>45933.44861111111</v>
       </c>
       <c r="Y5" t="b">
         <v>0</v>
@@ -1016,7 +1016,7 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" s="2" t="n">
-        <v>45896.66111111111</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y6" t="b">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="X7" s="2" t="n">
-        <v>45896.66111111111</v>
+        <v>45933.41388888889</v>
       </c>
       <c r="Y7" t="b">
         <v>0</v>
@@ -1200,7 +1200,7 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" s="2" t="n">
-        <v>45896.65347222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y8" t="b">
         <v>0</v>
@@ -1292,7 +1292,7 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y9" t="b">
         <v>0</v>
@@ -1384,7 +1384,7 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" s="2" t="n">
-        <v>45901.59027777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y10" t="b">
         <v>0</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE DOCENTES COM TITULAÇÃO DE MESTRE E/OU DOUTOR.</t>
+          <t>PERCENTUAL DE CURSOS DE MESTRADO E DOUTORADO COM CONCEITO CAPES MAIOR QUE 3</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -1417,11 +1417,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1430,25 +1430,25 @@
         <v>45504</v>
       </c>
       <c r="J11" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="b">
         <v>0</v>
@@ -1470,13 +1470,13 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>(DM+DD)/TD*100, ONDE DM: DOCENTES MESTRES, DD: DOCENTES DOUTORES E TD: TOTAL DE DOCENTES</t>
+          <t>X/Y*100, X: NÚMERO DE CURSOS DE MESTRADO E DOUTORADO COM CONCEITO CAPES MAIOR QUE 3, Y: NÚMERO TOTAL DE CURSOS DE MESTRADO E DOUTORADO.</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y11" t="b">
         <v>0</v>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TAXA DE ALUNO FORMADO NOS CURSOS DE EDUCAÇÃO PROFISSIONAL E TECNOLÓGICO DE NÍVEL MÉDIO.</t>
+          <t>PERCENTUAL DE PROGRAMAS DE PÓS-GRADUAÇÃO STRICTO SENSU COM PADRÃO DE EXCELÊNCIA INTERNACIONAL</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -1509,45 +1509,45 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>44196</v>
+        <v>45504</v>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="b">
         <v>0</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>CENTRO DE EDUCAÇÃO PROFISSIONAL E TECNOLÓGICO</t>
+          <t>PRÓ-REITORIA DE PÓS-GRADUAÇÃO</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1562,13 +1562,13 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>SOMATÓRIA DO N° DE ALUNOS FORMADOS NOS CURSOS TÉCNICOS X 100 = TOTAL DE ALUNOS MATRICULADOS EM CURSOS TÉCNICOS</t>
+          <t>(X/Y)*100, X: NÚMERO DE PROGRAMAS DE PÓS-GRADUAÇÃO STRICTO SENSU COM CONCEITO 6 OU 7, Y: NÚMERO TOTAL DE PROGRAMAS DE PÓS-GRADUAÇÃO STRICTO SENSU</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y12" t="b">
         <v>0</v>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TAXA DE OCUPAÇÃO HOSPITALAR (TOH)</t>
+          <t>PERCENTUAL DE DOCENTES COM TITULAÇÃO DE MESTRE E/OU DOUTOR.</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>44196</v>
+        <v>45504</v>
       </c>
       <c r="J13" t="n">
         <v>92</v>
@@ -1620,26 +1620,26 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" t="b">
         <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>HOSPITAL UNIVERSITÁRIO CLEMENTE DE FARIA - HUCF</t>
+          <t>PRÓ-REITORIA DE PÓS-GRADUAÇÃO</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1649,18 +1649,18 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>TAXA DE OCUPAÇÃO HOSPITALAR (TOH)= ((NÚMEROS DE PACIENTES POR DIA INTERNADOS NO PERÍODO) / (NÚMERO DE LEITOS/DIA DISPONÍVEL NO PERÍODO)) * 100</t>
+          <t>(DM+DD)/TD*100, ONDE DM: DOCENTES MESTRES, DD: DOCENTES DOUTORES E TD: TOTAL DE DOCENTES</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y13" t="b">
         <v>0</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TAXA DE OCUPAÇÃO DE VAGAS DE RESIDENTES (R1) NOS PROGRAMAS DE RESIDÊNCIA MÉDICA</t>
+          <t>TAXA DE ALUNO FORMADO NOS CURSOS DE EDUCAÇÃO PROFISSIONAL E TECNOLÓGICO DE NÍVEL MÉDIO.</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -1697,41 +1697,41 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="b">
         <v>0</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>HOSPITAL UNIVERSITÁRIO CLEMENTE DE FARIA - HUCF</t>
+          <t>CENTRO DE EDUCAÇÃO PROFISSIONAL E TECNOLÓGICO</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1741,18 +1741,18 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>TAXA DE OCUPAÇÃO DE VAGAS RESIDENTES (R1) = (NÚMEROS DE VAGAS OCUPADAS POR RESIDENTES R1 POR PERÍODO)/ (NÚMERO DE VAGAS DISPONIBILIZADAS POR PERÍODO)) *100</t>
+          <t>SOMATÓRIA DO N° DE ALUNOS FORMADOS NOS CURSOS TÉCNICOS X 100 = TOTAL DE ALUNOS MATRICULADOS EM CURSOS TÉCNICOS</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y14" t="b">
         <v>0</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TAXA DE PERMANÊNCIA HOSPITALAR (TPH)</t>
+          <t>TAXA DE OCUPAÇÃO HOSPITALAR (TOH)</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -1785,11 +1785,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dia</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1798,25 +1798,25 @@
         <v>44196</v>
       </c>
       <c r="J15" t="n">
-        <v>6.95</v>
+        <v>92</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>6.95</v>
+        <v>92</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>6.95</v>
+        <v>92</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>6.95</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
@@ -1833,25 +1833,25 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>TAXA DE PERMANÊNCIA HOSPITALAR = (NÚMERO DE PACIENTES POR DIA)/TOTAL DE SAÍDAS</t>
+          <t>TAXA DE OCUPAÇÃO HOSPITALAR (TOH)= ((NÚMEROS DE PACIENTES POR DIA INTERNADOS NO PERÍODO) / (NÚMERO DE LEITOS/DIA DISPONÍVEL NO PERÍODO)) * 100</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y15" t="b">
         <v>0</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>MENOR</t>
+          <t>MAIOR</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE CURSOS DE MESTRADO E DOUTORADO COM CONCEITO CAPES MAIOR QUE 3</t>
+          <t>TAXA DE OCUPAÇÃO DE VAGAS DE RESIDENTES (R1) NOS PROGRAMAS DE RESIDÊNCIA MÉDICA</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -1877,45 +1877,45 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45504</v>
+        <v>43830</v>
       </c>
       <c r="J16" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="Q16" t="b">
         <v>0</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>PRÓ-REITORIA DE PÓS-GRADUAÇÃO</t>
+          <t>HOSPITAL UNIVERSITÁRIO CLEMENTE DE FARIA - HUCF</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1925,18 +1925,18 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>X/Y*100, X: NÚMERO DE CURSOS DE MESTRADO E DOUTORADO COM CONCEITO CAPES MAIOR QUE 3, Y: NÚMERO TOTAL DE CURSOS DE MESTRADO E DOUTORADO.</t>
+          <t>TAXA DE OCUPAÇÃO DE VAGAS RESIDENTES (R1) = (NÚMEROS DE VAGAS OCUPADAS POR RESIDENTES R1 POR PERÍODO)/ (NÚMERO DE VAGAS DISPONIBILIZADAS POR PERÍODO)) *100</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y16" t="b">
         <v>0</v>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE PROGRAMAS DE PÓS-GRADUAÇÃO STRICTO SENSU COM PADRÃO DE EXCELÊNCIA INTERNACIONAL</t>
+          <t>TAXA DE PERMANÊNCIA HOSPITALAR (TPH)</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -1969,45 +1969,45 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Dia</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>45504</v>
+        <v>44196</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>6.95</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>6.95</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>6.95</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>10</v>
+        <v>6.95</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>PRÓ-REITORIA DE PÓS-GRADUAÇÃO</t>
+          <t>HOSPITAL UNIVERSITÁRIO CLEMENTE DE FARIA - HUCF</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2022,20 +2022,20 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>(X/Y)*100, X: NÚMERO DE PROGRAMAS DE PÓS-GRADUAÇÃO STRICTO SENSU COM CONCEITO 6 OU 7, Y: NÚMERO TOTAL DE PROGRAMAS DE PÓS-GRADUAÇÃO STRICTO SENSU</t>
+          <t>TAXA DE PERMANÊNCIA HOSPITALAR = (NÚMERO DE PACIENTES POR DIA)/TOTAL DE SAÍDAS</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y17" t="b">
         <v>0</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>MAIOR</t>
+          <t>MENOR</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE ALUNOS ENVOLVIDOS EM ATIVIDADES DE EXTENSÃO UNIVERSITÁRIA</t>
+          <t>PRODUTOS DE DOCENTE DOUTOR DOS PROGRAMAS DE PÓS GRADUAÇÃO DA UNIMONTES</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -2061,11 +2061,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>razão</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>24.45</v>
+        <v>3.5</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -2074,32 +2074,32 @@
         <v>44926</v>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>32</v>
+        <v>3.7</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>35</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>38</v>
+        <v>3.8</v>
       </c>
       <c r="Q18" t="b">
         <v>0</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>PRÓ-REITORIA DE EXTENSÃO</t>
+          <t>PRÓ-REITORIA DE PESQUISA</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2109,21 +2109,21 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>NAEXT/NAT NAEXT: NÚMERO DE ALUNOS COM PARTICIPAÇÃO EFETIVA NA EXTENSÃONAT: NÚMERO TOTAL DE ALUNOS MATRICULADOS EM CURSOS PRESENCIAIS DE GRADUAÇÃO</t>
+          <t>X= (TAP + TPD)/TDD TOTAL DE ARTIGOS PUBLICADOS EM PERIÓDICOS COM ISSN NO SISTEMA QUALIS/CAPES PELOS DOUTORES DOS PROGRAMAS DE PÓS GRADUAÇÃO (TAP) + TOTAL DE PATENTES DEPOSITADAS NO INPI PELOS DOCENTES DOUTORES (TPD)/ TOTAL DE DOCENTES DOUTORES DA PÓS-GRADUAÇÃO (TDD).</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE ALUNOS ENVOLVIDOS EM ATIVIDADE DE INICIAÇÃO CIENTÍFICA.</t>
+          <t>ÍNDICE DE PESQUISA E INOVAÇÃO POR DOCENTES DOUTORES</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -2153,11 +2153,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Porcentagem</t>
+          <t>Produção por Doutor</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.9</v>
+        <v>0.42</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -2166,25 +2166,25 @@
         <v>44926</v>
       </c>
       <c r="J19" t="n">
-        <v>7.2</v>
+        <v>0.46</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>7.3</v>
+        <v>0.47</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>7.4</v>
+        <v>0.48</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>7.5</v>
+        <v>0.49</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
@@ -2206,13 +2206,13 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>X/Y * 100                           X: SOMATÓRIA DOS ALUNOS DE GRADUAÇÃO ENVOLVIDOS NA INICIAÇÃO CIENTÍFICA (BOLSISTA OU NÃO). Y: TOTAL DE ALUNOS MATRICULADOS NA GRADUAÇÃO.</t>
+          <t>(X/Y) X= SOMATÓRIO DE PESQUISA E INOVAÇÃO INSTITUCIONALIZADOS VIGENTES Y= TOTAL DE DOCENTES DOUTORES</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y19" t="b">
         <v>0</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PRODUTOS DE DOCENTE DOUTOR DOS PROGRAMAS DE PÓS GRADUAÇÃO DA UNIMONTES</t>
+          <t>PERCENTUAL DE ALUNOS ENVOLVIDOS EM ATIVIDADE DE INICIAÇÃO CIENTÍFICA.</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>razão</t>
+          <t>Porcentagem</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -2258,25 +2258,25 @@
         <v>44926</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.7</v>
+        <v>7.3</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>7.4</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
@@ -2298,13 +2298,13 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>X= (TAP + TPD)/TDD TOTAL DE ARTIGOS PUBLICADOS EM PERIÓDICOS COM ISSN NO SISTEMA QUALIS/CAPES PELOS DOUTORES DOS PROGRAMAS DE PÓS GRADUAÇÃO (TAP) + TOTAL DE PATENTES DEPOSITADAS NO INPI PELOS DOCENTES DOUTORES (TPD)/ TOTAL DE DOCENTES DOUTORES DA PÓS-GRADUAÇÃO (TDD).</t>
+          <t>X/Y * 100                           X: SOMATÓRIA DOS ALUNOS DE GRADUAÇÃO ENVOLVIDOS NA INICIAÇÃO CIENTÍFICA (BOLSISTA OU NÃO). Y: TOTAL DE ALUNOS MATRICULADOS NA GRADUAÇÃO.</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y20" t="b">
         <v>0</v>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ÍNDICE DE PESQUISA E INOVAÇÃO POR DOCENTES DOUTORES</t>
+          <t>PERCENTUAL DE ALUNOS ENVOLVIDOS EM ATIVIDADES DE EXTENSÃO UNIVERSITÁRIA</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Produção por Doutor</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.42</v>
+        <v>24.45</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -2350,32 +2350,32 @@
         <v>44926</v>
       </c>
       <c r="J21" t="n">
-        <v>0.46</v>
+        <v>30</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.47</v>
+        <v>32</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.48</v>
+        <v>35</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.49</v>
+        <v>38</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>PRÓ-REITORIA DE PESQUISA</t>
+          <t>PRÓ-REITORIA DE EXTENSÃO</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2385,21 +2385,21 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>(X/Y) X= SOMATÓRIO DE PESQUISA E INOVAÇÃO INSTITUCIONALIZADOS VIGENTES Y= TOTAL DE DOCENTES DOUTORES</t>
+          <t>NAEXT/NAT NAEXT: NÚMERO DE ALUNOS COM PARTICIPAÇÃO EFETIVA NA EXTENSÃONAT: NÚMERO TOTAL DE ALUNOS MATRICULADOS EM CURSOS PRESENCIAIS DE GRADUAÇÃO</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" s="2" t="n">
-        <v>45894.61875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="X22" s="2" t="n">
-        <v>45897.37361111111</v>
+        <v>45933.41527777778</v>
       </c>
       <c r="Y22" t="b">
         <v>0</v>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA CONFORMIDADE DE INSUMOS, PRODUTOS E SERVIÇOS (VISITAS)</t>
+          <t>EXECUÇÃO DO CONTROLE METROLÓGICO LEGAL</t>
         </is>
       </c>
       <c r="E23" t="b">
@@ -2521,11 +2521,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Número</t>
+          <t>UNIDADE</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>645</v>
+        <v>238254</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2534,25 +2534,25 @@
         <v>45881</v>
       </c>
       <c r="J23" t="n">
-        <v>645</v>
+        <v>238254</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>645</v>
+        <v>238254</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>645</v>
+        <v>238254</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>645</v>
+        <v>238254</v>
       </c>
       <c r="Q23" t="b">
         <v>0</v>
@@ -2574,13 +2574,13 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>A APURAÇÃO É FEITA PELO SISTEMA DE GESTÃO INTEGRADA - SGI/INMETRO, COM RELATÓRIOS DAS FISCALIZAÇÕES REALIZADAS. TODA FISCALIZAÇÃO É FEITA COM COLETORES DE DADOS(NOTEBOOKS) INTEGRADOS AO SGI DE FORMA SINCRONIZADA, SENDO MENSALMENTE APURADO O NÚMERO DE  FISCALIZAÇÕES.</t>
+          <t>A APURAÇÃO É FEITA PELO SISTEMA DE GESTÃO INTEGRADA - SGI/INMETRO, COM RELATÓRIOS DAS VERIFICAÇÕES E FISCALIZAÇÕES REALIZADAS. TODAS AS ATIVIDADES SÃO REALIZADAS COM COLETORES DE DADOS INTEGRADOS AO SGI DE FORMA SINCRONIZADA, SENDO MENSALMENTE APURADO O NÚMERO DE  VERIFICAÇÕES E FISCALIZAÇÕES.</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" s="2" t="n">
-        <v>45881.63263888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y23" t="b">
         <v>0</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EXECUÇÃO DO CONTROLE METROLÓGICO LEGAL</t>
+          <t>AVALIAÇÃO DA CONFORMIDADE DE INSUMOS, PRODUTOS E SERVIÇOS (VISITAS)</t>
         </is>
       </c>
       <c r="E24" t="b">
@@ -2613,11 +2613,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>Número</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>238254</v>
+        <v>645</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -2626,25 +2626,25 @@
         <v>45881</v>
       </c>
       <c r="J24" t="n">
-        <v>238254</v>
+        <v>645</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>238254</v>
+        <v>645</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>238254</v>
+        <v>645</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>238254</v>
+        <v>645</v>
       </c>
       <c r="Q24" t="b">
         <v>0</v>
@@ -2666,13 +2666,13 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>A APURAÇÃO É FEITA PELO SISTEMA DE GESTÃO INTEGRADA - SGI/INMETRO, COM RELATÓRIOS DAS VERIFICAÇÕES E FISCALIZAÇÕES REALIZADAS. TODAS AS ATIVIDADES SÃO REALIZADAS COM COLETORES DE DADOS INTEGRADOS AO SGI DE FORMA SINCRONIZADA, SENDO MENSALMENTE APURADO O NÚMERO DE  VERIFICAÇÕES E FISCALIZAÇÕES.</t>
+          <t>A APURAÇÃO É FEITA PELO SISTEMA DE GESTÃO INTEGRADA - SGI/INMETRO, COM RELATÓRIOS DAS FISCALIZAÇÕES REALIZADAS. TODA FISCALIZAÇÃO É FEITA COM COLETORES DE DADOS(NOTEBOOKS) INTEGRADOS AO SGI DE FORMA SINCRONIZADA, SENDO MENSALMENTE APURADO O NÚMERO DE  FISCALIZAÇÕES.</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" s="2" t="n">
-        <v>45881.63263888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y24" t="b">
         <v>0</v>
@@ -2757,18 +2757,14 @@
           <t>Nº DE MATÉRIAS ESTRATÉGICAS ENVIADAS PARA A IMPRENSA</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>NÃO SE APLICA</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
           <t>O INDICE SERÁ APURADO BIMESTRALMENTE.O MONITORAMENTO DESSE INDICADOR VISA MEDIR A EFICIÊNCIA NA DISSEMINAÇÃO DE INFORMAÇÕES RELEVANTES À POPULAÇÃO, REFORÇANDO A TRANSPARÊNCIA E O COMPROMISSO DO GOVERNO COM A PRESTAÇÃO DE CONTAS. UMA VEZ QUE É RECENTE, NÃO EXISTIA ATÉ ENTÃO UMA CONTABILIZAÇÃO SISTEMÁTICA PARA ESSE INDICADOR.</t>
         </is>
       </c>
       <c r="X25" s="2" t="n">
-        <v>45895.65833333333</v>
+        <v>45933.41597222222</v>
       </c>
       <c r="Y25" t="b">
         <v>0</v>
@@ -2860,7 +2856,7 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" s="2" t="n">
-        <v>45890.42152777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y26" t="b">
         <v>0</v>
@@ -2952,7 +2948,7 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y27" t="b">
         <v>0</v>
@@ -3044,7 +3040,7 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y28" t="b">
         <v>0</v>
@@ -3136,7 +3132,7 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" s="2" t="n">
-        <v>45891.71597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y29" t="b">
         <v>0</v>
@@ -3228,7 +3224,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" s="2" t="n">
-        <v>45891.71597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y30" t="b">
         <v>0</v>
@@ -3253,11 +3249,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VARIAÇÃO PERCENTUAL DO NÚMERO DE TECNOLOGIAS COM PEDIDOS DE PROTEÇÃO DE PROPRIEDADE INTELECTUAL</t>
+          <t>EXECUÇÃO INTEGRAL DO 1% CONSTITUCIONAL DE CT&amp;I</t>
         </is>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -3265,7 +3261,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -3274,32 +3270,32 @@
         <v>44926</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.03</v>
+        <v>100</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.05</v>
+        <v>100</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.05</v>
+        <v>100</v>
       </c>
       <c r="Q31" t="b">
         <v>0</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>RELATÓRIOS DAS UNIDADES RESPONSÁVEIS PELO CONTROLE DAS PROPRIEDADES INTELECTUAIS</t>
+          <t>SISTEMA DE INTEGRADO DE ADMINISTRAÇÃO FINANCEIRA – SIAFI E FUNDAÇÃO DE AMPARO À PESQUISA DE MINAS GERAIS - FAPEMIG</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3314,13 +3310,13 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>NÚMERO DE TECNOLOGIAS (PATENTES, SOFTWARES, DESENHOS INDUSTRIAIS E CULTIVARES) COM PEDIDO DE PROTEÇÃO JUNTO A AUTORIDADE NACIONAL OU INTERNACIONAL DE PROPRIEDADE INTELECTUAL NO ANO EM RELAÇÃO AO ANO ANTERIOR.</t>
+          <t>TOTAL DA DESPESA EMPENHADA EM FONTE 10 (RECURSOS DO TESOURO ESTADUAL) NA U.O. FAPEMIG DIVIDIDO POR UM POR CENTO DA RECEITA ORÇAMENTÁRIA CORRENTE ORDINÁRIA (ART 212 CONSTITUIÇÃO ESTADUAL MINEIRA)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" s="2" t="n">
-        <v>45891.71597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y31" t="b">
         <v>0</v>
@@ -3345,11 +3341,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>EXECUÇÃO INTEGRAL DO 1% CONSTITUCIONAL DE CT&amp;I</t>
+          <t>VARIAÇÃO PERCENTUAL DO NÚMERO DE TECNOLOGIAS COM PEDIDOS DE PROTEÇÃO DE PROPRIEDADE INTELECTUAL</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -3357,7 +3353,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>99.84999999999999</v>
+        <v>1</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3366,32 +3362,32 @@
         <v>44926</v>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>100</v>
+        <v>1.05</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>1.05</v>
       </c>
       <c r="Q32" t="b">
         <v>0</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>SISTEMA DE INTEGRADO DE ADMINISTRAÇÃO FINANCEIRA – SIAFI E FUNDAÇÃO DE AMPARO À PESQUISA DE MINAS GERAIS - FAPEMIG</t>
+          <t>RELATÓRIOS DAS UNIDADES RESPONSÁVEIS PELO CONTROLE DAS PROPRIEDADES INTELECTUAIS</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3406,7 +3402,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>TOTAL DA DESPESA EMPENHADA EM FONTE 10 (RECURSOS DO TESOURO ESTADUAL) NA U.O. FAPEMIG DIVIDIDO POR UM POR CENTO DA RECEITA ORÇAMENTÁRIA CORRENTE ORDINÁRIA (ART 212 CONSTITUIÇÃO ESTADUAL MINEIRA)</t>
+          <t>NÚMERO DE TECNOLOGIAS (PATENTES, SOFTWARES, DESENHOS INDUSTRIAIS E CULTIVARES) COM PEDIDO DE PROTEÇÃO JUNTO A AUTORIDADE NACIONAL OU INTERNACIONAL DE PROPRIEDADE INTELECTUAL NO ANO EM RELAÇÃO AO ANO ANTERIOR.</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -3504,7 +3500,7 @@
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" s="2" t="n">
-        <v>45917.48263888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y33" t="b">
         <v>0</v>
@@ -3529,7 +3525,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>EXECUÇÃO DAS METAS PREVISTAS NO PLANO DE AÇÃO CLIMÁTICA</t>
+          <t>INCREMENTO DE ABRANGÊNCIA DOS PROGRAMAS, PROJETOS E AÇÕES INSTITUCIONAIS DE EDUCAÇÃO AMBIENTAL</t>
         </is>
       </c>
       <c r="E34" t="b">
@@ -3537,7 +3533,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Relação Percentual enrtre Metas Realizadas e Metas Previstas</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -3546,32 +3542,32 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="b">
         <v>0</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>DIRETORIA DE SUSTENTABILIDADE ENERGIA E MUDANÇAS CLIMÁTICAS</t>
+          <t>DIRETORIA DE EDUCAÇÃO AMBIENTAL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3581,26 +3577,22 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>NÚMERO DE METAS DO PLAC CUMPRIDAS. PERCENTUAL CUMULATIVO.</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SERÁ POSSÍVEL APURAR O INDICADOR AO FINAL DO PRIMEIRO ANO DE EXECUÇÃO (2025) </t>
-        </is>
-      </c>
+          <t>ÍNDICE = 100 X (NÚMERO DE PRODUTOS DO ANO ATUAL – NÚMERO DE PRODUTOS DO ANO ANTERIOR)/ NÚMERO DE PRODUTOS DO ANO ANTERIOR</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>O ÍNDICE VAI SER APURADO PELA PRIMEIRA VEZ AO FINAL DE 2025</t>
+          <t>OS PRODUTOS DO INDICADOR FORAM REFORMULADOS NO ANO DE 2025. PORTANTO, A NOVA METODOLOGIA ESTÁ EM APURAÇÃO E SERÁ APLICADA A PARTIR DE DEZEMBRO DE 2025. CUMPRE ESCLARECER, QUE EM RELAÇÃO AO PRODUTO DO AMBIENTAÇÃO, O SISTEMA INTEGRADO DE GESTÃO DO AMBIENTAÇÃO - SIGA 3.0 PASSOU POR REESTRUTURAÇÃO, QUE ESTÁ SENDO IMPLEMENTADO A PARTIR DE JANEIRO DE 2025.</t>
         </is>
       </c>
       <c r="X34" s="2" t="n">
-        <v>45923.42152777778</v>
+        <v>45933.41666666666</v>
       </c>
       <c r="Y34" t="b">
         <v>0</v>
@@ -3692,7 +3684,7 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" s="2" t="n">
-        <v>45923.42152777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y35" t="b">
         <v>0</v>
@@ -3717,7 +3709,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ABRANGÊNCIA DOS PROGRAMAS, PROJETOS E AÇÕES PARA PROMOÇÃO DAS POLÍTICAS PÚBLICAS DE PROTEÇÃO À FAUNA DOMÉSTICA</t>
+          <t>CAPACITAÇÃO EM GEOTECNOLOGIAS</t>
         </is>
       </c>
       <c r="E36" t="b">
@@ -3725,41 +3717,45 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>município</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Percentual</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>18.5</v>
+      </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45657</v>
+      </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="Q36" t="b">
         <v>0</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DIRETORIA DE FAUNA DOMÉSTICA</t>
+          <t>DIRETORIA DE ESTRATÉGIAS EM GEOTECNOLOGIAS E INFORMAÇÃO GEOGRÁFICA</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3774,17 +3770,13 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>NÚMERO DE MUNICÍPIOS BENEFICIADOS COM POLÍTICAS PÚBLICAS DE FAUNA DOMÉSTICA PROMOVIDAS PELA SEMAD</t>
+          <t>ÍNDICE = 100 X (NÚMERO DE PRODUTOS DO ANO ATUAL – NÚMERO DE PRODUTOS DO ANO ANTERIOR)/ NÚMERO DE PRODUTOS DO ANO ANTERIOR</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>O ÍNDICE FOI PROPOSTO PELA PRIMEIRA VEZ PARA O ANO DE 2025 E TERÁ SUA PRIMEIRA APURAÇÃO EM DEZEMBRO</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" s="2" t="n">
-        <v>45923.42152777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y36" t="b">
         <v>0</v>
@@ -3809,7 +3801,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>INCREMENTO DE ABRANGÊNCIA DOS PROGRAMAS, PROJETOS E AÇÕES INSTITUCIONAIS DE EDUCAÇÃO AMBIENTAL</t>
+          <t>ABRANGÊNCIA DOS PROGRAMAS, PROJETOS E AÇÕES PARA PROMOÇÃO DAS POLÍTICAS PÚBLICAS DE PROTEÇÃO À FAUNA DOMÉSTICA</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -3817,7 +3809,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>município</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -3826,32 +3818,32 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="Q37" t="b">
         <v>0</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DIRETORIA DE EDUCAÇÃO AMBIENTAL</t>
+          <t>DIRETORIA DE FAUNA DOMÉSTICA</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3861,22 +3853,22 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>ÍNDICE = 100 X (NÚMERO DE PRODUTOS DO ANO ATUAL – NÚMERO DE PRODUTOS DO ANO ANTERIOR)/ NÚMERO DE PRODUTOS DO ANO ANTERIOR</t>
+          <t>NÚMERO DE MUNICÍPIOS BENEFICIADOS COM POLÍTICAS PÚBLICAS DE FAUNA DOMÉSTICA PROMOVIDAS PELA SEMAD</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr">
         <is>
-          <t>OS PRODUTOS DO INDICADOR” FORAM REFORMULADOS NO ANO DE 2025. PORTANTO, A NOVA METODOLOGIA ESTÁ EM APURAÇÃO E SERÁ APLICADA A PARTIR DE DEZEMBRO DE 2025. CUMPRE ESCLARECER, QUE EM RELAÇÃO AO PRODUTO DO AMBIENTAÇÃO, O SISTEMA INTEGRADO DE GESTÃO DO AMBIENTAÇÃO – SIGA 3.0 PASSOU POR REESTRUTURAÇÃO, QUE ESTÁ SENDO IMPLEMENTADO A PARTIR DE JANEIRO DE 2025.</t>
+          <t>O ÍNDICE FOI PROPOSTO PELA PRIMEIRA VEZ PARA O ANO DE 2025 E TERÁ SUA PRIMEIRA APURAÇÃO EM DEZEMBRO.</t>
         </is>
       </c>
       <c r="X37" s="2" t="n">
-        <v>45923.42152777778</v>
+        <v>45933.41805555556</v>
       </c>
       <c r="Y37" t="b">
         <v>0</v>
@@ -3901,7 +3893,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CAPACITAÇÃO EM GEOTECNOLOGIAS</t>
+          <t>EXECUÇÃO DAS METAS PREVISTAS NO PLANO DE AÇÃO CLIMÁTICA</t>
         </is>
       </c>
       <c r="E38" t="b">
@@ -3909,45 +3901,41 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Percentual</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>18.5</v>
-      </c>
+          <t>Relação Percentual enrtre Metas Realizadas e Metas Previstas</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>45657</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Q38" t="b">
         <v>0</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DIRETORIA DE ESTRATÉGIAS EM GEOTECNOLOGIAS E INFORMAÇÃO GEOGRÁFICA</t>
+          <t>DIRETORIA DE SUSTENTABILIDADE ENERGIA E MUDANÇAS CLIMÁTICAS</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3962,13 +3950,17 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>ÍNDICE = 100 X (NÚMERO DE PRODUTOS DO ANO ATUAL – NÚMERO DE PRODUTOS DO ANO ANTERIOR)/ NÚMERO DE PRODUTOS DO ANO ANTERIOR</t>
+          <t>NÚMERO DE METAS DO PLAC CUMPRIDAS. PERCENTUAL CUMULATIVO.</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>O ÍNDICE VAI SER APURADO PELA PRIMEIRA VEZ AO FINAL DE 2025.</t>
+        </is>
+      </c>
       <c r="X38" s="2" t="n">
-        <v>45923.42152777778</v>
+        <v>45933.41875</v>
       </c>
       <c r="Y38" t="b">
         <v>0</v>
@@ -4079,7 +4071,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ÍNDICE DE SATISFAÇÃO DOS ALUNOS</t>
+          <t>PERCENTUAL DE ABRANGÊNCIA DAS AÇÕES DE ENSINO E PESQUISA DA ESP-MG</t>
         </is>
       </c>
       <c r="E40" t="b">
@@ -4091,7 +4083,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>98.81</v>
+        <v>99</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4100,37 +4092,37 @@
         <v>45657</v>
       </c>
       <c r="J40" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q40" t="b">
         <v>0</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>RELATÓRIO EMITIDO PELAS UNIDADES ADMINISTRATIVAS CONTENDO O COMPILADO DAS AVALIAÇÕES DE SATISFAÇÃO PREENCHIDAS PELOS ALUNOS</t>
+          <t>RELATÓRIO EMITIDO PELAS UNIDADES ADMINISTRATIVAS CONTENDO A REGIONALIZAÇÃO DAS AÇÕES DE ENSINO.</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Bimestral</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4140,13 +4132,13 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>(SOMATÓRIO DO NÚMERO DE ALUNOS QUE AVALIARAM O CURSO COMO "BOM" E "ÓTIMO" / NÚMERO TOTAL DE ALUNOS QUE RESPONDERAM A AVALIAÇÃO) X 100</t>
+          <t>(NÚMERO DE MUNICÍPIOS COM PELO MENOS 1 ALUNO MATRICULADO / NÚMERO TOTAL DE MUNICÍOS DE MINAS GERAIS) X 100</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" s="2" t="n">
-        <v>45887.68125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y40" t="b">
         <v>0</v>
@@ -4171,7 +4163,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE ABRANGÊNCIA DAS AÇÕES DE ENSINO E PESQUISA DA ESP-MG</t>
+          <t>ÍNDICE DE SATISFAÇÃO DOS ALUNOS</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -4183,7 +4175,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>99</v>
+        <v>98.81</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4192,37 +4184,37 @@
         <v>45657</v>
       </c>
       <c r="J41" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q41" t="b">
         <v>0</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>RELATÓRIO EMITIDO PELAS UNIDADES ADMINISTRATIVAS CONTENDO A REGIONALIZAÇÃO DAS AÇÕES DE ENSINO.</t>
+          <t>RELATÓRIO EMITIDO PELAS UNIDADES ADMINISTRATIVAS CONTENDO O COMPILADO DAS AVALIAÇÕES DE SATISFAÇÃO PREENCHIDAS PELOS ALUNOS</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Bimestral</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -4232,13 +4224,13 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>(NÚMERO DE MUNICÍPIOS COM PELO MENOS 1 ALUNO MATRICULADO / NÚMERO TOTAL DE MUNICÍOS DE MINAS GERAIS) X 100</t>
+          <t>(SOMATÓRIO DO NÚMERO DE ALUNOS QUE AVALIARAM O CURSO COMO "BOM" E "ÓTIMO" / NÚMERO TOTAL DE ALUNOS QUE RESPONDERAM A AVALIAÇÃO) X 100</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" s="2" t="n">
-        <v>45887.68125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y41" t="b">
         <v>0</v>
@@ -4330,7 +4322,7 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" s="2" t="n">
-        <v>45895.49513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y42" t="b">
         <v>0</v>
@@ -4422,7 +4414,7 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" s="2" t="n">
-        <v>45895.49513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y43" t="b">
         <v>0</v>
@@ -4514,7 +4506,7 @@
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" s="2" t="n">
-        <v>45896.58888888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y44" t="b">
         <v>0</v>
@@ -4539,7 +4531,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE EXECUÇÃO FINANCEIRA DOS LIMITES ORÇAMENTÁRIOS DA REDE CONTRATADA</t>
+          <t xml:space="preserve">ÍNDICE DE COBERTURA EM CONSULTA MÉDICA				</t>
         </is>
       </c>
       <c r="E45" t="b">
@@ -4547,32 +4539,32 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>CONSULTA REALIZADA/BENEFICIÁRIO</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>117.05</v>
+        <v>1.47</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45473</v>
+        <v>45657</v>
       </c>
       <c r="J45" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
@@ -4583,12 +4575,12 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>SISTEMA DE ASSISTÊNCIA DESCENTRALIZADA DE SAÚDE - SADS</t>
+          <t xml:space="preserve">SISTEMA DE CADASTRO ÚNICO (CADU) E SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) DO IPSEMG				</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Mensal</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -4598,7 +4590,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t xml:space="preserve">(SOMATÓRIO DOS VALORES EXECUTADOS / SOMATÓRIO DOS LIMITES DE EXECUÇÃO FINANCEIRA DOS PRESTADORES CONTRATADOS) X100				</t>
+          <t xml:space="preserve">[TOTAL DE CONSULTAS MÉDICAS (ELETIVAS, DE ATENÇÃO PRIMÁRIA, DE URGÊNCIA E DE PRONTO SOCORRO) REALIZADAS / TOTAL DE BENEFICIÁRIOS ATIVOS NO SISTEMA DE CADASTRO ÚNICO (CADU) DO IPSEMG]				</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -4629,7 +4621,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE EXECUÇÃO DO TETO CONTRATUAL DE ATENDIMENTOS DA REDE DE PRESTADORES</t>
+          <t>ÍNDICE DE COBERTURA EM CONSULTA MÉDICA</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -4637,50 +4629,50 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>CONSULTA REALIZADA/BENEFICIÁRIO</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>91.08</v>
+        <v>1.86</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45838</v>
+        <v>45657</v>
       </c>
       <c r="J46" t="n">
-        <v>90</v>
+        <v>2.5</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90</v>
+        <v>2.5</v>
       </c>
       <c r="M46" t="b">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="b">
         <v>0</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) E SISTEMA DE ASSISTÊNCIA DESCENTRALIZADA DE SAÚDE (SADS)</t>
+          <t>SISTEMA DE CADASTRO DOS BENEFICIÁRIOS (SICAD) E SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) DO IPSEMG</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Mensal</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -4690,13 +4682,13 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>(SOMATÓRIO DOS VALORES DE AUTORIZAÇÕES EXECUTADOS NOS CONTRATOS VIGENTES / SOMATÓRIO DOS TETOS DE EXECUÇÃO DOS CONTRATOS VIGENTES) × 100</t>
+          <t>[TOTAL ANUAL DE CONSULTAS MÉDICAS (ELETIVAS, DE URGÊNCIA E DE PRONTO SOCORRO) REALIZADAS / MÉDIA ANUAL DO NÚMERO MENSAL DE BENEFICIÁRIOS ATIVOS NO SISTEMA DE CADASTRO DOS BENEFICIÁRIOS (SICAD)]</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" s="2" t="n">
-        <v>45924.50972222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y46" t="b">
         <v>1</v>
@@ -4721,11 +4713,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROPORÇÃO DE CONSULTAS MÉDICAS EM PRONTO SOCORRO				</t>
+          <t>PERCENTUAL DE EXECUÇÃO FINANCEIRA DOS LIMITES ORÇAMENTÁRIOS DA REDE CONTRATADA</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -4733,41 +4725,39 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>31.51</v>
+        <v>117.05</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45838</v>
+        <v>45473</v>
       </c>
       <c r="J47" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
       </c>
-      <c r="P47" t="n">
-        <v>20</v>
-      </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="b">
         <v>0</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t xml:space="preserve">SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) DO IPSEMG				</t>
+          <t>SISTEMA DE ASSISTÊNCIA DESCENTRALIZADA DE SAÚDE - SADS</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4782,7 +4772,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TOTAL DE CONSULTAS MÉDICAS DE URGÊNCIA E DE PRONTO SOCORRO REALIZADAS / TOTAL DE CONSULTAS MÉDICAS (ELETIVAS, DE URGÊNCIA E DE PRONTO SOCORRO) REALIZADAS] X 100				</t>
+          <t xml:space="preserve">(SOMATÓRIO DOS VALORES EXECUTADOS / SOMATÓRIO DOS LIMITES DE EXECUÇÃO FINANCEIRA DOS PRESTADORES CONTRATADOS) X100				</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -4795,7 +4785,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>MENOR</t>
+          <t>MAIOR</t>
         </is>
       </c>
     </row>
@@ -4813,56 +4803,58 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÍNDICE DE COBERTURA EM CONSULTA MÉDICA				</t>
+          <t xml:space="preserve">PROPORÇÃO DE CONSULTAS MÉDICAS EM PRONTO SOCORRO				</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CONSULTA REALIZADA/BENEFICIÁRIO</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.47</v>
+        <v>31.51</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45657</v>
+        <v>45838</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
       </c>
-      <c r="P48" t="inlineStr"/>
+      <c r="P48" t="n">
+        <v>20</v>
+      </c>
       <c r="Q48" t="b">
         <v>0</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t xml:space="preserve">SISTEMA DE CADASTRO ÚNICO (CADU) E SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) DO IPSEMG				</t>
+          <t xml:space="preserve">SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) DO IPSEMG				</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Mensal</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -4872,20 +4864,20 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TOTAL DE CONSULTAS MÉDICAS (ELETIVAS, DE ATENÇÃO PRIMÁRIA, DE URGÊNCIA E DE PRONTO SOCORRO) REALIZADAS / TOTAL DE BENEFICIÁRIOS ATIVOS NO SISTEMA DE CADASTRO ÚNICO (CADU) DO IPSEMG]				</t>
+          <t xml:space="preserve">[TOTAL DE CONSULTAS MÉDICAS DE URGÊNCIA E DE PRONTO SOCORRO REALIZADAS / TOTAL DE CONSULTAS MÉDICAS (ELETIVAS, DE URGÊNCIA E DE PRONTO SOCORRO) REALIZADAS] X 100				</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" s="2" t="n">
-        <v>45924.50972222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y48" t="b">
         <v>0</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>MAIOR</t>
+          <t>MENOR</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4895,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ÍNDICE DE COBERTURA EM CONSULTA MÉDICA</t>
+          <t>PERCENTUAL DE EXECUÇÃO DO TETO CONTRATUAL DE ATENDIMENTOS DA REDE DE PRESTADORES</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -4911,50 +4903,50 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CONSULTA REALIZADA/BENEFICIÁRIO</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.86</v>
+        <v>91.08</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45657</v>
+        <v>45838</v>
       </c>
       <c r="J49" t="n">
-        <v>2.5</v>
+        <v>90</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>2.5</v>
+        <v>90</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="Q49" t="b">
         <v>0</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>SISTEMA DE CADASTRO DOS BENEFICIÁRIOS (SICAD) E SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) DO IPSEMG</t>
+          <t>SISTEMA DE AUTORIZAÇÃO E FATURAMENTO ELETRÔNICO (SAFE) E SISTEMA DE ASSISTÊNCIA DESCENTRALIZADA DE SAÚDE (SADS)</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Mensal</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -4964,13 +4956,13 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>[TOTAL ANUAL DE CONSULTAS MÉDICAS (ELETIVAS, DE URGÊNCIA E DE PRONTO SOCORRO) REALIZADAS / MÉDIA ANUAL DO NÚMERO MENSAL DE BENEFICIÁRIOS ATIVOS NO SISTEMA DE CADASTRO DOS BENEFICIÁRIOS (SICAD)]</t>
+          <t>(SOMATÓRIO DOS VALORES DE AUTORIZAÇÕES EXECUTADOS NOS CONTRATOS VIGENTES / SOMATÓRIO DOS TETOS DE EXECUÇÃO DOS CONTRATOS VIGENTES) × 100</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" s="2" t="n">
-        <v>45924.50972222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y49" t="b">
         <v>1</v>
@@ -5062,7 +5054,7 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" s="2" t="n">
-        <v>45919.66111111111</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y50" t="b">
         <v>0</v>
@@ -5154,7 +5146,7 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" s="2" t="n">
-        <v>45919.66111111111</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y51" t="b">
         <v>0</v>
@@ -5179,7 +5171,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NÚMERO DE ALUNOS ATENDIDOS NA AMPLIAÇÃO DA JORNADA ESCOLAR COM CRESCIMENTO NAS AVALIAÇÕES ESCOLAR</t>
+          <t>NUMERO DE ESTUDANTE SELECIONADO NO PROJETO CIDADÃO GLOBAL DE MINAS PARA O MUNDO PARA INTERCAMBIO</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -5191,46 +5183,46 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>520</v>
+        <v>20</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45858</v>
+        <v>45498</v>
       </c>
       <c r="J52" t="n">
-        <v>520</v>
+        <v>40</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>520</v>
+        <v>40</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>520</v>
+        <v>40</v>
       </c>
       <c r="O52" t="b">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>520</v>
+        <v>40</v>
       </c>
       <c r="Q52" t="b">
         <v>0</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>RELATÓRIO EXPEDIDO PELA GERÊNCIA DE ENSINO BÁSICO</t>
+          <t>RELATORIO EXPEDIDO PELA GERÊNCIA DE PROJETOS E RESULTADOS</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Mensal</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -5240,13 +5232,13 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>SOMATÓRIO DE ALUNOS PARTICIPANTES DAS ATIVIDADES OFERTADAS NA JORNADA ESCOLAR QUE RESULTARAM CRESCIMENTO NAS AVALIAÇÕES ESCOLARES NAS DISCIPLINAS DE PORTUGUÊS, MATEMÁTICA OU CIÊNCIAS. CÁLCULO DE DESEMPENHO: FAIXAS DE DESEMPENHO RESULTADO DE 300 A 360 ALUNOS COM REGISTRO DE ÍNDICES DE CRESCIMENTO NAS AVALIÇÕES ESCOLARES: PORTUGUÊS, MATEMÁTICA OU CIÊNCIAS - NOTA: 10 DE 299 A 239 ALUNOS COM REGISTRO DE ÍNDICES DE CRESCIMENTO NAS AVALIÇÕES ESCOLARES: PORTUGUÊS, MATEMÁTICA OU CIÊNCIAS</t>
+          <t>NUMERO DE ESTUDANTES SELECIONADOS E ENVIADOS PARA REALIZAÇÃO DO ENTERCAMBIO ESTUDANTIL.</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y52" t="b">
         <v>0</v>
@@ -5271,7 +5263,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NUMERO DE ESTUDANTE SELECIONADO NO PROJETO CIDADÃO GLOBAL DE MINAS PARA O MUNDO PARA INTERCAMBIO</t>
+          <t>NÚMERO DE CERTIFICADO EXPEDIDO PELO NÚCLEO DE FORMAÇÃO PRESENCIAL E A DISTÂNCIA AOS PROFISSIONAIS DO QUADRO DE MAGISTÉRIO</t>
         </is>
       </c>
       <c r="E53" t="b">
@@ -5283,41 +5275,41 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>20</v>
+        <v>1150</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45498</v>
+        <v>45863</v>
       </c>
       <c r="J53" t="n">
-        <v>40</v>
+        <v>1180</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>40</v>
+        <v>1230</v>
       </c>
       <c r="O53" t="b">
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>40</v>
+        <v>1260</v>
       </c>
       <c r="Q53" t="b">
         <v>0</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>RELATORIO EXPEDIDO PELA GERÊNCIA DE PROJETOS E RESULTADOS</t>
+          <t>RELATÓRIO EXPEDIDO PELO NEAD</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5332,13 +5324,13 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>NUMERO DE ESTUDANTES SELECIONADOS E ENVIADOS PARA REALIZAÇÃO DO ENTERCAMBIO ESTUDANTIL.</t>
+          <t>SOMÁTÓRIO DE CERTIFICADOS EXPEDIDOS AOS PROFISSIONAIS DO QUADRO DE MAGISTÉRIO DA FUNDAÇÃO HELENA ANTIPOFF QUE COMPREENDE: PROFESSOR E ESPECIALISTA EM EDUCAÇÃO BÁSICA E ANALISTA EM EDUCAÇÃO BÁSICA.</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y53" t="b">
         <v>0</v>
@@ -5363,7 +5355,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NÚMERO DE CERTIFICADO EXPEDIDO PELO NÚCLEO DE FORMAÇÃO PRESENCIAL E A DISTÂNCIA AOS PROFISSIONAIS DO QUADRO DE MAGISTÉRIO</t>
+          <t>TAXA DE CONCLUSÃO DO 3º ANO DO ENSINO MÉDIO</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -5371,45 +5363,45 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1150</v>
+        <v>79</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45863</v>
+        <v>45498</v>
       </c>
       <c r="J54" t="n">
-        <v>1180</v>
+        <v>85</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1200</v>
+        <v>87</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1230</v>
+        <v>87</v>
       </c>
       <c r="O54" t="b">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1260</v>
+        <v>87</v>
       </c>
       <c r="Q54" t="b">
         <v>0</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>RELATÓRIO EXPEDIDO PELO NEAD</t>
+          <t>RELATÓRIO EXPEDIDO PELA GERÊNCIA DE ENSINO BÁSICO</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5424,13 +5416,13 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>SOMÁTÓRIO DE CERTIFICADOS EXPEDIDOS AOS PROFISSIONAIS DO QUADRO DE MAGISTÉRIO DA FUNDAÇÃO HELENA ANTIPOFF QUE COMPREENDE: PROFESSOR E ESPECIALISTA EM EDUCAÇÃO BÁSICA E ANALISTA EM EDUCAÇÃO BÁSICA.</t>
+          <t>(Nº DE ALUNO DO 3º ANO DO ENSINO MÉDIO APROVADOS/ Nº TOTAL DE ALUNSO DO 3º ANO ENSINO MÉDIO)X100</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y54" t="b">
         <v>0</v>
@@ -5455,7 +5447,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TAXA DE CONCLUSÃO DO 3º ANO DO ENSINO MÉDIO</t>
+          <t>TAXA DE CONCLUSÃO DO 9º ANO DO ENSINO FUNDAMENTAL</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -5467,7 +5459,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -5476,13 +5468,13 @@
         <v>45498</v>
       </c>
       <c r="J55" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
@@ -5494,14 +5486,14 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q55" t="b">
         <v>0</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>RELATÓRIO EXPEDIDO PELA GERÊNCIA DE ENSINO BÁSICO</t>
+          <t>RELATORIO EXPEDIDO PELA GERENCIA DE ENSINO BÁSICO</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5516,13 +5508,13 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>(Nº DE ALUNO DO 3º ANO DO ENSINO MÉDIO APROVADOS/ Nº TOTAL DE ALUNSO DO 3º ANO ENSINO MÉDIO)X100</t>
+          <t>(Nº DE ALUNOS CONCLUINTES DO 9º ANO /Nº TOTAL DE ALUNO INGRESSANTES NO 9º ANO) X100</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y55" t="b">
         <v>0</v>
@@ -5547,7 +5539,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TAXA DE CONCLUSÃO DO 9º ANO DO ENSINO FUNDAMENTAL</t>
+          <t>NÚMERO DE ALUNOS ATENDIDOS NA AMPLIAÇÃO DA JORNADA ESCOLAR COM CRESCIMENTO NAS AVALIAÇÕES ESCOLAR</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -5555,50 +5547,50 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>UNIDADE</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45498</v>
+        <v>45858</v>
       </c>
       <c r="J56" t="n">
-        <v>87</v>
+        <v>520</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>87</v>
+        <v>520</v>
       </c>
       <c r="O56" t="b">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="Q56" t="b">
         <v>0</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>RELATORIO EXPEDIDO PELA GERENCIA DE ENSINO BÁSICO</t>
+          <t>RELATÓRIO EXPEDIDO PELA GERÊNCIA DE ENSINO BÁSICO</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Mensal</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -5608,13 +5600,13 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>(Nº DE ALUNOS CONCLUINTES DO 9º ANO /Nº TOTAL DE ALUNO INGRESSANTES NO 9º ANO) X100</t>
+          <t>SOMATÓRIO DE ALUNOS PARTICIPANTES DAS ATIVIDADES OFERTADAS NA JORNADA ESCOLAR QUE RESULTARAM CRESCIMENTO NAS AVALIAÇÕES ESCOLARES NAS DISCIPLINAS DE PORTUGUÊS, MATEMÁTICA OU CIÊNCIAS. CÁLCULO DE DESEMPENHO: FAIXAS DE DESEMPENHO RESULTADO DE 300 A 360 ALUNOS COM REGISTRO DE ÍNDICES DE CRESCIMENTO NAS AVALIÇÕES ESCOLARES: PORTUGUÊS, MATEMÁTICA OU CIÊNCIAS - NOTA: 10 DE 299 A 239 ALUNOS COM REGISTRO DE ÍNDICES DE CRESCIMENTO NAS AVALIÇÕES ESCOLARES: PORTUGUÊS, MATEMÁTICA OU CIÊNCIAS</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y56" t="b">
         <v>0</v>
@@ -5706,7 +5698,7 @@
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" s="2" t="n">
-        <v>45898.41875</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y57" t="b">
         <v>0</v>
@@ -5798,7 +5790,7 @@
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" s="2" t="n">
-        <v>45896.38333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y58" t="b">
         <v>0</v>
@@ -5890,7 +5882,7 @@
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" s="2" t="n">
-        <v>45897.55833333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y59" t="b">
         <v>0</v>
@@ -5982,7 +5974,7 @@
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" s="2" t="n">
-        <v>45897.55902777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y60" t="b">
         <v>0</v>
@@ -6074,7 +6066,7 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" s="2" t="n">
-        <v>45897.55833333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y61" t="b">
         <v>0</v>
@@ -6166,7 +6158,7 @@
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" s="2" t="n">
-        <v>45897.56041666667</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y62" t="b">
         <v>0</v>
@@ -6191,7 +6183,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ATENDIMENTO REALIZADO NAS OFICINAS PEDAGÓGICAS: UM OLHAR AO CIDADÃO</t>
+          <t>NÚMERO AÇÕES COLETIVAS E ATENDIMENTOS EM GRUPO REALIZADOS NA CLÍNICA DE PSICOLOGIA E ESCOLA SANDOVAL SOARES DE AZEVEDO.</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -6199,45 +6191,45 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Aluno Atendido</t>
+          <t>UNIDADE</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>45498</v>
+        <v>45862</v>
       </c>
       <c r="J63" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M63" t="b">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="O63" t="b">
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q63" t="b">
         <v>0</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>RELATÓRIO EXPEDIDO PELA GERÊNCIA DE EDUCAÇÃO BÁSICA</t>
+          <t>RELATÓRIO EXPEDIDO PELA CLÍNICA DE PISCOLOGIA ÉDOUARD CLAPARÉDE</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6252,13 +6244,13 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>NUMERO DE ALUNOS QUE CONCLUIRAM O PROCESSO SELETIVO E SÃO ENCAMINHADOS PARA O INTERCAMBIO ESTUDANTIL.</t>
+          <t>Nº DE AÇÕES COLETIVAS E ATENDIMENTOS REALIZADOS</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y63" t="b">
         <v>0</v>
@@ -6283,7 +6275,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NÚMERO AÇÕES COLETIVAS E ATENDIMENTOS EM GRUPO REALIZADOS NA CLÍNICA DE PSICOLOGIA E ESCOLA SANDOVAL SOARES DE AZEVEDO.</t>
+          <t>ATENDIMENTO REALIZADO NAS OFICINAS PEDAGÓGICAS: UM OLHAR AO CIDADÃO</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -6291,45 +6283,45 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>Aluno Atendido</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>45862</v>
+        <v>45498</v>
       </c>
       <c r="J64" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M64" t="b">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O64" t="b">
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Q64" t="b">
         <v>0</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>RELATÓRIO EXPEDIDO PELA CLÍNICA DE PISCOLOGIA ÉDOUARD CLAPARÉDE</t>
+          <t>RELATÓRIO EXPEDIDO PELA GERÊNCIA DE EDUCAÇÃO BÁSICA</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6344,13 +6336,13 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Nº DE AÇÕES COLETIVAS E ATENDIMENTOS REALIZADOS</t>
+          <t>NUMERO DE ALUNOS QUE CONCLUIRAM O PROCESSO SELETIVO E SÃO ENCAMINHADOS PARA O INTERCAMBIO ESTUDANTIL.</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y64" t="b">
         <v>0</v>
@@ -6442,7 +6434,7 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" s="2" t="n">
-        <v>45894.50902777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y65" t="b">
         <v>0</v>
@@ -6467,7 +6459,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RAZÃO DE MORTALIDADE MATERNA</t>
+          <t>RESOLUBILIDADE NA ALTA COMPLEXIDADE HOSPITALAR</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -6475,45 +6467,45 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1/100.000</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>51</v>
+        <v>82.84</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>44196</v>
+        <v>44926</v>
       </c>
       <c r="J66" t="n">
-        <v>40.25</v>
+        <v>83.5</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>40</v>
+        <v>83.8</v>
       </c>
       <c r="M66" t="b">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="O66" t="b">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Q66" t="b">
         <v>0</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>HTTPS://SIDRA.IBGE.GOV.BR/TABELA/6694</t>
+          <t>SISTEMA DE INFORMAÇÃO HOSPITALAR (SIH)</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6528,20 +6520,20 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>[(NÚMERO DE ÓBITOS MATERNOS)/(QUANTIDADE DE NASCIDOS VIVOS)] X 100.000</t>
+          <t>NÚMERO DE MACRORREGIÕES DE SAÚDE COM RESOLUBILIDADE &gt;= 80% / TOTAL DE MACRORREGIÕES DE SAÚDE (ALTA COMPLEXIDADE HOSPITALAR).</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" s="2" t="n">
-        <v>45909.71597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y66" t="b">
         <v>0</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>MENOR</t>
+          <t>MAIOR</t>
         </is>
       </c>
     </row>
@@ -6559,7 +6551,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>INCIDÊNCIA DE TUBERCULOSE POR 100.000 HABITANTES</t>
+          <t>RESOLUBILIDADE NA MÉDIA COMPLEXIDADE HOSPITALAR</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -6567,45 +6559,45 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1/100.000</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3321</v>
+        <v>58.43</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="J67" t="n">
-        <v>3050</v>
+        <v>65</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>3000</v>
+        <v>69</v>
       </c>
       <c r="M67" t="b">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="O67" t="b">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="Q67" t="b">
         <v>0</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>HTTPS://SIDRA.IBGE.GOV.BR/TABELA/8417 E HTTPS://SIDRA.IBGE.GOV.BR/TABELA/8418</t>
+          <t>SISTEMA DE INFORMAÇÃO HOSPITALAR (SIH)</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6615,25 +6607,25 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>[(NÚMERO DE CASOS NOVOS CONFIRMADOS DE TUBERCULOSE (TODAS AS FORMAS) EM RESIDENTES)/(POPULAÇÃO TOTAL RESIDENTE NO PERÍODO DETERMINADO)] X 100.000</t>
+          <t>NÚMERO DE MICRORREGIÕES DE SAÚDE COM RESOLUBILIDADE &gt;= A 80% / TOTAL DE MICRORREGIÕES DE SAÚDE (MÉDIA COMPLEXIDADE HOSPITALAR)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" s="2" t="n">
-        <v>45909.71597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y67" t="b">
         <v>0</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>MENOR</t>
+          <t>MAIOR</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6643,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TAXA DE MORTALIDADE POR DOENÇAS DO APARELHO CIRCULATÓRIO, TUMORES MALIGNOS, DIABETES MELLITUS E DOENÇAS CRÔNICAS RESPIRATÓRIAS (30 A 69 ANOS)</t>
+          <t>RAZÃO DE MORTALIDADE MATERNA</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -6663,7 +6655,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>30657</v>
+        <v>51</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -6672,32 +6664,32 @@
         <v>44196</v>
       </c>
       <c r="J68" t="n">
-        <v>30000</v>
+        <v>40.25</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>29900</v>
+        <v>40</v>
       </c>
       <c r="M68" t="b">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>29900</v>
+        <v>40</v>
       </c>
       <c r="O68" t="b">
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>29900</v>
+        <v>40</v>
       </c>
       <c r="Q68" t="b">
         <v>0</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>HTTPS://SIDRA.IBGE.GOV.BR/TABELA/4277</t>
+          <t>HTTPS://SIDRA.IBGE.GOV.BR/TABELA/6694</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6712,13 +6704,13 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>[(NÚMERO DE ÓBITOS ATRIBUÍDOS A DOENÇAS CARDIOVASCULARES, CÂNCER, DIABETES OU DOENÇAS RESPIRATÓRIAS CRÔNICAS NA POPULAÇÃO DE 30 A 69 ANOS)/(POPULAÇÃO TOTAL RESIDENTE ENTRE OS 30 E 69 ANOS)] X 100</t>
+          <t>[(NÚMERO DE ÓBITOS MATERNOS)/(QUANTIDADE DE NASCIDOS VIVOS)] X 100.000</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" s="2" t="n">
-        <v>45909.71597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y68" t="b">
         <v>0</v>
@@ -6743,7 +6735,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TAXA DE MORTALIDADE POR SUICÍDIO</t>
+          <t>INCIDÊNCIA DE TUBERCULOSE POR 100.000 HABITANTES</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -6755,41 +6747,41 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1647</v>
+        <v>3321</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>44196</v>
+        <v>44561</v>
       </c>
       <c r="J69" t="n">
-        <v>1555</v>
+        <v>3050</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1540</v>
+        <v>3000</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1540</v>
+        <v>3000</v>
       </c>
       <c r="O69" t="b">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1540</v>
+        <v>3000</v>
       </c>
       <c r="Q69" t="b">
         <v>0</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>HTTPS://SIDRA.IBGE.GOV.BR/TABELA/8183</t>
+          <t>HTTPS://SIDRA.IBGE.GOV.BR/TABELA/8417 E HTTPS://SIDRA.IBGE.GOV.BR/TABELA/8418</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -6804,20 +6796,20 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>[(NÚMERO DE ÓBITOS POR SUICÍDIO NA POPULAÇÃO COM 5 ANOS OU MAIS)/(POPULAÇÃO TOTAL RESIDENTE COM 5 ANOS OU MAIS)] X 100.000</t>
+          <t>[(NÚMERO DE CASOS NOVOS CONFIRMADOS DE TUBERCULOSE (TODAS AS FORMAS) EM RESIDENTES)/(POPULAÇÃO TOTAL RESIDENTE NO PERÍODO DETERMINADO)] X 100.000</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" s="2" t="n">
-        <v>45909.71597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y69" t="b">
         <v>0</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>MAIOR</t>
+          <t>MENOR</t>
         </is>
       </c>
     </row>
@@ -6835,7 +6827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RESOLUBILIDADE NA ALTA COMPLEXIDADE HOSPITALAR</t>
+          <t>TAXA DE MORTALIDADE POR DOENÇAS DO APARELHO CIRCULATÓRIO, TUMORES MALIGNOS, DIABETES MELLITUS E DOENÇAS CRÔNICAS RESPIRATÓRIAS (30 A 69 ANOS)</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -6843,45 +6835,45 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>1/100.000</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>82.84</v>
+        <v>30657</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>44926</v>
+        <v>44196</v>
       </c>
       <c r="J70" t="n">
-        <v>83.5</v>
+        <v>30000</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>83.8</v>
+        <v>29900</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>84</v>
+        <v>29900</v>
       </c>
       <c r="O70" t="b">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>84</v>
+        <v>29900</v>
       </c>
       <c r="Q70" t="b">
         <v>0</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>SISTEMA DE INFORMAÇÃO HOSPITALAR (SIH)</t>
+          <t>HTTPS://SIDRA.IBGE.GOV.BR/TABELA/4277</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -6896,20 +6888,20 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>NÚMERO DE MACRORREGIÕES DE SAÚDE COM RESOLUBILIDADE &gt;= 80% / TOTAL DE MACRORREGIÕES DE SAÚDE (ALTA COMPLEXIDADE HOSPITALAR).</t>
+          <t>[(NÚMERO DE ÓBITOS ATRIBUÍDOS A DOENÇAS CARDIOVASCULARES, CÂNCER, DIABETES OU DOENÇAS RESPIRATÓRIAS CRÔNICAS NA POPULAÇÃO DE 30 A 69 ANOS)/(POPULAÇÃO TOTAL RESIDENTE ENTRE OS 30 E 69 ANOS)] X 100</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" s="2" t="n">
-        <v>45909.71597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y70" t="b">
         <v>0</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>MAIOR</t>
+          <t>MENOR</t>
         </is>
       </c>
     </row>
@@ -6927,7 +6919,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RESOLUBILIDADE NA MÉDIA COMPLEXIDADE HOSPITALAR</t>
+          <t>TAXA DE MORTALIDADE POR SUICÍDIO</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -6935,45 +6927,45 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>1/100.000</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>58.43</v>
+        <v>1647</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>44926</v>
+        <v>44196</v>
       </c>
       <c r="J71" t="n">
-        <v>65</v>
+        <v>1555</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>69</v>
+        <v>1540</v>
       </c>
       <c r="M71" t="b">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>72</v>
+        <v>1540</v>
       </c>
       <c r="O71" t="b">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>72</v>
+        <v>1540</v>
       </c>
       <c r="Q71" t="b">
         <v>0</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>SISTEMA DE INFORMAÇÃO HOSPITALAR (SIH)</t>
+          <t>HTTPS://SIDRA.IBGE.GOV.BR/TABELA/8183</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -6983,18 +6975,18 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>NÚMERO DE MICRORREGIÕES DE SAÚDE COM RESOLUBILIDADE &gt;= A 80% / TOTAL DE MICRORREGIÕES DE SAÚDE (MÉDIA COMPLEXIDADE HOSPITALAR)</t>
+          <t>[(NÚMERO DE ÓBITOS POR SUICÍDIO NA POPULAÇÃO COM 5 ANOS OU MAIS)/(POPULAÇÃO TOTAL RESIDENTE COM 5 ANOS OU MAIS)] X 100.000</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" s="2" t="n">
-        <v>45909.71597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y71" t="b">
         <v>0</v>
@@ -7086,7 +7078,7 @@
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" s="2" t="n">
-        <v>45919.61527777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y72" t="b">
         <v>0</v>
@@ -7111,7 +7103,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PONTOS DE ATENÇÃO DE MÉDIA COMPLEXIDADE FINANCIADOS OU COFINANCIADOS COM RECURSO ESTADUAL</t>
+          <t>PERCENTUAL DE AUMENTO DA QUANTIDADE DE EXAMES FINANCIADOS OU COFINANCIADOS PELO FUNDO ESTADUAL DE SAÚDE REALIZADOS PARA AS LINHAS DE CUIDADO PRIORITÁRIAS</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -7119,38 +7111,38 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1435</v>
+        <v>11.76</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>45138</v>
+        <v>44926</v>
       </c>
       <c r="J73" t="n">
-        <v>1650</v>
+        <v>10</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1722</v>
+        <v>10</v>
       </c>
       <c r="M73" t="b">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1793</v>
+        <v>10</v>
       </c>
       <c r="O73" t="b">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1793</v>
+        <v>10</v>
       </c>
       <c r="Q73" t="b">
         <v>0</v>
@@ -7172,13 +7164,13 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>SOMA DOS PONTOS DE ATENÇÃO DE MÉDIA COMPLEXIDADE FINANCIADOS OU COFINANCIADOS COM RECURSOS ESTADUAIS.</t>
+          <t>PERCENTUAL DE AUMENTO DE EXAMES = Nº ATUAL DE EXAMES REALIZADOS - Nº DE EXAMES REALIZADOS NO ANO ANTERIOR/ Nº DE EXAMES REALIZADOS NO ANO ANTERIOR X 100</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" s="2" t="n">
-        <v>45909.70208333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y73" t="b">
         <v>0</v>
@@ -7203,7 +7195,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE AUMENTO DA QUANTIDADE DE EXAMES FINANCIADOS OU COFINANCIADOS PELO FUNDO ESTADUAL DE SAÚDE REALIZADOS PARA AS LINHAS DE CUIDADO PRIORITÁRIAS</t>
+          <t>PONTOS DE ATENÇÃO DE MÉDIA COMPLEXIDADE FINANCIADOS OU COFINANCIADOS COM RECURSO ESTADUAL</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -7211,38 +7203,38 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>UNIDADE</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>11.76</v>
+        <v>1435</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>44926</v>
+        <v>45138</v>
       </c>
       <c r="J74" t="n">
-        <v>10</v>
+        <v>1650</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>10</v>
+        <v>1722</v>
       </c>
       <c r="M74" t="b">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>10</v>
+        <v>1793</v>
       </c>
       <c r="O74" t="b">
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>10</v>
+        <v>1793</v>
       </c>
       <c r="Q74" t="b">
         <v>0</v>
@@ -7264,13 +7256,13 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE AUMENTO DE EXAMES = Nº ATUAL DE EXAMES REALIZADOS - Nº DE EXAMES REALIZADOS NO ANO ANTERIOR/ Nº DE EXAMES REALIZADOS NO ANO ANTERIOR X 100</t>
+          <t>SOMA DOS PONTOS DE ATENÇÃO DE MÉDIA COMPLEXIDADE FINANCIADOS OU COFINANCIADOS COM RECURSOS ESTADUAIS.</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" s="2" t="n">
-        <v>45909.70208333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y74" t="b">
         <v>0</v>
@@ -7362,7 +7354,7 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" s="2" t="n">
-        <v>45909.68958333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y75" t="b">
         <v>0</v>
@@ -7454,7 +7446,7 @@
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" s="2" t="n">
-        <v>45909.69236111111</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y76" t="b">
         <v>0</v>
@@ -7546,7 +7538,7 @@
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" s="2" t="n">
-        <v>45912.55555555555</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y77" t="b">
         <v>0</v>
@@ -7638,7 +7630,7 @@
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" s="2" t="n">
-        <v>45923.43055555555</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y78" t="b">
         <v>0</v>
@@ -7663,7 +7655,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TAXA DE INTERIORIZAÇÃO DO PROGRAMA</t>
+          <t>PERCENTUAL DE MUNICÍPIOS MINEIROS COM CONSELHO MUNICIPAL DE ESPORTE ATIVO</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -7671,11 +7663,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>PERCENTAGEM</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>86.29000000000001</v>
+        <v>68</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -7684,32 +7676,32 @@
         <v>45291</v>
       </c>
       <c r="J79" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="M79" t="b">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="O79" t="b">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="Q79" t="b">
         <v>0</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>SUBSECRETARIA DE ESPORTES A PARTIR DO REGISTRO DE EXECUÇÃO ORÇAMENTÁRIA NO SIAFI/SIGPLAN</t>
+          <t>DIRETORIA DE FOMENTO E ORGANIZAÇÃO DE POLÍTICAS ESPORTIVAS, A PARTIR DE DADOS DO SISTEMA ICMS ESPORTIVO</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -7724,13 +7716,13 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>SOMATÓRIA DA DESPESA REALIZADA DO PROGRAMA EM TODAS AS REGIÕES DE PLANEJAMENTO EXCETO A REGIÃO INTERMEDIÁRIA DE BELO HORIZONTE NO ANO ANTERIOR / DESPESA TOTAL REALIZADA DE FOMENTO DO ESPORTE, DA ATIVIDADE FÍSICA E DO LAZER NO ANO ANTERIOR X100</t>
+          <t>NÚMERO DE MUNICÍPIOS COM CONSELHO MUNICIPAL DE ESPORTES ATIVO, DIVIDIDO PELO NÚMERO TOTAL DE MUNICÍPIOS MINEIROS (853)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" s="2" t="n">
-        <v>45901.47777777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y79" t="b">
         <v>0</v>
@@ -7755,51 +7747,53 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE ATLETAS BENEFICIADOS COM O BOLSA ATLETA COM MELHORA DE DESEMPENHO</t>
+          <t>PERCENTUAL DE MUNICÍPIOS MINEIROS BENEFICIADOS POR AÇÕES DA SUBSECRETARIA DE ESPORTES</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>PERCENTAGEM</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>85.70999999999999</v>
+        <v>49.71</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>45351</v>
+        <v>44405</v>
       </c>
       <c r="J80" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M80" t="b">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O80" t="b">
         <v>0</v>
       </c>
-      <c r="P80" t="inlineStr"/>
+      <c r="P80" t="n">
+        <v>85</v>
+      </c>
       <c r="Q80" t="b">
         <v>0</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>DIRETORIA DE INCENTIVO AO ESPORTE DE PARTICIPAÇÃO E RENDIMENTO</t>
+          <t>SUBSECRETARIA DE ESPORTES A PARTIR DO REGISTRO DE EXECUÇÃO FÍSICA NO SIGPLAN</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -7814,13 +7808,13 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>ATLETAS QUE RECEBEM BOLSA-ATLETA QUE OBTIVERAM MELHORA DE DESEMPENHO EM SUAS CATEGORIAS EM RELAÇÃO AO ANO ANTERIOR/ TOTAL DE ATLETAS CONTEMPLADOS NA AÇÃO DO BOLSA-ATLETA PLEITEARAM NOVAMENTE O BENEFÍCIO * 100</t>
+          <t>(NUMERO DE MUNICÍPIOS BENEFICIADOS POR NO MÍNIMO UMA AÇÃO DA SUBSECRETARIA DE ESPORTES NO ANO ANTERIOR / TOTAL DE MUNICÍPIOS MINEIROS)*100</t>
         </is>
       </c>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" s="2" t="n">
-        <v>45901.47777777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y80" t="b">
         <v>0</v>
@@ -7845,7 +7839,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE MUNICÍPIOS MINEIROS COM CONSELHO MUNICIPAL DE ESPORTE ATIVO</t>
+          <t>PERCENTUAL DE MUNICÍPIOS MINEIROS COM BAIXO IDH-M ATENDIDOS POR AÇÕES DA SUBSECRETARIA DE ESPORTES</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -7857,41 +7851,41 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>68</v>
+        <v>43.84</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>45291</v>
+        <v>44405</v>
       </c>
       <c r="J81" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="M81" t="b">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O81" t="b">
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="Q81" t="b">
         <v>0</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>DIRETORIA DE FOMENTO E ORGANIZAÇÃO DE POLÍTICAS ESPORTIVAS, A PARTIR DE DADOS DO SISTEMA ICMS ESPORTIVO</t>
+          <t>SUBSECRETARIA DE ESPORTES A PARTIR DO REGISTRO DE EXECUÇÃO FÍSICA NO SIGPLAN</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7906,13 +7900,13 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>NÚMERO DE MUNICÍPIOS COM CONSELHO MUNICIPAL DE ESPORTES ATIVO, DIVIDIDO PELO NÚMERO TOTAL DE MUNICÍPIOS MINEIROS (853)</t>
+          <t>(NUMERO DE MUNICÍPIOS COM IDH-M BAIXO BENEFICIADOS POR NO MÍNIMO UMA AÇÃO DA SUBSECRETARIA DE ESPORTES NO ANO ANTERIOR / TOTAL DE MUNICIPIOS MINEIROS COM IDH-M BAIXO) *100</t>
         </is>
       </c>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" s="2" t="n">
-        <v>45901.47777777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y81" t="b">
         <v>0</v>
@@ -7937,7 +7931,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE MUNICÍPIOS MINEIROS BENEFICIADOS POR AÇÕES DA SUBSECRETARIA DE ESPORTES</t>
+          <t>TAXA DE INTERIORIZAÇÃO DO PROGRAMA</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -7945,45 +7939,45 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>PERCENTAGEM</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>49.71</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>44405</v>
+        <v>45291</v>
       </c>
       <c r="J82" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M82" t="b">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O82" t="b">
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q82" t="b">
         <v>0</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>SUBSECRETARIA DE ESPORTES A PARTIR DO REGISTRO DE EXECUÇÃO FÍSICA NO SIGPLAN</t>
+          <t>SUBSECRETARIA DE ESPORTES A PARTIR DO REGISTRO DE EXECUÇÃO ORÇAMENTÁRIA NO SIAFI/SIGPLAN</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -7998,13 +7992,13 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>(NUMERO DE MUNICÍPIOS BENEFICIADOS POR NO MÍNIMO UMA AÇÃO DA SUBSECRETARIA DE ESPORTES NO ANO ANTERIOR / TOTAL DE MUNICÍPIOS MINEIROS)*100</t>
+          <t>SOMATÓRIA DA DESPESA REALIZADA DO PROGRAMA EM TODAS AS REGIÕES DE PLANEJAMENTO EXCETO A REGIÃO INTERMEDIÁRIA DE BELO HORIZONTE NO ANO ANTERIOR / DESPESA TOTAL REALIZADA DE FOMENTO DO ESPORTE, DA ATIVIDADE FÍSICA E DO LAZER NO ANO ANTERIOR X100</t>
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" s="2" t="n">
-        <v>45901.47777777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y82" t="b">
         <v>0</v>
@@ -8029,53 +8023,51 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE MUNICÍPIOS MINEIROS COM BAIXO IDH-M ATENDIDOS POR AÇÕES DA SUBSECRETARIA DE ESPORTES</t>
+          <t>PERCENTUAL DE ATLETAS BENEFICIADOS COM O BOLSA ATLETA COM MELHORA DE DESEMPENHO</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>PERCENTAGEM</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>43.84</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>44405</v>
+        <v>45351</v>
       </c>
       <c r="J83" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M83" t="b">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O83" t="b">
         <v>0</v>
       </c>
-      <c r="P83" t="n">
-        <v>85</v>
-      </c>
+      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="b">
         <v>0</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>SUBSECRETARIA DE ESPORTES A PARTIR DO REGISTRO DE EXECUÇÃO FÍSICA NO SIGPLAN</t>
+          <t>DIRETORIA DE INCENTIVO AO ESPORTE DE PARTICIPAÇÃO E RENDIMENTO</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -8090,7 +8082,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>(NUMERO DE MUNICÍPIOS COM IDH-M BAIXO BENEFICIADOS POR NO MÍNIMO UMA AÇÃO DA SUBSECRETARIA DE ESPORTES NO ANO ANTERIOR / TOTAL DE MUNICIPIOS MINEIROS COM IDH-M BAIXO) *100</t>
+          <t>ATLETAS QUE RECEBEM BOLSA-ATLETA QUE OBTIVERAM MELHORA DE DESEMPENHO EM SUAS CATEGORIAS EM RELAÇÃO AO ANO ANTERIOR/ TOTAL DE ATLETAS CONTEMPLADOS NA AÇÃO DO BOLSA-ATLETA PLEITEARAM NOVAMENTE O BENEFÍCIO * 100</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
@@ -8188,7 +8180,7 @@
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" s="2" t="n">
-        <v>45898.59791666667</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y84" t="b">
         <v>0</v>
@@ -8280,7 +8272,7 @@
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" s="2" t="n">
-        <v>45887.56944444445</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y85" t="b">
         <v>0</v>
@@ -8372,7 +8364,7 @@
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y86" t="b">
         <v>0</v>
@@ -8464,7 +8456,7 @@
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y87" t="b">
         <v>0</v>
@@ -8556,7 +8548,7 @@
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y88" t="b">
         <v>0</v>
@@ -8648,7 +8640,7 @@
         </is>
       </c>
       <c r="X89" s="2" t="n">
-        <v>45924.51180555556</v>
+        <v>45933.42013888889</v>
       </c>
       <c r="Y89" t="b">
         <v>0</v>
@@ -8740,7 +8732,7 @@
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" s="2" t="n">
-        <v>45912.62708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y90" t="b">
         <v>0</v>
@@ -8832,7 +8824,7 @@
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y91" t="b">
         <v>0</v>
@@ -8924,7 +8916,7 @@
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" s="2" t="n">
-        <v>45890.69375</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y92" t="b">
         <v>0</v>
@@ -9016,7 +9008,7 @@
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
       <c r="X93" s="2" t="n">
-        <v>45924.5125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y93" t="b">
         <v>0</v>
@@ -9041,7 +9033,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAXA DE MORTALIDADE INSTITUCIONAL - HGIP				</t>
+          <t xml:space="preserve">MÉDIA DE PERMANÊNCIA - HGIP				</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -9049,11 +9041,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>dias</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.86</v>
+        <v>5.77</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -9062,25 +9054,25 @@
         <v>45838</v>
       </c>
       <c r="J94" t="n">
-        <v>4.1</v>
+        <v>5.85</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>4.05</v>
+        <v>5.8</v>
       </c>
       <c r="M94" t="b">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="O94" t="b">
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="Q94" t="b">
         <v>0</v>
@@ -9102,13 +9094,13 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t xml:space="preserve">(NÚMERO DE ÓBITOS APÓS 24 HORAS DE INTERNAÇÃO / TOTAL DE SAÍDAS) X 100				</t>
+          <t xml:space="preserve">SOMA DOS TEMPOS DE ESTADIA DOS PACIENTES-DIA / TOTAL DE SAÍDAS				</t>
         </is>
       </c>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" s="2" t="n">
-        <v>45924.5125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y94" t="b">
         <v>0</v>
@@ -9133,7 +9125,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAXA DE OCUPAÇÃO HOSPITALAR - HGIP				</t>
+          <t xml:space="preserve">TAXA DE MORTALIDADE INSTITUCIONAL - HGIP				</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -9145,7 +9137,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>77.91</v>
+        <v>2.86</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -9154,32 +9146,32 @@
         <v>45838</v>
       </c>
       <c r="J95" t="n">
-        <v>80</v>
+        <v>4.1</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>80</v>
+        <v>4.05</v>
       </c>
       <c r="M95" t="b">
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="O95" t="b">
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>80</v>
+        <v>3.9</v>
       </c>
       <c r="Q95" t="b">
         <v>0</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t xml:space="preserve">RELATÓRIO DO SISTEMA SOUL MV				</t>
+          <t>RELATÓRIO DO SISTEMA DRG SIGCLINIC (DIAGNOSIS RELATED GROUP)</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -9194,20 +9186,20 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t xml:space="preserve">(TOTAL DE PACIENTES-DIA NO PERÍODO / TOTAL DE LEITOS-DIAS OPERACIONAIS NO PERÍODO) X 100				</t>
+          <t xml:space="preserve">(NÚMERO DE ÓBITOS APÓS 24 HORAS DE INTERNAÇÃO / TOTAL DE SAÍDAS) X 100				</t>
         </is>
       </c>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" s="2" t="n">
-        <v>45924.5125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y95" t="b">
         <v>0</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>MAIOR</t>
+          <t>MENOR</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9217,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAXA DE REINTERNAÇÃO - HGIP				</t>
+          <t xml:space="preserve">TAXA DE OCUPAÇÃO HOSPITALAR - HGIP				</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -9237,7 +9229,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.22</v>
+        <v>77.91</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -9246,32 +9238,32 @@
         <v>45838</v>
       </c>
       <c r="J96" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>3.9</v>
+        <v>80</v>
       </c>
       <c r="M96" t="b">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>3.8</v>
+        <v>80</v>
       </c>
       <c r="O96" t="b">
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>3.7</v>
+        <v>80</v>
       </c>
       <c r="Q96" t="b">
         <v>0</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>RELATÓRIO DO SISTEMA DRG SIGCLINIC (DIAGNOSIS RELATED GROUP)</t>
+          <t xml:space="preserve">RELATÓRIO DO SISTEMA SOUL MV				</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -9286,20 +9278,20 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t xml:space="preserve">(NÚMERO DE REINTERNAÇÕES NÃO PROGRAMADAS PELA MESMA CAUSA ATÉ 30 DIAS DA ALTA HOSPITALAR / TOTAL DE SAÍDAS) X 100				</t>
+          <t xml:space="preserve">(TOTAL DE PACIENTES-DIA NO PERÍODO / TOTAL DE LEITOS-DIAS OPERACIONAIS NO PERÍODO) X 100				</t>
         </is>
       </c>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" s="2" t="n">
-        <v>45924.5125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y96" t="b">
         <v>0</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>MENOR</t>
+          <t>MAIOR</t>
         </is>
       </c>
     </row>
@@ -9317,7 +9309,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">MÉDIA DE PERMANÊNCIA - HGIP				</t>
+          <t xml:space="preserve">TAXA DE REINTERNAÇÃO - HGIP				</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -9325,11 +9317,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>dias</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.77</v>
+        <v>3.22</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -9338,25 +9330,25 @@
         <v>45838</v>
       </c>
       <c r="J97" t="n">
-        <v>5.85</v>
+        <v>4</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="M97" t="b">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="O97" t="b">
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="Q97" t="b">
         <v>0</v>
@@ -9378,13 +9370,13 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOMA DOS TEMPOS DE ESTADIA DOS PACIENTES-DIA / TOTAL DE SAÍDAS				</t>
+          <t xml:space="preserve">(NÚMERO DE REINTERNAÇÕES NÃO PROGRAMADAS PELA MESMA CAUSA ATÉ 30 DIAS DA ALTA HOSPITALAR / TOTAL DE SAÍDAS) X 100				</t>
         </is>
       </c>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" s="2" t="n">
-        <v>45924.5125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y97" t="b">
         <v>0</v>
@@ -9476,7 +9468,7 @@
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
       <c r="X98" s="2" t="n">
-        <v>45924.5125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y98" t="b">
         <v>0</v>
@@ -9568,7 +9560,7 @@
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
       <c r="X99" s="2" t="n">
-        <v>45924.5125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y99" t="b">
         <v>0</v>
@@ -9660,7 +9652,7 @@
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
       <c r="X100" s="2" t="n">
-        <v>45898.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y100" t="b">
         <v>0</v>
@@ -9685,7 +9677,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CLIENTES ASSISTIDOS</t>
+          <t>ATENDIMENTOS REALIZADOS EM CAFEICULTURA</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -9693,38 +9685,38 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ASSISTÊNCIAS PRESTADAS</t>
+          <t>Nº de Atendimentos Realizados</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>44917</v>
+        <v>44926</v>
       </c>
       <c r="J101" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="M101" t="b">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="O101" t="b">
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="Q101" t="b">
         <v>0</v>
@@ -9746,13 +9738,13 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA. VALOR ABSOLUTO</t>
+          <t>NÃO SE APLICA. VALOR ABSOLUTO.</t>
         </is>
       </c>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" s="2" t="n">
-        <v>45923.62013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y101" t="b">
         <v>0</v>
@@ -9777,7 +9769,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM CAFEICULTURA</t>
+          <t>ATENDIMENTOS REALIZADOS EM BOVINOCULTURA</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -9789,7 +9781,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -9798,25 +9790,25 @@
         <v>44926</v>
       </c>
       <c r="J102" t="n">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="M102" t="b">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="O102" t="b">
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="Q102" t="b">
         <v>0</v>
@@ -9844,7 +9836,7 @@
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
       <c r="X102" s="2" t="n">
-        <v>45923.62013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y102" t="b">
         <v>0</v>
@@ -9869,7 +9861,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM BOVINOCULTURA</t>
+          <t>ATENDIMENTOS REALIZADOS EM COMERCIALIZAÇÃO E GESTÃO</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -9881,7 +9873,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -9890,25 +9882,25 @@
         <v>44926</v>
       </c>
       <c r="J103" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="M103" t="b">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O103" t="b">
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="Q103" t="b">
         <v>0</v>
@@ -9936,7 +9928,7 @@
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
       <c r="X103" s="2" t="n">
-        <v>45923.62013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y103" t="b">
         <v>0</v>
@@ -9961,7 +9953,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM COMERCIALIZAÇÃO E GESTÃO</t>
+          <t>ATENDIMENTOS REALIZADOS EM CRIAÇÕES</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -9973,7 +9965,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>300000</v>
+        <v>110000</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -9982,25 +9974,25 @@
         <v>44926</v>
       </c>
       <c r="J104" t="n">
-        <v>300000</v>
+        <v>110000</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>300000</v>
+        <v>110000</v>
       </c>
       <c r="M104" t="b">
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>300000</v>
+        <v>110000</v>
       </c>
       <c r="O104" t="b">
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>300000</v>
+        <v>110000</v>
       </c>
       <c r="Q104" t="b">
         <v>0</v>
@@ -10028,7 +10020,7 @@
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
       <c r="X104" s="2" t="n">
-        <v>45923.62013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y104" t="b">
         <v>0</v>
@@ -10053,7 +10045,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM CRIAÇÕES</t>
+          <t>ATENDIMENTOS REALIZADOS EM CULTURAS</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -10065,7 +10057,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -10074,25 +10066,25 @@
         <v>44926</v>
       </c>
       <c r="J105" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="M105" t="b">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="O105" t="b">
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="Q105" t="b">
         <v>0</v>
@@ -10120,7 +10112,7 @@
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
       <c r="X105" s="2" t="n">
-        <v>45923.62013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y105" t="b">
         <v>0</v>
@@ -10145,7 +10137,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM CULTURAS</t>
+          <t>ATENDIMENTOS REALIZADOS EM HORTALIÇAS E FRUTAS</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -10157,7 +10149,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>170000</v>
+        <v>300000</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -10166,25 +10158,25 @@
         <v>44926</v>
       </c>
       <c r="J106" t="n">
-        <v>170000</v>
+        <v>300000</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>170000</v>
+        <v>300000</v>
       </c>
       <c r="M106" t="b">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>170000</v>
+        <v>300000</v>
       </c>
       <c r="O106" t="b">
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>170000</v>
+        <v>300000</v>
       </c>
       <c r="Q106" t="b">
         <v>0</v>
@@ -10212,7 +10204,7 @@
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
       <c r="X106" s="2" t="n">
-        <v>45923.62013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y106" t="b">
         <v>0</v>
@@ -10237,7 +10229,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM HORTALIÇAS E FRUTAS</t>
+          <t>ATENDIMENTOS REALIZADOS EM INCLUSÃO PRODUTIVA</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -10249,7 +10241,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>300000</v>
+        <v>480000</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -10258,25 +10250,25 @@
         <v>44926</v>
       </c>
       <c r="J107" t="n">
-        <v>300000</v>
+        <v>480000</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>300000</v>
+        <v>480000</v>
       </c>
       <c r="M107" t="b">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>300000</v>
+        <v>480000</v>
       </c>
       <c r="O107" t="b">
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>300000</v>
+        <v>480000</v>
       </c>
       <c r="Q107" t="b">
         <v>0</v>
@@ -10304,7 +10296,7 @@
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
       <c r="X107" s="2" t="n">
-        <v>45923.62013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y107" t="b">
         <v>0</v>
@@ -10329,7 +10321,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM INCLUSÃO PRODUTIVA</t>
+          <t>ATENDIMENTOS REALIZADOS EM SEGURANÇA HÍDRICA E SUSTENTABILIDADE AMBIENTAL</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -10341,7 +10333,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -10350,25 +10342,25 @@
         <v>44926</v>
       </c>
       <c r="J108" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
       <c r="M108" t="b">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
       <c r="O108" t="b">
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
       <c r="Q108" t="b">
         <v>0</v>
@@ -10396,7 +10388,7 @@
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr"/>
       <c r="X108" s="2" t="n">
-        <v>45923.62013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y108" t="b">
         <v>0</v>
@@ -10421,7 +10413,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM SEGURANÇA HÍDRICA E SUSTENTABILIDADE AMBIENTAL</t>
+          <t>ATENDIMENTOS REALIZADOS EM AGROECOLOGIA</t>
         </is>
       </c>
       <c r="E109" t="b">
@@ -10433,7 +10425,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>240000</v>
+        <v>70000</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -10442,25 +10434,25 @@
         <v>44926</v>
       </c>
       <c r="J109" t="n">
-        <v>240000</v>
+        <v>70000</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>240000</v>
+        <v>70000</v>
       </c>
       <c r="M109" t="b">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>240000</v>
+        <v>70000</v>
       </c>
       <c r="O109" t="b">
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>240000</v>
+        <v>70000</v>
       </c>
       <c r="Q109" t="b">
         <v>0</v>
@@ -10488,7 +10480,7 @@
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
       <c r="X109" s="2" t="n">
-        <v>45923.62013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y109" t="b">
         <v>0</v>
@@ -10513,7 +10505,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ATENDIMENTOS REALIZADOS EM AGROECOLOGIA</t>
+          <t>CLIENTES ASSISTIDOS</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -10521,38 +10513,38 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Nº de Atendimentos Realizados</t>
+          <t>ASSISTÊNCIAS PRESTADAS</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>44926</v>
+        <v>44917</v>
       </c>
       <c r="J110" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="M110" t="b">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="O110" t="b">
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="Q110" t="b">
         <v>0</v>
@@ -10574,13 +10566,13 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA. VALOR ABSOLUTO.</t>
+          <t>NÃO SE APLICA. VALOR ABSOLUTO</t>
         </is>
       </c>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
       <c r="X110" s="2" t="n">
-        <v>45923.62013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y110" t="b">
         <v>0</v>
@@ -10605,11 +10597,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>PESQUISA/ATIVIDADE REALIZADA</t>
+          <t>DISCENTES FORMADOS E CAPACITADOS</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -10622,30 +10614,32 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>5</v>
+        <v>1955</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>5</v>
+        <v>1895</v>
       </c>
       <c r="M111" t="b">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>5</v>
+        <v>1918</v>
       </c>
       <c r="O111" t="b">
         <v>0</v>
       </c>
-      <c r="P111" t="inlineStr"/>
+      <c r="P111" t="n">
+        <v>1918</v>
+      </c>
       <c r="Q111" t="b">
         <v>0</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>FJP/ESCOLA DE GOVERNO/GERENCIA DE ENSINO E PESQUISA</t>
+          <t>ESCOLA DE GOVERNO PROFESSOR PAULO NEVES DE CARVALHO</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -10660,16 +10654,20 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>SOMA DO NÚMERO DE PESQUISAS, ESTUDOS E ATIVIDADES REALIZADAS NO AMBITO DOS GRUPOS DE PESQUISA.</t>
+          <t>NÚMERO DE ALUNOS/DISCENTES MATRICULADOS/ATENDIDOS NOS CURSOS DA ESCOLA DE GOVERNO - GRADUAÇÃO, ESPECIALIZAÇÃO, MESTRADO, FORMAÇÃO EXECUTIVA E CONTINUADA - QUE EFETIVAMENTE CONCLUEM OS CURSOS.</t>
         </is>
       </c>
       <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>QUANTO À INEXISTÊNCIA DOS ÍNDICES DE REFERÊNCIA, OS MESMOS ESTÃO EM APURAÇÃO. TRATAM-SE DE INDICADORES NOVOS E NÃO CONSEGUIMOS APURAR O "PARA TRÁS" A TEMPO.</t>
+        </is>
+      </c>
       <c r="X111" s="2" t="n">
-        <v>45923.45763888889</v>
+        <v>45933.42013888889</v>
       </c>
       <c r="Y111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
@@ -10691,7 +10689,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>DISCENTES FORMADOS E CAPACITADOS</t>
+          <t>DESEMPENHO DOS DISCENTES DA GRADUAÇÃO NO ENADE - EXAME NACIONAL DE DESEMPENHO DOS ESTUDANTES</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -10699,41 +10697,45 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>número absoluto</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
+          <t>Nota</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>5</v>
+      </c>
       <c r="H112" t="b">
-        <v>1</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="J112" t="n">
-        <v>1955</v>
+        <v>5</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>1895</v>
+        <v>5</v>
       </c>
       <c r="M112" t="b">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>1918</v>
+        <v>5</v>
       </c>
       <c r="O112" t="b">
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>1918</v>
+        <v>5</v>
       </c>
       <c r="Q112" t="b">
         <v>0</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>ESCOLA DE GOVERNO PROFESSOR PAULO NEVES DE CARVALHO</t>
+          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -10743,22 +10745,18 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>NÚMERO DE ALUNOS/DISCENTES MATRICULADOS/ATENDIDOS NOS CURSOS DA ESCOLA DE GOVERNO - GRADUAÇÃO, ESPECIALIZAÇÃO, MESTRADO, FORMAÇÃO EXECUTIVA E CONTINUADA - QUE EFETIVAMENTE CONCLUEM OS CURSOS.</t>
+          <t>O ENADE, OU EXAME NACIONAL DE DESEMPENHO DOS ESTUDANTES, É UMA AVALIAÇÃO DO MINISTÉRIO DA EDUCAÇÃO (MEC) QUE VISA MEDIR O DESEMPENHO DOS ALUNOS CONCLUINTES DE CURSOS DE GRADUAÇÃO EM RELAÇÃO AOS CONTEÚDOS PROGRAMÁTICOS PREVISTOS NAS DIRETRIZES CURRICULARES, BEM COMO O DESENVOLVIMENTO DE COMPETÊNCIAS E HABILIDADES. O EXAME SERVE COMO UM INDICADOR DA QUALIDADE DO ENSINO SUPERIOR NO BRASIL, AUXILIANDO O MEC NA FORMULAÇÃO DE POLÍTICAS PÚBLICAS NA ÁREA DA EDUCAÇÃO E AVALIANDO A QUALIDADE DAS INSTITUIÇÕES DE ENSINO. FÓRMULA DE CÁLCULO COMPLETA DISPONÍVEL EM: HTTPS://WWW.GOV.BR/INEP/PT-BR/AREAS-DE-ATUACAO/AVALIACAO-E-EXAMES-EDUCACIONAIS/ENADE</t>
         </is>
       </c>
       <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>QUANTO À INEXISTÊNCIA DOS ÍNDICES DE REFERÊNCIA, OS MESMOS ESTÃO EM APURAÇÃO. TRATAM-SE DE INDICADORES NOVOS E NÃO CONSEGUIMOS APURAR O "PARA TRÁS" A TEMPO.</t>
-        </is>
-      </c>
+      <c r="W112" t="inlineStr"/>
       <c r="X112" s="2" t="n">
-        <v>45923.45763888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y112" t="b">
         <v>1</v>
@@ -10783,7 +10781,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ARTIGOS ACADÊMICOS ACEITOS OU PUBLICADOS EM REVISTAS ESPECIALIZADAS PELOS DOSCENTES DO MESTRADO</t>
+          <t>GRAU DE SATISFAÇÃO DOS ESTUDANTES (NPS) NOS CURSOS DE FORMAÇÃO EXECUTIVA E CONTINUADA</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -10791,7 +10789,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>número absoluto</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -10800,25 +10798,25 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="M113" t="b">
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="O113" t="b">
         <v>0</v>
       </c>
       <c r="P113" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="Q113" t="b">
         <v>0</v>
@@ -10835,12 +10833,12 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>NÚMERO DE ARTIGOS ACEITOS OU PUBLICADOS POR DOCENTES DO PROGRAMA DE MESTRADO EM ADMINISTRAÇÃO PÚBLICA EM REVISTAS ESPECIALIZADAS. EM CASO DE COAUTORIA ENTRE INTEGRANTES DO CORPO DOCENTE, O ARTIGO PODERÁ SER CONSIDERADO NO MÁXIMO DUAS VEZES PARA O CÁLCULO DO INDICADOR, SEGUINDO OS CRITÉRIOS ESTABELECIDOS PELA COORDENAÇÃO DE APERFEIÇOAMENTO DE PESSOAL DE NÍVEL SUPERIOR (CAPES), NA FICHA DE AVALIAÇÃO DA ÁREA DE ADMINISTRAÇÃO PÚBLICA E DE EMPRESAS, CIÊNCIAS CONTÁBEIS E TURISMO.</t>
+          <t>MÉDIA DO GRAU DE SATISFAÇÃO DOS ALUNOS DOS CURSOS DE FORMAÇÃO CONTINUADA E EXECUTIVA DA ESCOLA DE GOVERNO. SERÁ MEDIDO POR MEIO DO NPS (NET PROMOTER SOCORE), MÉTRICA QUE MEDE A SATISFAÇÃO DOS ALUNOS, INDICANDO A PROBABILIDADE DE RECOMENDAREM O CURSO A OUTRAS PESSOAS. É UMA FERRAMENTA USADA PARA AVALIAR A EXPERIÊNCIA DO ALUNO E IDENTIFICAR ÁREAS DE MELHORIA. O ÍNDICE VARIA ENTRE -100% E 100%. UTILIZA-SE A SEGUINTE ESCALA PARA MENSURAR O RESULTADO OBTIDO:ENTRE 75% E 100%: EXCELENTEENTRE 50% E 74%: MUITO BOMENTRE 0% E 49%: RAZOÁVELENTRE -100% E -1%: RUIM</t>
         </is>
       </c>
       <c r="V113" t="inlineStr"/>
@@ -10850,7 +10848,7 @@
         </is>
       </c>
       <c r="X113" s="2" t="n">
-        <v>45923.45763888889</v>
+        <v>45933.42083333333</v>
       </c>
       <c r="Y113" t="b">
         <v>1</v>
@@ -10875,7 +10873,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>DESEMPENHO DOS DISCENTES DA GRADUAÇÃO NO ENADE - EXAME NACIONAL DE DESEMPENHO DOS ESTUDANTES</t>
+          <t>ARTIGOS ACADÊMICOS ACEITOS OU PUBLICADOS EM REVISTAS ESPECIALIZADAS PELOS DOSCENTES DO MESTRADO</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -10883,45 +10881,41 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Nota</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>5</v>
-      </c>
+          <t>número absoluto</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" s="2" t="n">
-        <v>44926</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M114" t="b">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O114" t="b">
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q114" t="b">
         <v>0</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
+          <t>ESCOLA DE GOVERNO PROFESSOR PAULO NEVES DE CARVALHO</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -10936,13 +10930,17 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>O ENADE, OU EXAME NACIONAL DE DESEMPENHO DOS ESTUDANTES, É UMA AVALIAÇÃO DO MINISTÉRIO DA EDUCAÇÃO (MEC) QUE VISA MEDIR O DESEMPENHO DOS ALUNOS CONCLUINTES DE CURSOS DE GRADUAÇÃO EM RELAÇÃO AOS CONTEÚDOS PROGRAMÁTICOS PREVISTOS NAS DIRETRIZES CURRICULARES, BEM COMO O DESENVOLVIMENTO DE COMPETÊNCIAS E HABILIDADES. O EXAME SERVE COMO UM INDICADOR DA QUALIDADE DO ENSINO SUPERIOR NO BRASIL, AUXILIANDO O MEC NA FORMULAÇÃO DE POLÍTICAS PÚBLICAS NA ÁREA DA EDUCAÇÃO E AVALIANDO A QUALIDADE DAS INSTITUIÇÕES DE ENSINO. FÓRMULA DE CÁLCULO COMPLETA DISPONÍVEL EM: HTTPS://WWW.GOV.BR/INEP/PT-BR/AREAS-DE-ATUACAO/AVALIACAO-E-EXAMES-EDUCACIONAIS/ENADE</t>
+          <t>NÚMERO DE ARTIGOS ACEITOS OU PUBLICADOS POR DOCENTES DO PROGRAMA DE MESTRADO EM ADMINISTRAÇÃO PÚBLICA EM REVISTAS ESPECIALIZADAS. EM CASO DE COAUTORIA ENTRE INTEGRANTES DO CORPO DOCENTE, O ARTIGO PODERÁ SER CONSIDERADO NO MÁXIMO DUAS VEZES PARA O CÁLCULO DO INDICADOR, SEGUINDO OS CRITÉRIOS ESTABELECIDOS PELA COORDENAÇÃO DE APERFEIÇOAMENTO DE PESSOAL DE NÍVEL SUPERIOR (CAPES), NA FICHA DE AVALIAÇÃO DA ÁREA DE ADMINISTRAÇÃO PÚBLICA E DE EMPRESAS, CIÊNCIAS CONTÁBEIS E TURISMO.</t>
         </is>
       </c>
       <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>QUANTO À INEXISTÊNCIA DOS ÍNDICES DE REFERÊNCIA, OS MESMOS ESTÃO EM APURAÇÃO. TRATAM-SE DE INDICADORES NOVOS E NÃO CONSEGUIMOS APURAR O "PARA TRÁS" A TEMPO.</t>
+        </is>
+      </c>
       <c r="X114" s="2" t="n">
-        <v>45923.45763888889</v>
+        <v>45933.43125</v>
       </c>
       <c r="Y114" t="b">
         <v>1</v>
@@ -10967,15 +10965,15 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>GRAU DE SATISFAÇÃO DOS ESTUDANTES (NPS) NOS CURSOS DE FORMAÇÃO EXECUTIVA E CONTINUADA</t>
+          <t>PESQUISA/ATIVIDADE REALIZADA</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>número absoluto</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -10984,32 +10982,30 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="M115" t="b">
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="O115" t="b">
         <v>0</v>
       </c>
-      <c r="P115" t="n">
-        <v>75</v>
-      </c>
+      <c r="P115" t="inlineStr"/>
       <c r="Q115" t="b">
         <v>0</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>ESCOLA DE GOVERNO PROFESSOR PAULO NEVES DE CARVALHO</t>
+          <t>FJP/ESCOLA DE GOVERNO/GERENCIA DE ENSINO E PESQUISA</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -11024,20 +11020,16 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>MÉDIA DO GRAU DE SATISFAÇÃO DOS ALUNOS DOS CURSOS DE FORMAÇÃO CONTINUADA E EXECUTIVA DA ESCOLA DE GOVERNO. SERÁ MEDIDO POR MEIO DO NPS (NET PROMOTER SOCORE), MÉTRICA QUE MEDE A SATISFAÇÃO DOS ALUNOS, INDICANDO A PROBABILIDADE DE RECOMENDAREM O CURSO A OUTRAS PESSOAS. É UMA FERRAMENTA USADA PARA AVALIAR A EXPERIÊNCIA DO ALUNO E IDENTIFICAR ÁREAS DE MELHORIA. O ÍNDICE VARIA ENTRE -100% E 100%. UTILIZA-SE A SEGUINTE ESCALA PARA MENSURAR O RESULTADO OBTIDO:ENTRE 75% E 100%: EXCELENTEENTRE 50% E 74%: MUITO BOMENTRE 0% E 49%: RAZOÁVELENTRE -100% E -1%: RUIM</t>
+          <t>SOMA DO NÚMERO DE PESQUISAS, ESTUDOS E ATIVIDADES REALIZADAS NO AMBITO DOS GRUPOS DE PESQUISA.</t>
         </is>
       </c>
       <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>QUANTO À INEXISTÊNCIA DOS ÍNDICES DE REFERÊNCIA, OS MESMOS ESTÃO EM APURAÇÃO. TRATAM-SE DE INDICADORES NOVOS E NÃO CONSEGUIMOS APURAR O "PARA TRÁS" A TEMPO.</t>
-        </is>
-      </c>
+      <c r="W115" t="inlineStr"/>
       <c r="X115" s="2" t="n">
         <v>45923.45763888889</v>
       </c>
       <c r="Y115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z115" t="inlineStr">
         <is>
@@ -11211,7 +11203,7 @@
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
       <c r="X117" s="2" t="n">
-        <v>45887.57291666666</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y117" t="b">
         <v>0</v>
@@ -11303,7 +11295,7 @@
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
       <c r="X118" s="2" t="n">
-        <v>45887.57708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y118" t="b">
         <v>0</v>
@@ -11483,7 +11475,7 @@
         </is>
       </c>
       <c r="X120" s="2" t="n">
-        <v>45925.46458333333</v>
+        <v>45933.44166666667</v>
       </c>
       <c r="Y120" t="b">
         <v>0</v>
@@ -11575,7 +11567,7 @@
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
       <c r="X121" s="2" t="n">
-        <v>45896.46805555555</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y121" t="b">
         <v>0</v>
@@ -11663,7 +11655,7 @@
         </is>
       </c>
       <c r="X122" s="2" t="n">
-        <v>45915.43472222222</v>
+        <v>45933.44236111111</v>
       </c>
       <c r="Y122" t="b">
         <v>1</v>
@@ -11688,7 +11680,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NÚMERO DE MUNICÍPIOS BENEFICIADOS PELO ICMS PATRIMÔNIO CULTURAL</t>
+          <t>PROJETOS ANUALMENTE APROVADOS PELO FEC E LEIC</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -11696,11 +11688,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Município Beneficiado</t>
+          <t>Projeto Aprovado</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>847</v>
+        <v>1326</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -11709,32 +11701,32 @@
         <v>45657</v>
       </c>
       <c r="J123" t="n">
-        <v>840</v>
+        <v>1381</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>840</v>
+        <v>1414</v>
       </c>
       <c r="M123" t="b">
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>840</v>
+        <v>1443</v>
       </c>
       <c r="O123" t="b">
         <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>840</v>
+        <v>1467</v>
       </c>
       <c r="Q123" t="b">
         <v>0</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>INSTITUTO ESTADUAL DO PATRIMÔNIO HISTÓRICO E ARTÍSTICO - IEPHA</t>
+          <t>SECRETARIA DE ESTADO DE CULTURA E TURISMO - SECULT, FAOP, FCS, IEPHA, EMC</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -11749,13 +11741,13 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>NÚMERO TOTAL DE MUNICÍPIOS PONTUADOS. APÓS ANÁLISE DOS PARÂMETROS E CRITÉRIOS ESTABELECIDOS PARA DISTRIBUIÇÃO DO ICMS PATRIMÔNIO CULTURAL, O MUNICÍPIO É PONTUADO E RECEBERÁ O REPASSE DA VERBA NO EXERCÍCIO POSTERIOR.</t>
+          <t>SOMATÓRIO DE PROJETOS APROVADOS</t>
         </is>
       </c>
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
       <c r="X123" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y123" t="b">
         <v>0</v>
@@ -11780,7 +11772,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PROJETOS ANUALMENTE APROVADOS PELO FEC E LEIC</t>
+          <t>NÚMERO DE MUNICÍPIOS BENEFICIADOS PELO ICMS PATRIMÔNIO CULTURAL</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -11788,11 +11780,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Projeto Aprovado</t>
+          <t>Município Beneficiado</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1326</v>
+        <v>847</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -11801,32 +11793,32 @@
         <v>45657</v>
       </c>
       <c r="J124" t="n">
-        <v>1381</v>
+        <v>840</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>1414</v>
+        <v>840</v>
       </c>
       <c r="M124" t="b">
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>1443</v>
+        <v>840</v>
       </c>
       <c r="O124" t="b">
         <v>0</v>
       </c>
       <c r="P124" t="n">
-        <v>1467</v>
+        <v>840</v>
       </c>
       <c r="Q124" t="b">
         <v>0</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE CULTURA E TURISMO - SECULT, FAOP, FCS, IEPHA, EMC</t>
+          <t>INSTITUTO ESTADUAL DO PATRIMÔNIO HISTÓRICO E ARTÍSTICO - IEPHA</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -11841,13 +11833,13 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>SOMATÓRIO DE PROJETOS APROVADOS</t>
+          <t>NÚMERO TOTAL DE MUNICÍPIOS PONTUADOS. APÓS ANÁLISE DOS PARÂMETROS E CRITÉRIOS ESTABELECIDOS PARA DISTRIBUIÇÃO DO ICMS PATRIMÔNIO CULTURAL, O MUNICÍPIO É PONTUADO E RECEBERÁ O REPASSE DA VERBA NO EXERCÍCIO POSTERIOR.</t>
         </is>
       </c>
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
       <c r="X124" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y124" t="b">
         <v>0</v>
@@ -11872,7 +11864,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>PÚBLICO DO CIRCUITO LIBERDADE</t>
+          <t>NÚMERO DE ATIVIDADES CULTURAIS DA ORQUESTRA FILARMÔNICA, ORQUESTRA SINFÔNICA, CORAL LÍRICO DA CIA DE DANÇA, DO CINE HUMBERTO MAURO, ARTES VISUAIS</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -11880,45 +11872,45 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>visitante</t>
+          <t>Atividade</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5154019</v>
+        <v>6490</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="J125" t="n">
-        <v>1725441</v>
+        <v>4674</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>2711407</v>
+        <v>4725</v>
       </c>
       <c r="M125" t="b">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>3253688</v>
+        <v>4776</v>
       </c>
       <c r="O125" t="b">
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>3579056</v>
+        <v>4827</v>
       </c>
       <c r="Q125" t="b">
         <v>0</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>FUNDAÇÃO CLÓVIS SALGADO - FCS</t>
+          <t>FUNDAÇÃO CLÓVIS SALGADO E SECULT (COMISSÃO SUPERVISORA DO CONTRATO DE GESTÃO DA ORQUESTRA FILARMÔNICA)</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
@@ -11928,21 +11920,21 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>SOMA DO NÚMERO DE VISITANTES PRESENCIAIS E DO NÚMERO DE PARTICIPANTES DAS AÇÕES REALIZADAS NO TERRITÓRIO DEFINIDO PELO § 1º, ART. 2º DECRETO Nº 48.074/2020, DESDE QUE VINCULADAS AOS EQUIPAMENTOS CULTURAIS DO CIRCUITO LIBERDADE.</t>
+          <t>SOMATÓRIO DAS ATIVIDADES DESENVOLVIDAS PELA ORQUESTRA FILARMÔNICA, ORQUESTRA SINFÔNICA, CORAL LÍRICO, CIA DE DANÇA, CINE HUMBERTO MAURO, ARTES VISUAIS</t>
         </is>
       </c>
       <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr"/>
       <c r="X125" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
@@ -11964,7 +11956,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>NÚMERO DE ATIVIDADES CULTURAIS DA ORQUESTRA FILARMÔNICA, ORQUESTRA SINFÔNICA, CORAL LÍRICO DA CIA DE DANÇA, DO CINE HUMBERTO MAURO, ARTES VISUAIS</t>
+          <t>PÚBLICO DO CIRCUITO LIBERDADE</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -11972,45 +11964,45 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Atividade</t>
+          <t>visitante</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6490</v>
+        <v>5154019</v>
       </c>
       <c r="H126" t="b">
         <v>0</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>45657</v>
+        <v>45291</v>
       </c>
       <c r="J126" t="n">
-        <v>4674</v>
+        <v>1725441</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>4725</v>
+        <v>2711407</v>
       </c>
       <c r="M126" t="b">
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>4776</v>
+        <v>3253688</v>
       </c>
       <c r="O126" t="b">
         <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>4827</v>
+        <v>3579056</v>
       </c>
       <c r="Q126" t="b">
         <v>0</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>FUNDAÇÃO CLÓVIS SALGADO E SECULT (COMISSÃO SUPERVISORA DO CONTRATO DE GESTÃO DA ORQUESTRA FILARMÔNICA)</t>
+          <t>FUNDAÇÃO CLÓVIS SALGADO - FCS</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -12020,21 +12012,21 @@
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>SOMATÓRIO DAS ATIVIDADES DESENVOLVIDAS PELA ORQUESTRA FILARMÔNICA, ORQUESTRA SINFÔNICA, CORAL LÍRICO, CIA DE DANÇA, CINE HUMBERTO MAURO, ARTES VISUAIS</t>
+          <t>SOMA DO NÚMERO DE VISITANTES PRESENCIAIS E DO NÚMERO DE PARTICIPANTES DAS AÇÕES REALIZADAS NO TERRITÓRIO DEFINIDO PELO § 1º, ART. 2º DECRETO Nº 48.074/2020, DESDE QUE VINCULADAS AOS EQUIPAMENTOS CULTURAIS DO CIRCUITO LIBERDADE.</t>
         </is>
       </c>
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr"/>
       <c r="X126" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z126" t="inlineStr">
         <is>
@@ -12123,7 +12115,7 @@
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
       <c r="X127" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y127" t="b">
         <v>0</v>
@@ -12215,7 +12207,7 @@
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
       <c r="X128" s="2" t="n">
-        <v>45896.47013888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y128" t="b">
         <v>0</v>
@@ -12307,7 +12299,7 @@
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr"/>
       <c r="X129" s="2" t="n">
-        <v>45923.43125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y129" t="b">
         <v>0</v>
@@ -12399,7 +12391,7 @@
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
       <c r="X130" s="2" t="n">
-        <v>45923.43125</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y130" t="b">
         <v>0</v>
@@ -12491,7 +12483,7 @@
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" s="2" t="n">
-        <v>45917.52152777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y131" t="b">
         <v>0</v>
@@ -12583,7 +12575,7 @@
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
       <c r="X132" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y132" t="b">
         <v>0</v>
@@ -12675,7 +12667,7 @@
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr"/>
       <c r="X133" s="2" t="n">
-        <v>45923.43194444444</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y133" t="b">
         <v>0</v>
@@ -12767,7 +12759,7 @@
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr"/>
       <c r="X134" s="2" t="n">
-        <v>45897.77361111111</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y134" t="b">
         <v>0</v>
@@ -12859,7 +12851,7 @@
       <c r="V135" t="inlineStr"/>
       <c r="W135" t="inlineStr"/>
       <c r="X135" s="2" t="n">
-        <v>45923.43194444444</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y135" t="b">
         <v>0</v>
@@ -12951,7 +12943,7 @@
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
       <c r="X136" s="2" t="n">
-        <v>45901.63819444444</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y136" t="b">
         <v>0</v>
@@ -13043,7 +13035,7 @@
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
       <c r="X137" s="2" t="n">
-        <v>45891.44791666666</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y137" t="b">
         <v>0</v>
@@ -13068,45 +13060,47 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>MÉDIA TRIMESTRAL DE AÇÕES ESTRATÉGICAS JUNTO ÀS UNIDADES SOCIOEDUCATIVAS</t>
+          <t>MÉDIA MENSAL DE PESSOAS ATENDIDAS PELO PROGRAMA MEDIAÇÃO DE CONFLITOS</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>pessoas atendidas/mês</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>333</v>
+        <v>3010</v>
       </c>
       <c r="H138" t="b">
         <v>0</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="J138" t="n">
-        <v>162</v>
+        <v>3500</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>162</v>
+        <v>3750</v>
       </c>
       <c r="M138" t="b">
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>162</v>
+        <v>4000</v>
       </c>
       <c r="O138" t="b">
         <v>0</v>
       </c>
-      <c r="P138" t="inlineStr"/>
+      <c r="P138" t="n">
+        <v>4250</v>
+      </c>
       <c r="Q138" t="b">
         <v>0</v>
       </c>
@@ -13117,7 +13111,7 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>Trimestral</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
@@ -13127,13 +13121,13 @@
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>SOMA DO NÚMERO DE AÇÕES ESTRATÉGICAS JUNTO ÀS UNIDADES SOCIOEDUCATIVAS POR TRIMESTRE / Nº DE TRIMESTRES CONSIDERADOS</t>
+          <t>(SOMATÓRIO DO NÚMERO ABSOLUTO DE PESSOAS ATENDIDAS PELO PROGRAMA EM CADA MÊS / NÚMERO DE MESES DO ANO)</t>
         </is>
       </c>
       <c r="V138" t="inlineStr"/>
       <c r="W138" t="inlineStr"/>
       <c r="X138" s="2" t="n">
-        <v>45891.44791666666</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y138" t="b">
         <v>0</v>
@@ -13225,7 +13219,7 @@
       <c r="V139" t="inlineStr"/>
       <c r="W139" t="inlineStr"/>
       <c r="X139" s="2" t="n">
-        <v>45891.44791666666</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y139" t="b">
         <v>0</v>
@@ -13250,47 +13244,45 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>MÉDIA MENSAL DE PESSOAS ATENDIDAS PELO PROGRAMA MEDIAÇÃO DE CONFLITOS</t>
+          <t>MÉDIA TRIMESTRAL DE AÇÕES ESTRATÉGICAS JUNTO ÀS UNIDADES SOCIOEDUCATIVAS</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>pessoas atendidas/mês</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3010</v>
+        <v>333</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>45838</v>
+        <v>45473</v>
       </c>
       <c r="J140" t="n">
-        <v>3500</v>
+        <v>162</v>
       </c>
       <c r="K140" t="b">
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>3750</v>
+        <v>162</v>
       </c>
       <c r="M140" t="b">
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>4000</v>
+        <v>162</v>
       </c>
       <c r="O140" t="b">
         <v>0</v>
       </c>
-      <c r="P140" t="n">
-        <v>4250</v>
-      </c>
+      <c r="P140" t="inlineStr"/>
       <c r="Q140" t="b">
         <v>0</v>
       </c>
@@ -13301,7 +13293,7 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
@@ -13311,7 +13303,7 @@
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>(SOMATÓRIO DO NÚMERO ABSOLUTO DE PESSOAS ATENDIDAS PELO PROGRAMA EM CADA MÊS / NÚMERO DE MESES DO ANO)</t>
+          <t>SOMA DO NÚMERO DE AÇÕES ESTRATÉGICAS JUNTO ÀS UNIDADES SOCIOEDUCATIVAS POR TRIMESTRE / Nº DE TRIMESTRES CONSIDERADOS</t>
         </is>
       </c>
       <c r="V140" t="inlineStr"/>
@@ -13409,7 +13401,7 @@
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
       <c r="X141" s="2" t="n">
-        <v>45891.44791666666</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y141" t="b">
         <v>0</v>
@@ -13501,7 +13493,7 @@
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="inlineStr"/>
       <c r="X142" s="2" t="n">
-        <v>45891.44791666666</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y142" t="b">
         <v>0</v>
@@ -13593,7 +13585,7 @@
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
       <c r="X143" s="2" t="n">
-        <v>45891.61805555555</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y143" t="b">
         <v>0</v>
@@ -13685,7 +13677,7 @@
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
       <c r="X144" s="2" t="n">
-        <v>45891.61805555555</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y144" t="b">
         <v>0</v>
@@ -13777,7 +13769,7 @@
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" s="2" t="n">
-        <v>45923.42569444444</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y145" t="b">
         <v>0</v>
@@ -13869,7 +13861,7 @@
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr"/>
       <c r="X146" s="2" t="n">
-        <v>45923.42638888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y146" t="b">
         <v>0</v>
@@ -13961,7 +13953,7 @@
       <c r="V147" t="inlineStr"/>
       <c r="W147" t="inlineStr"/>
       <c r="X147" s="2" t="n">
-        <v>45923.42638888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y147" t="b">
         <v>0</v>
@@ -14053,7 +14045,7 @@
       <c r="V148" t="inlineStr"/>
       <c r="W148" t="inlineStr"/>
       <c r="X148" s="2" t="n">
-        <v>45923.42638888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y148" t="b">
         <v>0</v>
@@ -14145,7 +14137,7 @@
       <c r="V149" t="inlineStr"/>
       <c r="W149" t="inlineStr"/>
       <c r="X149" s="2" t="n">
-        <v>45923.42638888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y149" t="b">
         <v>0</v>
@@ -14237,7 +14229,7 @@
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
       <c r="X150" s="2" t="n">
-        <v>45923.42638888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y150" t="b">
         <v>0</v>
@@ -14262,7 +14254,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>PARTICIPAÇÃO DE MINAS GERAIS NO PIB BRASILEIRO</t>
+          <t>SALDO DE EMPREGOS FORMAIS</t>
         </is>
       </c>
       <c r="E151" t="b">
@@ -14270,11 +14262,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>UNIDADE</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>9</v>
+        <v>139436</v>
       </c>
       <c r="H151" t="b">
         <v>0</v>
@@ -14283,32 +14275,32 @@
         <v>45657</v>
       </c>
       <c r="J151" t="n">
-        <v>9</v>
+        <v>50000</v>
       </c>
       <c r="K151" t="b">
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>9.1</v>
+        <v>50000</v>
       </c>
       <c r="M151" t="b">
         <v>0</v>
       </c>
       <c r="N151" t="n">
-        <v>9.199999999999999</v>
+        <v>50000</v>
       </c>
       <c r="O151" t="b">
         <v>0</v>
       </c>
       <c r="P151" t="n">
-        <v>9.25</v>
+        <v>50000</v>
       </c>
       <c r="Q151" t="b">
         <v>0</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>FUNDAÇÃO JOÃO PINHEIRO - FJP</t>
+          <t>CAGED/MINISTÉRIO DO TRABALHO E PREVIDÊNCIA</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -14323,13 +14315,13 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>PIB DE MINAS GERAIS DIVIDIDO PELO PIB DO BRASIL</t>
+          <t>SOMA DO SALDO DE EMPREGOS FORMAIS GERADOS POR MÊS NO ANO</t>
         </is>
       </c>
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
       <c r="X151" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y151" t="b">
         <v>0</v>
@@ -14354,7 +14346,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>TAXA DE OCUPAÇÃO</t>
+          <t>PARTICIPAÇÃO DE MINAS GERAIS NO PIB BRASILEIRO</t>
         </is>
       </c>
       <c r="E152" t="b">
@@ -14366,7 +14358,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>94.40000000000001</v>
+        <v>9</v>
       </c>
       <c r="H152" t="b">
         <v>0</v>
@@ -14375,32 +14367,32 @@
         <v>45657</v>
       </c>
       <c r="J152" t="n">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="K152" t="b">
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>95.05</v>
+        <v>9.1</v>
       </c>
       <c r="M152" t="b">
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>95.09999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O152" t="b">
         <v>0</v>
       </c>
       <c r="P152" t="n">
-        <v>95.15000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="Q152" t="b">
         <v>0</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>INSTITUTO BRASILEIRO DE GEOGRAFIA E ESTATÍSTICA - IBGE E SECRETARIA DE DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
+          <t>FUNDAÇÃO JOÃO PINHEIRO - FJP</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -14415,13 +14407,13 @@
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>(Nº DE OCUPADOS / POPULAÇÃO ECONOMICAMENTE ATIVA) X 100</t>
+          <t>PIB DE MINAS GERAIS DIVIDIDO PELO PIB DO BRASIL</t>
         </is>
       </c>
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr"/>
       <c r="X152" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y152" t="b">
         <v>0</v>
@@ -14446,7 +14438,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>TAXA DE CRESCIMENTO DO PIB DE MINAS GERAIS</t>
+          <t>TAXA DE OCUPAÇÃO</t>
         </is>
       </c>
       <c r="E153" t="b">
@@ -14458,7 +14450,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.1</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -14467,32 +14459,32 @@
         <v>45657</v>
       </c>
       <c r="J153" t="n">
-        <v>2.6</v>
+        <v>95</v>
       </c>
       <c r="K153" t="b">
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>2.8</v>
+        <v>95.05</v>
       </c>
       <c r="M153" t="b">
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="O153" t="b">
         <v>0</v>
       </c>
       <c r="P153" t="n">
-        <v>3.1</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="Q153" t="b">
         <v>0</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>INSTITUTO BRASILEIRO DE GEOGRAFIA E ESTATÍSTICA - IBGE / FUNDAÇÃO JOÃO PINHEIRO - FJP</t>
+          <t>INSTITUTO BRASILEIRO DE GEOGRAFIA E ESTATÍSTICA - IBGE E SECRETARIA DE DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -14507,13 +14499,13 @@
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>PERCENTUAL DA TAXA DE CRESCIMENTO DO PIB DE MINAS GERAIS MEDIDO PELA IBGE E FJP</t>
+          <t>(Nº DE OCUPADOS / POPULAÇÃO ECONOMICAMENTE ATIVA) X 100</t>
         </is>
       </c>
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
       <c r="X153" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y153" t="b">
         <v>0</v>
@@ -14538,7 +14530,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>VARIAÇÃO ANUAL DAS EXPORTAÇÕES DE MINAS GERAIS</t>
+          <t>TAXA DE CRESCIMENTO DO PIB DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="E154" t="b">
@@ -14550,7 +14542,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.72</v>
+        <v>3.1</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -14559,32 +14551,32 @@
         <v>45657</v>
       </c>
       <c r="J154" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="K154" t="b">
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="M154" t="b">
         <v>0</v>
       </c>
       <c r="N154" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O154" t="b">
         <v>0</v>
       </c>
       <c r="P154" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q154" t="b">
         <v>0</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>COMEX VIS / MDIC</t>
+          <t>INSTITUTO BRASILEIRO DE GEOGRAFIA E ESTATÍSTICA - IBGE / FUNDAÇÃO JOÃO PINHEIRO - FJP</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -14599,13 +14591,13 @@
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>VALOR DAS EXPORTAÇÕES DE UM ANO DIVIDO PELO VALOR DAS EXPORTAÇÕES DO ANO IMEDIATAMENTE ANTERIOR.</t>
+          <t>PERCENTUAL DA TAXA DE CRESCIMENTO DO PIB DE MINAS GERAIS MEDIDO PELA IBGE E FJP</t>
         </is>
       </c>
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
       <c r="X154" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y154" t="b">
         <v>0</v>
@@ -14630,7 +14622,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>TAXA DE CONVERSÃO DE INVESTIMENTOS ATRAÍDOS</t>
+          <t>VARIAÇÃO ANUAL DAS EXPORTAÇÕES DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="E155" t="b">
@@ -14642,7 +14634,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>60.58</v>
+        <v>4.72</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
@@ -14651,32 +14643,32 @@
         <v>45657</v>
       </c>
       <c r="J155" t="n">
-        <v>60</v>
+        <v>1.5</v>
       </c>
       <c r="K155" t="b">
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="M155" t="b">
         <v>0</v>
       </c>
       <c r="N155" t="n">
-        <v>60</v>
+        <v>2.5</v>
       </c>
       <c r="O155" t="b">
         <v>0</v>
       </c>
       <c r="P155" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="Q155" t="b">
         <v>0</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>AGÊNCIA DE PROMOÇÃO DE INVESTIMENTO E COMÉRCIO EXTERIOR DE MINAS GERAIS (INVEST MINAS)</t>
+          <t>COMEX VIS / MDIC</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -14691,13 +14683,13 @@
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAXA DE CONVERSÃO DE INVESTIMENTOS ATRAÍDOS = (Nº DE PROJETOS DOS ÚLTIMOS CINCO ANOS EM ESTÁGIO  “EM IMPLANTAÇÃO INICIADA” OU “EM OPERAÇÃO” OU “COMPROMISSO CUMPRIDO” OU “CONCLUÍDOS”) / Nº TOTAL DE PROJETOS ATRAÍDOS [DECISÃO FORMALIZADA] NOS ÚLTIMOS 5 ANOS.	</t>
+          <t>VALOR DAS EXPORTAÇÕES DE UM ANO DIVIDO PELO VALOR DAS EXPORTAÇÕES DO ANO IMEDIATAMENTE ANTERIOR.</t>
         </is>
       </c>
       <c r="V155" t="inlineStr"/>
       <c r="W155" t="inlineStr"/>
       <c r="X155" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y155" t="b">
         <v>0</v>
@@ -14722,7 +14714,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>SALDO DE EMPREGOS FORMAIS</t>
+          <t>TAXA DE CONVERSÃO DE INVESTIMENTOS ATRAÍDOS</t>
         </is>
       </c>
       <c r="E156" t="b">
@@ -14730,11 +14722,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>139436</v>
+        <v>60.58</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
@@ -14743,32 +14735,32 @@
         <v>45657</v>
       </c>
       <c r="J156" t="n">
-        <v>50000</v>
+        <v>60</v>
       </c>
       <c r="K156" t="b">
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>50000</v>
+        <v>60</v>
       </c>
       <c r="M156" t="b">
         <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>50000</v>
+        <v>60</v>
       </c>
       <c r="O156" t="b">
         <v>0</v>
       </c>
       <c r="P156" t="n">
-        <v>50000</v>
+        <v>60</v>
       </c>
       <c r="Q156" t="b">
         <v>0</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>CAGED/MINISTÉRIO DO TRABALHO E PREVIDÊNCIA</t>
+          <t>AGÊNCIA DE PROMOÇÃO DE INVESTIMENTO E COMÉRCIO EXTERIOR DE MINAS GERAIS (INVEST MINAS)</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
@@ -14783,13 +14775,13 @@
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>SOMA DO SALDO DE EMPREGOS FORMAIS GERADOS POR MÊS NO ANO</t>
+          <t xml:space="preserve">TAXA DE CONVERSÃO DE INVESTIMENTOS ATRAÍDOS = (Nº DE PROJETOS DOS ÚLTIMOS CINCO ANOS EM ESTÁGIO  “EM IMPLANTAÇÃO INICIADA” OU “EM OPERAÇÃO” OU “COMPROMISSO CUMPRIDO” OU “CONCLUÍDOS”) / Nº TOTAL DE PROJETOS ATRAÍDOS [DECISÃO FORMALIZADA] NOS ÚLTIMOS 5 ANOS.	</t>
         </is>
       </c>
       <c r="V156" t="inlineStr"/>
       <c r="W156" t="inlineStr"/>
       <c r="X156" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y156" t="b">
         <v>0</v>
@@ -14881,7 +14873,7 @@
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>
       <c r="X157" s="2" t="n">
-        <v>45916.56458333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y157" t="b">
         <v>0</v>
@@ -14973,7 +14965,7 @@
       <c r="V158" t="inlineStr"/>
       <c r="W158" t="inlineStr"/>
       <c r="X158" s="2" t="n">
-        <v>45891.50069444445</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y158" t="b">
         <v>0</v>
@@ -15065,7 +15057,7 @@
       <c r="V159" t="inlineStr"/>
       <c r="W159" t="inlineStr"/>
       <c r="X159" s="2" t="n">
-        <v>45891.50069444445</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y159" t="b">
         <v>0</v>
@@ -15157,7 +15149,7 @@
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
       <c r="X160" s="2" t="n">
-        <v>45895.47916666666</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y160" t="b">
         <v>0</v>
@@ -15249,7 +15241,7 @@
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
       <c r="X161" s="2" t="n">
-        <v>45895.47430555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y161" t="b">
         <v>0</v>
@@ -15341,7 +15333,7 @@
       <c r="V162" t="inlineStr"/>
       <c r="W162" t="inlineStr"/>
       <c r="X162" s="2" t="n">
-        <v>45924.51527777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y162" t="b">
         <v>0</v>
@@ -15509,7 +15501,7 @@
       <c r="V164" t="inlineStr"/>
       <c r="W164" t="inlineStr"/>
       <c r="X164" s="2" t="n">
-        <v>45894.73541666667</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y164" t="b">
         <v>0</v>
@@ -15601,7 +15593,7 @@
       <c r="V165" t="inlineStr"/>
       <c r="W165" t="inlineStr"/>
       <c r="X165" s="2" t="n">
-        <v>45916.53541666667</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y165" t="b">
         <v>0</v>
@@ -15693,7 +15685,7 @@
       <c r="V166" t="inlineStr"/>
       <c r="W166" t="inlineStr"/>
       <c r="X166" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y166" t="b">
         <v>0</v>
@@ -15785,7 +15777,7 @@
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
       <c r="X167" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y167" t="b">
         <v>0</v>
@@ -15877,7 +15869,7 @@
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
       <c r="X168" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y168" t="b">
         <v>0</v>
@@ -15969,7 +15961,7 @@
       <c r="V169" t="inlineStr"/>
       <c r="W169" t="inlineStr"/>
       <c r="X169" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y169" t="b">
         <v>0</v>
@@ -16061,7 +16053,7 @@
       <c r="V170" t="inlineStr"/>
       <c r="W170" t="inlineStr"/>
       <c r="X170" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y170" t="b">
         <v>0</v>
@@ -16153,7 +16145,7 @@
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="inlineStr"/>
       <c r="X171" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y171" t="b">
         <v>0</v>
@@ -16245,7 +16237,7 @@
       <c r="V172" t="inlineStr"/>
       <c r="W172" t="inlineStr"/>
       <c r="X172" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y172" t="b">
         <v>0</v>
@@ -16337,7 +16329,7 @@
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr"/>
       <c r="X173" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y173" t="b">
         <v>0</v>
@@ -16429,7 +16421,7 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" s="2" t="n">
-        <v>45891.45138888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y174" t="b">
         <v>0</v>
@@ -16521,7 +16513,7 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" s="2" t="n">
-        <v>45898.63680555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y175" t="b">
         <v>0</v>
@@ -16613,7 +16605,7 @@
       <c r="V176" t="inlineStr"/>
       <c r="W176" t="inlineStr"/>
       <c r="X176" s="2" t="n">
-        <v>45919.65625</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y176" t="b">
         <v>0</v>
@@ -16705,7 +16697,7 @@
       <c r="V177" t="inlineStr"/>
       <c r="W177" t="inlineStr"/>
       <c r="X177" s="2" t="n">
-        <v>45919.65625</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y177" t="b">
         <v>0</v>
@@ -16797,7 +16789,7 @@
       <c r="V178" t="inlineStr"/>
       <c r="W178" t="inlineStr"/>
       <c r="X178" s="2" t="n">
-        <v>45919.65625</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y178" t="b">
         <v>1</v>
@@ -16889,7 +16881,7 @@
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="inlineStr"/>
       <c r="X179" s="2" t="n">
-        <v>45898.63958333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y179" t="b">
         <v>0</v>
@@ -16981,7 +16973,7 @@
       <c r="V180" t="inlineStr"/>
       <c r="W180" t="inlineStr"/>
       <c r="X180" s="2" t="n">
-        <v>45919.65625</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y180" t="b">
         <v>0</v>
@@ -17006,7 +16998,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ÍNDICE DE SOLICITAÇÕES DE TIC RESOLVIDAS NO PRAZO</t>
+          <t>ÍNDICE DE QUALIDADE DOS SERVIÇOS PRESTADOS DE LIMPEZA, E SEUS ASPECTOS TÉCNICOS E DE SEGURANÇA</t>
         </is>
       </c>
       <c r="E181" t="b">
@@ -17014,11 +17006,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Nota média 1/10</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>93.01000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="H181" t="b">
         <v>0</v>
@@ -17027,32 +17019,32 @@
         <v>45657</v>
       </c>
       <c r="J181" t="n">
-        <v>96</v>
+        <v>9.6</v>
       </c>
       <c r="K181" t="b">
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>96.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M181" t="b">
         <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>97</v>
+        <v>9.75</v>
       </c>
       <c r="O181" t="b">
         <v>0</v>
       </c>
       <c r="P181" t="n">
-        <v>97.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q181" t="b">
         <v>0</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>SOLUÇÃO INFORMATIZADA DE ATENDIMENTO (SOLUÇÃO INFORMATIZADA DE ATENDIMENTO ASSYST)</t>
+          <t>SOLUÇÃO INFORMATIZADA DE FISCALIZAÇÃO (FISCWEB/MG)</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
@@ -17067,13 +17059,13 @@
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>(TOTAL DE SOLICITAÇÕES ATENDIDAS NO PRAZO / TOTAL DE SOLICITAÇÕES RECEBIDAS) X 100</t>
+          <t>APLICAÇÃO DE QUESTIONÁRIOS ESPECÍFICOS PARA AVALIAR OS SERVIÇOS PRESTADOS NAS DIFERENTES ÁREAS DA CIDADE ADMINISTRATIVA, CONFORME PREVISTO EM CONTRATO. FÓRMULA: SOMATÓRIO NOTAS OBTIDAS / NÚMERO DE QUESTIONÁRIOS APLICADOS</t>
         </is>
       </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" s="2" t="n">
-        <v>45919.65625</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y181" t="b">
         <v>0</v>
@@ -17098,7 +17090,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ÍNDICE DE QUALIDADE DO SERVIÇO DE TRANSPORTE FRETADO DA CIDADE ADMINISTRATIVA</t>
+          <t>ÍNDICE DE SOLICITAÇÕES DE TIC RESOLVIDAS NO PRAZO</t>
         </is>
       </c>
       <c r="E182" t="b">
@@ -17110,7 +17102,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>100</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
@@ -17119,32 +17111,32 @@
         <v>45657</v>
       </c>
       <c r="J182" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K182" t="b">
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>95</v>
+        <v>96.5</v>
       </c>
       <c r="M182" t="b">
         <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O182" t="b">
         <v>0</v>
       </c>
       <c r="P182" t="n">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="Q182" t="b">
         <v>0</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>RELATÓRIO MENSAL DAS VIAGENS REALIZADAS PELA EMPRESA DE PRESTAÇÃO DO SERVIÇO DE TRANSPORTE FRETADO DA CIDADE ADMINISTRATIVA E RELATÓRIO DAS FISCALIZAÇÕES DO SERVIÇO</t>
+          <t>SOLUÇÃO INFORMATIZADA DE ATENDIMENTO (SOLUÇÃO INFORMATIZADA DE ATENDIMENTO ASSYST)</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -17159,13 +17151,13 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>(NÚMERO DE VIAGENS REALIZADAS NO PRAZO / NÚMERO DE VIAGENS PLANEJADAS)*100</t>
+          <t>(TOTAL DE SOLICITAÇÕES ATENDIDAS NO PRAZO / TOTAL DE SOLICITAÇÕES RECEBIDAS) X 100</t>
         </is>
       </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" s="2" t="n">
-        <v>45919.65625</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y182" t="b">
         <v>0</v>
@@ -17190,7 +17182,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>ÍNDICE DE QUALIDADE DOS SERVIÇOS PRESTADOS DE LIMPEZA, E SEUS ASPECTOS TÉCNICOS E DE SEGURANÇA</t>
+          <t>ÍNDICE DE QUALIDADE DO SERVIÇO DE TRANSPORTE FRETADO DA CIDADE ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E183" t="b">
@@ -17198,11 +17190,11 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Nota média 1/10</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>9.99</v>
+        <v>100</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
@@ -17211,32 +17203,32 @@
         <v>45657</v>
       </c>
       <c r="J183" t="n">
-        <v>9.6</v>
+        <v>94</v>
       </c>
       <c r="K183" t="b">
         <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>9.699999999999999</v>
+        <v>95</v>
       </c>
       <c r="M183" t="b">
         <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>9.75</v>
+        <v>96</v>
       </c>
       <c r="O183" t="b">
         <v>0</v>
       </c>
       <c r="P183" t="n">
-        <v>9.800000000000001</v>
+        <v>97</v>
       </c>
       <c r="Q183" t="b">
         <v>0</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>SOLUÇÃO INFORMATIZADA DE FISCALIZAÇÃO (FISCWEB/MG)</t>
+          <t>RELATÓRIO MENSAL DAS VIAGENS REALIZADAS PELA EMPRESA DE PRESTAÇÃO DO SERVIÇO DE TRANSPORTE FRETADO DA CIDADE ADMINISTRATIVA E RELATÓRIO DAS FISCALIZAÇÕES DO SERVIÇO</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -17251,13 +17243,13 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>APLICAÇÃO DE QUESTIONÁRIOS ESPECÍFICOS PARA AVALIAR OS SERVIÇOS PRESTADOS NAS DIFERENTES ÁREAS DA CIDADE ADMINISTRATIVA, CONFORME PREVISTO EM CONTRATO. FÓRMULA: SOMATÓRIO NOTAS OBTIDAS / NÚMERO DE QUESTIONÁRIOS APLICADOS</t>
+          <t>(NÚMERO DE VIAGENS REALIZADAS NO PRAZO / NÚMERO DE VIAGENS PLANEJADAS)*100</t>
         </is>
       </c>
       <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr"/>
       <c r="X183" s="2" t="n">
-        <v>45919.65625</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y183" t="b">
         <v>0</v>
@@ -17349,7 +17341,7 @@
       <c r="V184" t="inlineStr"/>
       <c r="W184" t="inlineStr"/>
       <c r="X184" s="2" t="n">
-        <v>45898.63958333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y184" t="b">
         <v>0</v>
@@ -17441,7 +17433,7 @@
       <c r="V185" t="inlineStr"/>
       <c r="W185" t="inlineStr"/>
       <c r="X185" s="2" t="n">
-        <v>45898.63958333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y185" t="b">
         <v>0</v>
@@ -17533,7 +17525,7 @@
       <c r="V186" t="inlineStr"/>
       <c r="W186" t="inlineStr"/>
       <c r="X186" s="2" t="n">
-        <v>45898.63958333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y186" t="b">
         <v>0</v>
@@ -17623,13 +17615,9 @@
         </is>
       </c>
       <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr">
-        <is>
-          <t>O INDICADOR ESTÁ SENDO CALCULADO PELA PRIMEIRA VEZ PARA O EXERCÍCIO DE 2026. COMO A CONTRATAÇÃO DA EMPRESA RESPONSÁVEL PELO INVENTÁRIO DO PRIMEIRO LOTE DE IMÓVEIS AINDA NÃO FOI CONCLUÍDA, ATÉ O MOMENTO NÃO FOI POSSÍVEL REALIZAR O CÁLCULO DO ÍNDICE.</t>
-        </is>
-      </c>
+      <c r="W187" t="inlineStr"/>
       <c r="X187" s="2" t="n">
-        <v>45917.56041666667</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y187" t="b">
         <v>0</v>
@@ -17721,7 +17709,7 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" s="2" t="n">
-        <v>45898.63402777778</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y188" t="b">
         <v>0</v>
@@ -17813,7 +17801,7 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y189" t="b">
         <v>0</v>
@@ -17905,7 +17893,7 @@
       <c r="V190" t="inlineStr"/>
       <c r="W190" t="inlineStr"/>
       <c r="X190" s="2" t="n">
-        <v>45924.82708333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y190" t="b">
         <v>0</v>
@@ -17930,7 +17918,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>IDEB ANOS INICIAIS DO ENSINO FUNDAMENTAL</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL DO 5° ANO DO ENSINO FUNDAMENTAL EM LÍNGUA PORTUGUESA (PROEB)</t>
         </is>
       </c>
       <c r="E191" t="b">
@@ -17942,7 +17930,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>6.3</v>
+        <v>217.8</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
@@ -17951,37 +17939,37 @@
         <v>45537</v>
       </c>
       <c r="J191" t="n">
-        <v>0</v>
+        <v>225.87</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
       </c>
       <c r="L191" t="n">
-        <v>7</v>
+        <v>228.6</v>
       </c>
       <c r="M191" t="b">
         <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>0</v>
+        <v>231.41</v>
       </c>
       <c r="O191" t="b">
         <v>0</v>
       </c>
       <c r="P191" t="n">
-        <v>7.2</v>
+        <v>235</v>
       </c>
       <c r="Q191" t="b">
         <v>0</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
+          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T191" t="inlineStr">
@@ -17991,13 +17979,13 @@
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
+          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA.</t>
         </is>
       </c>
       <c r="V191" t="inlineStr"/>
       <c r="W191" t="inlineStr"/>
       <c r="X191" s="2" t="n">
-        <v>45917.59513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y191" t="b">
         <v>0</v>
@@ -18022,7 +18010,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>IDEB ENSINO MÉDIO</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL DO 9° ANO DO ENSINO FUNDAMENTAL EM LÍNGUA PORTUGUESA (PROEB)</t>
         </is>
       </c>
       <c r="E192" t="b">
@@ -18034,7 +18022,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4</v>
+        <v>252.7</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
@@ -18043,37 +18031,37 @@
         <v>45537</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>260.17</v>
       </c>
       <c r="K192" t="b">
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>4.7</v>
+        <v>266.84</v>
       </c>
       <c r="M192" t="b">
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>273.68</v>
       </c>
       <c r="O192" t="b">
         <v>0</v>
       </c>
       <c r="P192" t="n">
-        <v>4.8</v>
+        <v>275</v>
       </c>
       <c r="Q192" t="b">
         <v>0</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
+          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
@@ -18083,13 +18071,13 @@
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
+          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA.</t>
         </is>
       </c>
       <c r="V192" t="inlineStr"/>
       <c r="W192" t="inlineStr"/>
       <c r="X192" s="2" t="n">
-        <v>45917.59513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y192" t="b">
         <v>0</v>
@@ -18114,7 +18102,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>IDEB ANOS FINAIS DO ENSINO FUNDAMENTAL</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL  DO 3° ANO DO ENSINO MÉDIO EM MATEMÁTICA (PROEB)</t>
         </is>
       </c>
       <c r="E193" t="b">
@@ -18126,7 +18114,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.6</v>
+        <v>269.4</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
@@ -18135,37 +18123,37 @@
         <v>45537</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>276.52</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>6.4</v>
+        <v>282.05</v>
       </c>
       <c r="M193" t="b">
         <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>0</v>
+        <v>287.69</v>
       </c>
       <c r="O193" t="b">
         <v>0</v>
       </c>
       <c r="P193" t="n">
-        <v>6.6</v>
+        <v>293</v>
       </c>
       <c r="Q193" t="b">
         <v>0</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
+          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
@@ -18175,13 +18163,13 @@
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
+          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM MATEMÁTICA.</t>
         </is>
       </c>
       <c r="V193" t="inlineStr"/>
       <c r="W193" t="inlineStr"/>
       <c r="X193" s="2" t="n">
-        <v>45917.59513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y193" t="b">
         <v>0</v>
@@ -18206,7 +18194,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL DO 5° ANO DO ENSINO FUNDAMENTAL EM LÍNGUA PORTUGUESA (PROEB)</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL  DO 9° ANO DO ENSINO FUNDAMENTAL  EM MATEMÁTICA (PROEB)</t>
         </is>
       </c>
       <c r="E194" t="b">
@@ -18218,7 +18206,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>217.8</v>
+        <v>249.3</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
@@ -18227,25 +18215,25 @@
         <v>45537</v>
       </c>
       <c r="J194" t="n">
-        <v>225.87</v>
+        <v>267.05</v>
       </c>
       <c r="K194" t="b">
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>228.6</v>
+        <v>275.11</v>
       </c>
       <c r="M194" t="b">
         <v>0</v>
       </c>
       <c r="N194" t="n">
-        <v>231.41</v>
+        <v>283.41</v>
       </c>
       <c r="O194" t="b">
         <v>0</v>
       </c>
       <c r="P194" t="n">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="Q194" t="b">
         <v>0</v>
@@ -18267,13 +18255,13 @@
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA.</t>
+          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM MATEMÁTICA.</t>
         </is>
       </c>
       <c r="V194" t="inlineStr"/>
       <c r="W194" t="inlineStr"/>
       <c r="X194" s="2" t="n">
-        <v>45917.59513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y194" t="b">
         <v>0</v>
@@ -18298,7 +18286,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL DO 9° ANO DO ENSINO FUNDAMENTAL EM LÍNGUA PORTUGUESA (PROEB)</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ALUNOS DO 3° ANO DO ENSINO MÉDIO EM LÍNGUA PORTUGUESA (PROEB)</t>
         </is>
       </c>
       <c r="E195" t="b">
@@ -18310,7 +18298,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>252.7</v>
+        <v>273.2</v>
       </c>
       <c r="H195" t="b">
         <v>0</v>
@@ -18319,25 +18307,25 @@
         <v>45537</v>
       </c>
       <c r="J195" t="n">
-        <v>260.17</v>
+        <v>281.41</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>266.84</v>
+        <v>287.04</v>
       </c>
       <c r="M195" t="b">
         <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>273.68</v>
+        <v>292.78</v>
       </c>
       <c r="O195" t="b">
         <v>0</v>
       </c>
       <c r="P195" t="n">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="Q195" t="b">
         <v>0</v>
@@ -18359,13 +18347,13 @@
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA.</t>
+          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA</t>
         </is>
       </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" s="2" t="n">
-        <v>45917.59513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y195" t="b">
         <v>0</v>
@@ -18390,7 +18378,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL  DO 3° ANO DO ENSINO MÉDIO EM MATEMÁTICA (PROEB)</t>
+          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL NO 5° ANO DO ENSINO FUNDAMENTAL EM MATEMÁTICA (PROEB)</t>
         </is>
       </c>
       <c r="E196" t="b">
@@ -18402,7 +18390,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>269.4</v>
+        <v>227.2</v>
       </c>
       <c r="H196" t="b">
         <v>0</v>
@@ -18411,25 +18399,25 @@
         <v>45537</v>
       </c>
       <c r="J196" t="n">
-        <v>276.52</v>
+        <v>242.26</v>
       </c>
       <c r="K196" t="b">
         <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>282.05</v>
+        <v>250.31</v>
       </c>
       <c r="M196" t="b">
         <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>287.69</v>
+        <v>252.7</v>
       </c>
       <c r="O196" t="b">
         <v>0</v>
       </c>
       <c r="P196" t="n">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="Q196" t="b">
         <v>0</v>
@@ -18457,7 +18445,7 @@
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" s="2" t="n">
-        <v>45917.59513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y196" t="b">
         <v>0</v>
@@ -18482,7 +18470,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL  DO 9° ANO DO ENSINO FUNDAMENTAL  EM MATEMÁTICA (PROEB)</t>
+          <t>IDEB ANOS INICIAIS DO ENSINO FUNDAMENTAL</t>
         </is>
       </c>
       <c r="E197" t="b">
@@ -18494,7 +18482,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>249.3</v>
+        <v>6.3</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
@@ -18503,37 +18491,37 @@
         <v>45537</v>
       </c>
       <c r="J197" t="n">
-        <v>267.05</v>
+        <v>0</v>
       </c>
       <c r="K197" t="b">
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>275.11</v>
+        <v>7</v>
       </c>
       <c r="M197" t="b">
         <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>283.41</v>
+        <v>0</v>
       </c>
       <c r="O197" t="b">
         <v>0</v>
       </c>
       <c r="P197" t="n">
-        <v>288</v>
+        <v>7.2</v>
       </c>
       <c r="Q197" t="b">
         <v>0</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
+          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
@@ -18543,13 +18531,13 @@
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM MATEMÁTICA.</t>
+          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
         </is>
       </c>
       <c r="V197" t="inlineStr"/>
       <c r="W197" t="inlineStr"/>
       <c r="X197" s="2" t="n">
-        <v>45917.59513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y197" t="b">
         <v>0</v>
@@ -18574,7 +18562,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ALUNOS DO 3° ANO DO ENSINO MÉDIO EM LÍNGUA PORTUGUESA (PROEB)</t>
+          <t>IDEB ENSINO MÉDIO</t>
         </is>
       </c>
       <c r="E198" t="b">
@@ -18586,7 +18574,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>273.2</v>
+        <v>4</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
@@ -18595,37 +18583,37 @@
         <v>45537</v>
       </c>
       <c r="J198" t="n">
-        <v>281.41</v>
+        <v>0</v>
       </c>
       <c r="K198" t="b">
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>287.04</v>
+        <v>4.7</v>
       </c>
       <c r="M198" t="b">
         <v>0</v>
       </c>
       <c r="N198" t="n">
-        <v>292.78</v>
+        <v>0</v>
       </c>
       <c r="O198" t="b">
         <v>0</v>
       </c>
       <c r="P198" t="n">
-        <v>298</v>
+        <v>4.8</v>
       </c>
       <c r="Q198" t="b">
         <v>0</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
+          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
@@ -18635,13 +18623,13 @@
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM LÍNGUA PORTUGUESA</t>
+          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
         </is>
       </c>
       <c r="V198" t="inlineStr"/>
       <c r="W198" t="inlineStr"/>
       <c r="X198" s="2" t="n">
-        <v>45917.59513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y198" t="b">
         <v>0</v>
@@ -18666,7 +18654,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>PROFICIÊNCIA MÉDIA DOS ESTUDANTES DA REDE ESTADUAL NO 5° ANO DO ENSINO FUNDAMENTAL EM MATEMÁTICA (PROEB)</t>
+          <t>IDEB ANOS FINAIS DO ENSINO FUNDAMENTAL</t>
         </is>
       </c>
       <c r="E199" t="b">
@@ -18678,7 +18666,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>227.2</v>
+        <v>4.6</v>
       </c>
       <c r="H199" t="b">
         <v>0</v>
@@ -18687,37 +18675,37 @@
         <v>45537</v>
       </c>
       <c r="J199" t="n">
-        <v>242.26</v>
+        <v>0</v>
       </c>
       <c r="K199" t="b">
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>250.31</v>
+        <v>6.4</v>
       </c>
       <c r="M199" t="b">
         <v>0</v>
       </c>
       <c r="N199" t="n">
-        <v>252.7</v>
+        <v>0</v>
       </c>
       <c r="O199" t="b">
         <v>0</v>
       </c>
       <c r="P199" t="n">
-        <v>255</v>
+        <v>6.6</v>
       </c>
       <c r="Q199" t="b">
         <v>0</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>SISTEMA MINEIRO DE AVALIAÇÃO E EQUIDADE DA EDUCAÇÃO PÚBLICA - SIMAVE</t>
+          <t>INEP - INSTITUTO NACIONAL DE ESTUDOS E PESQUISAS EDUCACIONAIS ANÍSIO TEIXEIRA</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
@@ -18727,13 +18715,13 @@
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>MÉDIA DA PROFICIÊNCIA DOS ESTUDANTES AVALIADOS EM MATEMÁTICA.</t>
+          <t>DESEMPENHO NAS AVALIAÇÕES DO SAEB X INDICADOR DE RENDIMENTO</t>
         </is>
       </c>
       <c r="V199" t="inlineStr"/>
       <c r="W199" t="inlineStr"/>
       <c r="X199" s="2" t="n">
-        <v>45917.59513888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y199" t="b">
         <v>0</v>
@@ -18825,7 +18813,7 @@
       <c r="V200" t="inlineStr"/>
       <c r="W200" t="inlineStr"/>
       <c r="X200" s="2" t="n">
-        <v>45917.48055555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y200" t="b">
         <v>0</v>
@@ -18917,7 +18905,7 @@
       <c r="V201" t="inlineStr"/>
       <c r="W201" t="inlineStr"/>
       <c r="X201" s="2" t="n">
-        <v>45917.48055555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y201" t="b">
         <v>0</v>
@@ -19009,7 +18997,7 @@
       <c r="V202" t="inlineStr"/>
       <c r="W202" t="inlineStr"/>
       <c r="X202" s="2" t="n">
-        <v>45917.48055555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y202" t="b">
         <v>0</v>
@@ -19101,7 +19089,7 @@
       <c r="V203" t="inlineStr"/>
       <c r="W203" t="inlineStr"/>
       <c r="X203" s="2" t="n">
-        <v>45917.48055555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y203" t="b">
         <v>0</v>
@@ -19193,7 +19181,7 @@
       <c r="V204" t="inlineStr"/>
       <c r="W204" t="inlineStr"/>
       <c r="X204" s="2" t="n">
-        <v>45917.48055555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y204" t="b">
         <v>0</v>
@@ -19285,7 +19273,7 @@
       <c r="V205" t="inlineStr"/>
       <c r="W205" t="inlineStr"/>
       <c r="X205" s="2" t="n">
-        <v>45917.48055555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y205" t="b">
         <v>0</v>
@@ -19377,7 +19365,7 @@
       <c r="V206" t="inlineStr"/>
       <c r="W206" t="inlineStr"/>
       <c r="X206" s="2" t="n">
-        <v>45917.48055555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y206" t="b">
         <v>0</v>
@@ -19469,7 +19457,7 @@
       <c r="V207" t="inlineStr"/>
       <c r="W207" t="inlineStr"/>
       <c r="X207" s="2" t="n">
-        <v>45917.48055555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y207" t="b">
         <v>0</v>
@@ -19561,7 +19549,7 @@
       <c r="V208" t="inlineStr"/>
       <c r="W208" t="inlineStr"/>
       <c r="X208" s="2" t="n">
-        <v>45917.48055555556</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y208" t="b">
         <v>0</v>
@@ -19586,7 +19574,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE ESCOLAS COM LABORATÓRIO DE INFORMÁTICA EM FUNCIONAMENTO, DE ACORDO COM O PADRÃO SEE/MG</t>
+          <t>PERCENTUAL DE ESCOLAS COM MANUTENÇÃO DA CONECTIVIDADE, COM VELOCIDADE MÍNIMA DE CONEXÃO DE ACORDO COM O PADRÃO SEE.</t>
         </is>
       </c>
       <c r="E209" t="b">
@@ -19594,38 +19582,38 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Porcentagem</t>
+          <t>Percentual</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>80</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H209" t="b">
         <v>0</v>
       </c>
       <c r="I209" s="2" t="n">
-        <v>44620</v>
+        <v>45882</v>
       </c>
       <c r="J209" t="n">
-        <v>90</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K209" t="b">
         <v>0</v>
       </c>
       <c r="L209" t="n">
-        <v>95</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M209" t="b">
         <v>0</v>
       </c>
       <c r="N209" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O209" t="b">
         <v>0</v>
       </c>
       <c r="P209" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Q209" t="b">
         <v>0</v>
@@ -19647,13 +19635,13 @@
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>(TOTAL DE ESCOLAS QUE ALCANCEM O NÍVEL DO PADRÃO SEE-MG/TOTAL DE ESCOLAS DA REDE) X 100</t>
+          <t>(TOTAL DE ESCOLAS COM O PADRÃO SEE / TOTAL DE ESCOLAS DA REDE) X 100</t>
         </is>
       </c>
       <c r="V209" t="inlineStr"/>
       <c r="W209" t="inlineStr"/>
       <c r="X209" s="2" t="n">
-        <v>45915.49791666667</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y209" t="b">
         <v>0</v>
@@ -19678,7 +19666,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE UNIDADES ESCOLARES COM INFRAESTRUTURA DA SUA REDE FÍSICA AVALIADA COMO BOA OU MUITO BOA</t>
+          <t>PERCENTUAL DE ESCOLAS COM LABORATÓRIO DE INFORMÁTICA EM FUNCIONAMENTO, DE ACORDO COM O PADRÃO SEE/MG</t>
         </is>
       </c>
       <c r="E210" t="b">
@@ -19690,41 +19678,41 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>54.15</v>
+        <v>80</v>
       </c>
       <c r="H210" t="b">
         <v>0</v>
       </c>
       <c r="I210" s="2" t="n">
-        <v>45688</v>
+        <v>44620</v>
       </c>
       <c r="J210" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K210" t="b">
         <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M210" t="b">
         <v>0</v>
       </c>
       <c r="N210" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O210" t="b">
         <v>0</v>
       </c>
       <c r="P210" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="Q210" t="b">
         <v>0</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>DIAGNÓSTICO DA INFRAESTRUTURA ESCOLAR</t>
+          <t>DIRETORIA DE INFRAESTRUTURA TECNOLÓGICA</t>
         </is>
       </c>
       <c r="S210" t="inlineStr">
@@ -19739,13 +19727,13 @@
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>(NÚMERO DE UNIDADES ESCOLARES (ENDEREÇOS) COM INFRAESTRUTURA AVALIADA COMO BOA OU MUITO BOA /NÚMERO TOTAL DE ESCOLAS ESTADUAIS) X 100</t>
+          <t>(TOTAL DE ESCOLAS QUE ALCANCEM O NÍVEL DO PADRÃO SEE-MG/TOTAL DE ESCOLAS DA REDE) X 100</t>
         </is>
       </c>
       <c r="V210" t="inlineStr"/>
       <c r="W210" t="inlineStr"/>
       <c r="X210" s="2" t="n">
-        <v>45915.49791666667</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y210" t="b">
         <v>0</v>
@@ -19770,7 +19758,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE ESCOLAS COM MANUTENÇÃO DA CONECTIVIDADE, COM VELOCIDADE MÍNIMA DE CONEXÃO DE ACORDO COM O PADRÃO SEE.</t>
+          <t>PERCENTUAL DE UNIDADES ESCOLARES COM INFRAESTRUTURA DA SUA REDE FÍSICA AVALIADA COMO BOA OU MUITO BOA</t>
         </is>
       </c>
       <c r="E211" t="b">
@@ -19778,45 +19766,45 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>Porcentagem</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>99.90000000000001</v>
+        <v>54.15</v>
       </c>
       <c r="H211" t="b">
         <v>0</v>
       </c>
       <c r="I211" s="2" t="n">
-        <v>45882</v>
+        <v>45688</v>
       </c>
       <c r="J211" t="n">
-        <v>99.90000000000001</v>
+        <v>70</v>
       </c>
       <c r="K211" t="b">
         <v>0</v>
       </c>
       <c r="L211" t="n">
-        <v>99.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="M211" t="b">
         <v>0</v>
       </c>
       <c r="N211" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="O211" t="b">
         <v>0</v>
       </c>
       <c r="P211" t="n">
-        <v>99.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="Q211" t="b">
         <v>0</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>DIRETORIA DE INFRAESTRUTURA TECNOLÓGICA</t>
+          <t>DIAGNÓSTICO DA INFRAESTRUTURA ESCOLAR</t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
@@ -19831,13 +19819,13 @@
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>(TOTAL DE ESCOLAS COM O PADRÃO SEE / TOTAL DE ESCOLAS DA REDE) X 100</t>
+          <t>(NÚMERO DE UNIDADES ESCOLARES (ENDEREÇOS) COM INFRAESTRUTURA AVALIADA COMO BOA OU MUITO BOA /NÚMERO TOTAL DE ESCOLAS ESTADUAIS) X 100</t>
         </is>
       </c>
       <c r="V211" t="inlineStr"/>
       <c r="W211" t="inlineStr"/>
       <c r="X211" s="2" t="n">
-        <v>45915.49791666667</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y211" t="b">
         <v>0</v>
@@ -19862,7 +19850,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>NÚMERO DE MATRÍCULAS ABSORVIDAS</t>
+          <t>PERCENTUAL DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO ATENDIDOS NO PROGRAMA DE TRANSPORTE DO ESCOLAR (PTE)</t>
         </is>
       </c>
       <c r="E212" t="b">
@@ -19870,45 +19858,45 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="H212" t="b">
         <v>0</v>
       </c>
       <c r="I212" s="2" t="n">
-        <v>45838</v>
+        <v>45291</v>
       </c>
       <c r="J212" t="n">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="K212" t="b">
         <v>0</v>
       </c>
       <c r="L212" t="n">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="M212" t="b">
         <v>0</v>
       </c>
       <c r="N212" t="n">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="O212" t="b">
         <v>0</v>
       </c>
       <c r="P212" t="n">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="Q212" t="b">
         <v>0</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>PAINÉL SIMADE - SISTEMA MINEIRO DE ADMINISTRAÇÃO ESCOLAR</t>
+          <t>SEE</t>
         </is>
       </c>
       <c r="S212" t="inlineStr">
@@ -19923,16 +19911,16 @@
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>N° GERAL DE MATRÍCULAS DA REDE ESTADUAL ABSORVIDAS PELOS MUNICÍPIOS POR ANO (SOMA).</t>
+          <t>(NÚMERO DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO ATENDIDOS / NÚMERO DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO) * 100</t>
         </is>
       </c>
       <c r="V212" t="inlineStr"/>
       <c r="W212" t="inlineStr"/>
       <c r="X212" s="2" t="n">
-        <v>45917.58680555555</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z212" t="inlineStr">
         <is>
@@ -19954,7 +19942,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO ATENDIDOS NO PROGRAMA DE TRANSPORTE DO ESCOLAR (PTE)</t>
+          <t>NÚMERO DE MATRÍCULAS ABSORVIDAS</t>
         </is>
       </c>
       <c r="E213" t="b">
@@ -19962,45 +19950,45 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>UNIDADE</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="H213" t="b">
         <v>0</v>
       </c>
       <c r="I213" s="2" t="n">
-        <v>45291</v>
+        <v>45838</v>
       </c>
       <c r="J213" t="n">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="K213" t="b">
         <v>0</v>
       </c>
       <c r="L213" t="n">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="M213" t="b">
         <v>0</v>
       </c>
       <c r="N213" t="n">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="O213" t="b">
         <v>0</v>
       </c>
       <c r="P213" t="n">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="Q213" t="b">
         <v>0</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>SEE</t>
+          <t>PAINÉL SIMADE - SISTEMA MINEIRO DE ADMINISTRAÇÃO ESCOLAR</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
@@ -20015,16 +20003,16 @@
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>(NÚMERO DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO ATENDIDOS / NÚMERO DE ESTUDANTES RESIDENTES EM ÁREAS RURAIS DA EDUCAÇÃO BÁSICA DA REDE ESTADUAL DE ENSINO) * 100</t>
+          <t>N° GERAL DE MATRÍCULAS DA REDE ESTADUAL ABSORVIDAS PELOS MUNICÍPIOS POR ANO (SOMA).</t>
         </is>
       </c>
       <c r="V213" t="inlineStr"/>
       <c r="W213" t="inlineStr"/>
       <c r="X213" s="2" t="n">
-        <v>45917.58680555555</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z213" t="inlineStr">
         <is>
@@ -20106,18 +20094,14 @@
           <t>NÚMERO DE CONVÊNIOS ENCERRADOS COM OBJETO CONCLUÍDO DIVIDO PELO NÚMERO TOTAL DE CONVÊNIOS FIRMADOS.</t>
         </is>
       </c>
-      <c r="V214" t="inlineStr">
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr">
         <is>
           <t>ORGANIZAÇÃO, ESTRUTURA E DEFINIÇÃO DO FLUXO DO PROGRAMA FOI ESTABELECIDO EM JUNHO/2025. CRIAÇÃO DO PAINEL COM A CONSOLIDAÇÃO DOS DADOS PARA DAR MAIS TRANSPARÊNCIA E DIVULGAÇÃO DOS DADOS.</t>
         </is>
       </c>
-      <c r="W214" t="inlineStr">
-        <is>
-          <t>ORGANIZAÇÃO, ESTRUTURA E DEFINIÇÃO DO FLUXO DO PROGRAMA FOI ESTABELECIDO EM JUNHO/2025. CRIAÇÃO DO PAINEL COM A CONSOLIDAÇÃO DOS DADOS PARA DAR MAIS TRANSPARÊNCIA E DIVULGAÇÃO DOS DADOS.</t>
-        </is>
-      </c>
       <c r="X214" s="2" t="n">
-        <v>45917.58680555555</v>
+        <v>45933.44444444445</v>
       </c>
       <c r="Y214" t="b">
         <v>1</v>
@@ -20202,18 +20186,14 @@
           <t>VALOR TOTAL DO RECURSO EXECUTADO DIVIDIDO PELO VALOR TOTAL DO RECURSO DISPONIBILIZADO NO ANO</t>
         </is>
       </c>
-      <c r="V215" t="inlineStr">
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr">
         <is>
           <t>ORGANIZAÇÃO, ESTRUTURA E DEFINIÇÃO DO FLUXO DO PROGRAMA FOI ESTABELECIDO EM JUNHO/2025. CRIAÇÃO DO PAINEL COM A CONSOLIDAÇÃO DOS DADOS PARA DAR MAIS TRANSPARÊNCIA E DIVULGAÇÃO DOS DADOS.</t>
         </is>
       </c>
-      <c r="W215" t="inlineStr">
-        <is>
-          <t>ORGANIZAÇÃO, ESTRUTURA E DEFINIÇÃO DO FLUXO DO PROGRAMA FOI ESTABELECIDO EM JUNHO/2025. CRIAÇÃO DO PAINEL COM A CONSOLIDAÇÃO DOS DADOS PARA DAR MAIS TRANSPARÊNCIA E DIVULGAÇÃO DOS DADOS.</t>
-        </is>
-      </c>
       <c r="X215" s="2" t="n">
-        <v>45917.58680555555</v>
+        <v>45933.44444444445</v>
       </c>
       <c r="Y215" t="b">
         <v>1</v>
@@ -20305,7 +20285,7 @@
       <c r="V216" t="inlineStr"/>
       <c r="W216" t="inlineStr"/>
       <c r="X216" s="2" t="n">
-        <v>45918.70138888889</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y216" t="b">
         <v>0</v>
@@ -20397,7 +20377,7 @@
       <c r="V217" t="inlineStr"/>
       <c r="W217" t="inlineStr"/>
       <c r="X217" s="2" t="n">
-        <v>45924.51597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y217" t="b">
         <v>0</v>
@@ -20489,7 +20469,7 @@
       <c r="V218" t="inlineStr"/>
       <c r="W218" t="inlineStr"/>
       <c r="X218" s="2" t="n">
-        <v>45924.51597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y218" t="b">
         <v>0</v>
@@ -20581,7 +20561,7 @@
       <c r="V219" t="inlineStr"/>
       <c r="W219" t="inlineStr"/>
       <c r="X219" s="2" t="n">
-        <v>45924.51597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y219" t="b">
         <v>0</v>
@@ -20673,7 +20653,7 @@
       <c r="V220" t="inlineStr"/>
       <c r="W220" t="inlineStr"/>
       <c r="X220" s="2" t="n">
-        <v>45924.51597222222</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y220" t="b">
         <v>0</v>
@@ -20765,7 +20745,7 @@
       <c r="V221" t="inlineStr"/>
       <c r="W221" t="inlineStr"/>
       <c r="X221" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y221" t="b">
         <v>0</v>
@@ -20857,7 +20837,7 @@
       <c r="V222" t="inlineStr"/>
       <c r="W222" t="inlineStr"/>
       <c r="X222" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y222" t="b">
         <v>0</v>
@@ -20949,7 +20929,7 @@
       <c r="V223" t="inlineStr"/>
       <c r="W223" t="inlineStr"/>
       <c r="X223" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y223" t="b">
         <v>0</v>
@@ -21041,7 +21021,7 @@
       <c r="V224" t="inlineStr"/>
       <c r="W224" t="inlineStr"/>
       <c r="X224" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y224" t="b">
         <v>0</v>
@@ -21133,7 +21113,7 @@
       <c r="V225" t="inlineStr"/>
       <c r="W225" t="inlineStr"/>
       <c r="X225" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y225" t="b">
         <v>0</v>
@@ -21225,7 +21205,7 @@
       <c r="V226" t="inlineStr"/>
       <c r="W226" t="inlineStr"/>
       <c r="X226" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y226" t="b">
         <v>0</v>
@@ -21250,7 +21230,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>ÍNDICE DE IRREGULARIDADES SANADAS OU EVITADAS EM PROCESSOS LICITATÓRIOS DISPENSANDO A FORMALIZAÇÃO DE PROCESSO</t>
+          <t>QUANTIDADE DE INDÍCIOS DE IRREGULARIDADE EM TRILHAS DE ATOS DE PESSOAL DECORRENTES DE CRUZAMENTO DE DADOS E LEVADAS AO CONHECIMENTO DOS JURISDICIONADOS</t>
         </is>
       </c>
       <c r="E227" t="b">
@@ -21258,7 +21238,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>UNIDADE</t>
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
@@ -21267,32 +21247,32 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>75</v>
+        <v>7000</v>
       </c>
       <c r="K227" t="b">
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>75</v>
+        <v>7000</v>
       </c>
       <c r="M227" t="b">
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>75</v>
+        <v>7000</v>
       </c>
       <c r="O227" t="b">
         <v>0</v>
       </c>
       <c r="P227" t="n">
-        <v>75</v>
+        <v>7000</v>
       </c>
       <c r="Q227" t="b">
         <v>0</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS</t>
+          <t>TRIBUNAL DE CONTAS DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="S227" t="inlineStr">
@@ -21307,17 +21287,17 @@
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE IRREGULARIDADES EM PROCESSOS LICITATÓRIOS SANADAS OU EVITADAS DISPENSANDO A FORMALIZAÇÃO DE PROCESSO, POR MEIO DE AÇÕES DE INTELIGÊNCIA OU DE ANÁLISE DE DADOS</t>
+          <t>NÚMERO ABSOLUTO DE INDÍCIOS DE IRREGULARIDADE EM TRILHAS DE ATOS DE PESSOAL DECORRENTES DO CRUZAMENTO DE DADOS QUE FORAM LEVADOS AO CONHECIMENTO DOS JURISDICIONADOS</t>
         </is>
       </c>
       <c r="V227" t="inlineStr"/>
       <c r="W227" t="inlineStr">
         <is>
-          <t>O PRIMEIRO EXERCÍCIO DO INDICADOR SERÁ 2026.</t>
+          <t>O INDICADOR FOI ALTERADO EM SUA REDAÇÃO PARA MAIOR QUALIFICAÇÃO DAS AÇÕES DE CONTROLE, PORTANTOO PRIMEIRO EXERCÍCIO DE REFERÊNCIA SERÁ 2026.</t>
         </is>
       </c>
       <c r="X227" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45933.44583333333</v>
       </c>
       <c r="Y227" t="b">
         <v>0</v>
@@ -21342,7 +21322,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>QUANTIDADE DE INDÍCIOS DE IRREGULARIDADE EM TRILHAS DE ATOS DE PESSOAL DECORRENTES DE CRUZAMENTO DE DADOS E LEVADAS AO CONHECIMENTO DOS JURISDICIONADOS</t>
+          <t>ÍNDICE DE IRREGULARIDADES SANADAS OU EVITADAS EM PROCESSOS LICITATÓRIOS DISPENSANDO A FORMALIZAÇÃO DE PROCESSO</t>
         </is>
       </c>
       <c r="E228" t="b">
@@ -21350,7 +21330,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>%</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
@@ -21359,32 +21339,32 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>7000</v>
+        <v>75</v>
       </c>
       <c r="K228" t="b">
         <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>7000</v>
+        <v>75</v>
       </c>
       <c r="M228" t="b">
         <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>7000</v>
+        <v>75</v>
       </c>
       <c r="O228" t="b">
         <v>0</v>
       </c>
       <c r="P228" t="n">
-        <v>7000</v>
+        <v>75</v>
       </c>
       <c r="Q228" t="b">
         <v>0</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>TRIBUNAL DE CONTAS DE MINAS GERAIS</t>
+          <t>TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
@@ -21399,17 +21379,17 @@
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>NÚMERO ABSOLUTO DE INDÍCIOS DE IRREGULARIDADE EM TRILHAS DE ATOS DE PESSOAL DECORRENTES DO CRUZAMENTO DE DADOS QUE FORAM LEVADOS AO CONHECIMENTO DOS JURISDICIONADOS</t>
+          <t>PERCENTUAL DE IRREGULARIDADES EM PROCESSOS LICITATÓRIOS SANADAS OU EVITADAS DISPENSANDO A FORMALIZAÇÃO DE PROCESSO, POR MEIO DE AÇÕES DE INTELIGÊNCIA OU DE ANÁLISE DE DADOS</t>
         </is>
       </c>
       <c r="V228" t="inlineStr"/>
       <c r="W228" t="inlineStr">
         <is>
-          <t>O INDICADOR FOI ALTERADO EM SUA REDAÇÃO PARA MAIOR QUALIFICAÇÃO DAS AÇÕES DE CONTROLE, PORTANTOO PRIMEIRO EXERCÍCIO DE REFERÊNCIA SERÁ 2026.</t>
+          <t>O PRIMEIRO EXERCÍCIO DO INDICADOR SERÁ 2026.</t>
         </is>
       </c>
       <c r="X228" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45933.44652777778</v>
       </c>
       <c r="Y228" t="b">
         <v>0</v>
@@ -21434,46 +21414,46 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>NÚMERO DE AGENTES PÚBLICOS E DE PARTICULARES EM COLABORAÇÃO COM A ADMINISTRAÇÃO ALCANÇADOS PELAS TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
+          <t>VOLUME DE RECURSOS PÚBLICOS AFETOS A PROCESSOS LICITATÓRIOS SUBMETIDOS À FISCALIZAÇÃO POR MEIO DE TRILHAS ELETRÔNICAS</t>
         </is>
       </c>
       <c r="E229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>bilhões de Reais (R$)</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>11.19</v>
+        <v>14.4</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
       </c>
       <c r="I229" s="2" t="n">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="J229" t="n">
-        <v>9000</v>
+        <v>15</v>
       </c>
       <c r="K229" t="b">
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>12000</v>
+        <v>15</v>
       </c>
       <c r="M229" t="b">
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>12000</v>
+        <v>15</v>
       </c>
       <c r="O229" t="b">
         <v>0</v>
       </c>
       <c r="P229" t="n">
-        <v>20000</v>
+        <v>15</v>
       </c>
       <c r="Q229" t="b">
         <v>0</v>
@@ -21495,13 +21475,13 @@
       </c>
       <c r="U229" t="inlineStr">
         <is>
-          <t>NÚMERO ABSOLUTO DE AGENTES PÚBLICOS E DE PARTICULARES EM COLABORAÇÃO COM A ADMINISTRAÇÃO PÚBLICA ALCANÇADOS PELAS TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
+          <t>VALOR, EM BILHÕES DE REAIS, DA SOMA DOS RECURSOS ENVOLVIDOS NOS PROCESSOS LICITATÓRIOS ANALISADOS NAS TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
         </is>
       </c>
       <c r="V229" t="inlineStr"/>
       <c r="W229" t="inlineStr"/>
       <c r="X229" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y229" t="b">
         <v>0</v>
@@ -21526,7 +21506,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>TIPOS DE CRUZAMENTOS DE DADOS REALIZADOS PELOS SISTEMAS UTILIZADOS EM TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
+          <t>NÚMERO DE AGENTES PÚBLICOS E DE PARTICULARES EM COLABORAÇÃO COM A ADMINISTRAÇÃO ALCANÇADOS PELAS TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
         </is>
       </c>
       <c r="E230" t="b">
@@ -21538,7 +21518,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>54</v>
+        <v>11.19</v>
       </c>
       <c r="H230" t="b">
         <v>0</v>
@@ -21547,25 +21527,25 @@
         <v>45291</v>
       </c>
       <c r="J230" t="n">
-        <v>40</v>
+        <v>9000</v>
       </c>
       <c r="K230" t="b">
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>50</v>
+        <v>12000</v>
       </c>
       <c r="M230" t="b">
         <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>50</v>
+        <v>12000</v>
       </c>
       <c r="O230" t="b">
         <v>0</v>
       </c>
       <c r="P230" t="n">
-        <v>70</v>
+        <v>20000</v>
       </c>
       <c r="Q230" t="b">
         <v>0</v>
@@ -21587,7 +21567,7 @@
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>NÚMERO ABSOLUTO DOS TIPOS DE CRUZAMENTO DE DADOS REALIZADOS PELOS SISTEMAS UTILIZADOS EM TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
+          <t>NÚMERO ABSOLUTO DE AGENTES PÚBLICOS E DE PARTICULARES EM COLABORAÇÃO COM A ADMINISTRAÇÃO PÚBLICA ALCANÇADOS PELAS TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
         </is>
       </c>
       <c r="V230" t="inlineStr"/>
@@ -21618,7 +21598,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>NÚMERO DE AÇÕES DE CONTROLE DESENCADEADAS A PARTIR DO CRUZAMENTO DE INFORMAÇÃO EM MASSA CONSTANTE DE BANCO DE DADOS PRÓPRIOS OU DE TERCEIROS</t>
+          <t>TIPOS DE CRUZAMENTOS DE DADOS REALIZADOS PELOS SISTEMAS UTILIZADOS EM TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
         </is>
       </c>
       <c r="E231" t="b">
@@ -21630,7 +21610,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="H231" t="b">
         <v>0</v>
@@ -21639,25 +21619,25 @@
         <v>45291</v>
       </c>
       <c r="J231" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K231" t="b">
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M231" t="b">
         <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="O231" t="b">
         <v>0</v>
       </c>
       <c r="P231" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="Q231" t="b">
         <v>0</v>
@@ -21679,7 +21659,7 @@
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>NÚMERO ABSOLUTO DE AÇÕES DE CONTROLE DESENCADEADAS A PARTIR DE CRUZAMENTO DE INFORMAÇÕES EM MASSA REALIZADAS NO EXERCÍCIO</t>
+          <t>NÚMERO ABSOLUTO DOS TIPOS DE CRUZAMENTO DE DADOS REALIZADOS PELOS SISTEMAS UTILIZADOS EM TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
         </is>
       </c>
       <c r="V231" t="inlineStr"/>
@@ -21710,7 +21690,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>NÚMERO DE ANÁLISES AUTOMATIZADAS DE PROCESSOS LICITATÓRIOS REALIZADAS COM O AUXÍLIO DE FERRAMENTAS DE TECNOLOGIA DA INFORMAÇÃO</t>
+          <t>NÚMERO DE AÇÕES DE CONTROLE DESENCADEADAS A PARTIR DO CRUZAMENTO DE INFORMAÇÃO EM MASSA CONSTANTE DE BANCO DE DADOS PRÓPRIOS OU DE TERCEIROS</t>
         </is>
       </c>
       <c r="E232" t="b">
@@ -21722,33 +21702,35 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>14600</v>
+        <v>9</v>
       </c>
       <c r="H232" t="b">
         <v>0</v>
       </c>
       <c r="I232" s="2" t="n">
-        <v>45134</v>
+        <v>45291</v>
       </c>
       <c r="J232" t="n">
-        <v>25000</v>
+        <v>15</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>25000</v>
+        <v>15</v>
       </c>
       <c r="M232" t="b">
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>25000</v>
+        <v>15</v>
       </c>
       <c r="O232" t="b">
         <v>0</v>
       </c>
-      <c r="P232" t="inlineStr"/>
+      <c r="P232" t="n">
+        <v>12</v>
+      </c>
       <c r="Q232" t="b">
         <v>0</v>
       </c>
@@ -21769,7 +21751,7 @@
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>NÚMERO ABSOLUTO DAS ANÁLISES DE PROCESSOS LICITATÓRIOS REALIZADAS COM O AUXÍLIO DE FERRAMENTAS DE TECNOLOGIA DA INFORMAÇÃO</t>
+          <t>NÚMERO ABSOLUTO DE AÇÕES DE CONTROLE DESENCADEADAS A PARTIR DE CRUZAMENTO DE INFORMAÇÕES EM MASSA REALIZADAS NO EXERCÍCIO</t>
         </is>
       </c>
       <c r="V232" t="inlineStr"/>
@@ -21800,47 +21782,45 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>VOLUME DE RECURSOS PÚBLICOS AFETOS A PROCESSOS LICITATÓRIOS SUBMETIDOS À FISCALIZAÇÃO POR MEIO DE TRILHAS ELETRÔNICAS</t>
+          <t>NÚMERO DE ANÁLISES AUTOMATIZADAS DE PROCESSOS LICITATÓRIOS REALIZADAS COM O AUXÍLIO DE FERRAMENTAS DE TECNOLOGIA DA INFORMAÇÃO</t>
         </is>
       </c>
       <c r="E233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>bilhões de Reais (R$)</t>
+          <t>UNIDADE</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>14.4</v>
+        <v>14600</v>
       </c>
       <c r="H233" t="b">
         <v>0</v>
       </c>
       <c r="I233" s="2" t="n">
-        <v>45657</v>
+        <v>45134</v>
       </c>
       <c r="J233" t="n">
-        <v>15</v>
+        <v>25000</v>
       </c>
       <c r="K233" t="b">
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>15</v>
+        <v>25000</v>
       </c>
       <c r="M233" t="b">
         <v>0</v>
       </c>
       <c r="N233" t="n">
-        <v>15</v>
+        <v>25000</v>
       </c>
       <c r="O233" t="b">
         <v>0</v>
       </c>
-      <c r="P233" t="n">
-        <v>15</v>
-      </c>
+      <c r="P233" t="inlineStr"/>
       <c r="Q233" t="b">
         <v>0</v>
       </c>
@@ -21861,7 +21841,7 @@
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>VALOR, EM BILHÕES DE REAIS, DA SOMA DOS RECURSOS ENVOLVIDOS NOS PROCESSOS LICITATÓRIOS ANALISADOS NAS TRILHAS ELETRÔNICAS DE FISCALIZAÇÃO</t>
+          <t>NÚMERO ABSOLUTO DAS ANÁLISES DE PROCESSOS LICITATÓRIOS REALIZADAS COM O AUXÍLIO DE FERRAMENTAS DE TECNOLOGIA DA INFORMAÇÃO</t>
         </is>
       </c>
       <c r="V233" t="inlineStr"/>
@@ -21892,47 +21872,41 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>ÍNDICE DE APROVEITAMENTO DE PARTICIPANTES CERTIFICADOS COM TÍTULO DE PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS (EAD)</t>
+          <t>INDICE DE APROVEITAMENTO DE PARTICIPAÇÃO DO PÚBLICO INTERNO DO TRIBUNAL EM AÇÕES DE CAPACITAÇÃO REALIZADAS PELA ESCOLA DE CONTAS</t>
         </is>
       </c>
       <c r="E234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="G234" t="n">
-        <v>58.14</v>
-      </c>
+      <c r="G234" t="inlineStr"/>
       <c r="H234" t="b">
-        <v>0</v>
-      </c>
-      <c r="I234" s="2" t="n">
-        <v>45657</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="K234" t="b">
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="M234" t="b">
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="O234" t="b">
         <v>0</v>
       </c>
-      <c r="P234" t="n">
-        <v>55</v>
-      </c>
+      <c r="P234" t="inlineStr"/>
       <c r="Q234" t="b">
         <v>0</v>
       </c>
@@ -21943,7 +21917,7 @@
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Mensal</t>
         </is>
       </c>
       <c r="T234" t="inlineStr">
@@ -21953,7 +21927,7 @@
       </c>
       <c r="U234" t="inlineStr">
         <is>
-          <t>(NÚMERO DE PARTICIPANTES CERTIFICADOS COM TÍTULO DE PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS EAD / TOTAL DE PARTICIPANTES INSCRITOS EM PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS EAD ) * 100</t>
+          <t>(NÚMERO DE PARTICIPANTES INTERNOS DO TRIBUNAL CERTIFICADOS EM AÇÕES DE CAPACITAÇÃO REALIZADAS PELA ESCOLA DE CONTAS / TOTAL DE PARTICIPANTES INTERNOS INSCRITOS EM AÇÕES DE CAPACITAÇÃO REALIZADAS PELA ESCOLA DE CONTAS)*100</t>
         </is>
       </c>
       <c r="V234" t="inlineStr"/>
@@ -21984,7 +21958,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>ÍNDICE DE APROVEITAMENTO DE PARTICIPANTES CERTIFICADOS COM TÍTULO DE PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS (PRESENCIAL)</t>
+          <t>PERCENTUAL DE MUNICÍPIOS DO ESTADO DE MINAS GERAIS ABRANGIDOS PELAS AÇÕES DE CAPACITAÇÃO REALIZADAS PELO TRIBUNAL.</t>
         </is>
       </c>
       <c r="E235" t="b">
@@ -21996,7 +21970,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>78.33</v>
+        <v>76</v>
       </c>
       <c r="H235" t="b">
         <v>0</v>
@@ -22005,25 +21979,25 @@
         <v>45657</v>
       </c>
       <c r="J235" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K235" t="b">
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M235" t="b">
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="O235" t="b">
         <v>0</v>
       </c>
       <c r="P235" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Q235" t="b">
         <v>0</v>
@@ -22035,7 +22009,7 @@
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Mensal</t>
         </is>
       </c>
       <c r="T235" t="inlineStr">
@@ -22045,13 +22019,13 @@
       </c>
       <c r="U235" t="inlineStr">
         <is>
-          <t>(NÚMERO DE PARTICIPANTES CERTIFICADOS COM TÍTULO DE PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS PRESENCIAL / TOTAL DE PARTICIPANTES INSCRITOS NA PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS PRESENCIAL) * 100</t>
+          <t>(NÚMERO DE MUNICÍPIOS DO ESTADO DE MINAS GERAIS ABRANGIDOS PELAS AÇÕES DE CAPACITAÇÃO / TOTAL DE MUNICÍPIOS DO ESTADO DE MINAS GERAIS) * 100.</t>
         </is>
       </c>
       <c r="V235" t="inlineStr"/>
       <c r="W235" t="inlineStr"/>
       <c r="X235" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y235" t="b">
         <v>0</v>
@@ -22076,7 +22050,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>PERCENTUAL DE MUNICÍPIOS DO ESTADO DE MINAS GERAIS ABRANGIDOS PELAS AÇÕES DE CAPACITAÇÃO REALIZADAS PELO TRIBUNAL.</t>
+          <t>ÍNDICE DE APROVEITAMENTO DE PARTICIPANTES CERTIFICADOS COM TÍTULO DE PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS (EAD)</t>
         </is>
       </c>
       <c r="E236" t="b">
@@ -22088,7 +22062,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>76</v>
+        <v>58.14</v>
       </c>
       <c r="H236" t="b">
         <v>0</v>
@@ -22097,25 +22071,25 @@
         <v>45657</v>
       </c>
       <c r="J236" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="K236" t="b">
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="M236" t="b">
         <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="O236" t="b">
         <v>0</v>
       </c>
       <c r="P236" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="Q236" t="b">
         <v>0</v>
@@ -22127,7 +22101,7 @@
       </c>
       <c r="S236" t="inlineStr">
         <is>
-          <t>Mensal</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T236" t="inlineStr">
@@ -22137,13 +22111,13 @@
       </c>
       <c r="U236" t="inlineStr">
         <is>
-          <t>(NÚMERO DE MUNICÍPIOS DO ESTADO DE MINAS GERAIS ABRANGIDOS PELAS AÇÕES DE CAPACITAÇÃO / TOTAL DE MUNICÍPIOS DO ESTADO DE MINAS GERAIS) * 100.</t>
+          <t>(NÚMERO DE PARTICIPANTES CERTIFICADOS COM TÍTULO DE PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS EAD / TOTAL DE PARTICIPANTES INSCRITOS EM PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS EAD ) * 100</t>
         </is>
       </c>
       <c r="V236" t="inlineStr"/>
       <c r="W236" t="inlineStr"/>
       <c r="X236" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y236" t="b">
         <v>0</v>
@@ -22168,41 +22142,47 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>INDICE DE APROVEITAMENTO DE PARTICIPAÇÃO DO PÚBLICO INTERNO DO TRIBUNAL EM AÇÕES DE CAPACITAÇÃO REALIZADAS PELA ESCOLA DE CONTAS</t>
+          <t>ÍNDICE DE APROVEITAMENTO DE PARTICIPANTES CERTIFICADOS COM TÍTULO DE PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr"/>
+      <c r="G237" t="n">
+        <v>78.33</v>
+      </c>
       <c r="H237" t="b">
-        <v>1</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" s="2" t="n">
+        <v>45657</v>
+      </c>
       <c r="J237" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K237" t="b">
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="M237" t="b">
         <v>0</v>
       </c>
       <c r="N237" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="O237" t="b">
         <v>0</v>
       </c>
-      <c r="P237" t="inlineStr"/>
+      <c r="P237" t="n">
+        <v>68</v>
+      </c>
       <c r="Q237" t="b">
         <v>0</v>
       </c>
@@ -22213,7 +22193,7 @@
       </c>
       <c r="S237" t="inlineStr">
         <is>
-          <t>Mensal</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="T237" t="inlineStr">
@@ -22223,13 +22203,13 @@
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>(NÚMERO DE PARTICIPANTES INTERNOS DO TRIBUNAL CERTIFICADOS EM AÇÕES DE CAPACITAÇÃO REALIZADAS PELA ESCOLA DE CONTAS / TOTAL DE PARTICIPANTES INTERNOS INSCRITOS EM AÇÕES DE CAPACITAÇÃO REALIZADAS PELA ESCOLA DE CONTAS)*100</t>
+          <t>(NÚMERO DE PARTICIPANTES CERTIFICADOS COM TÍTULO DE PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS PRESENCIAL / TOTAL DE PARTICIPANTES INSCRITOS NA PÓS-GRADUAÇÃO REALIZADA PELA ESCOLA DE CONTAS PRESENCIAL) * 100</t>
         </is>
       </c>
       <c r="V237" t="inlineStr"/>
       <c r="W237" t="inlineStr"/>
       <c r="X237" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y237" t="b">
         <v>0</v>
@@ -22321,7 +22301,7 @@
       <c r="V238" t="inlineStr"/>
       <c r="W238" t="inlineStr"/>
       <c r="X238" s="2" t="n">
-        <v>45922.63333333333</v>
+        <v>45932.50972222222</v>
       </c>
       <c r="Y238" t="b">
         <v>0</v>
